--- a/docs/UniMove Tickets.xlsx
+++ b/docs/UniMove Tickets.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="124">
   <si>
     <t>Semana 1</t>
   </si>
@@ -150,7 +150,11 @@
     <t>Inicio de sesión y registro con email + contraseña</t>
   </si>
   <si>
-    <t>❌</t>
+    <t>1. Registro de un nuevo usuario en la base de datos
+2. No permitir que se registra un usuario existente
+3. Permitir iniciar sesión a un nuevo usuario registrado
+4. No permitir iniciar sesión a un nuevo usuario con contraseña incorrecta
+5. No permitir iniciar sesión a un nuevo usuario sin estar registrado</t>
   </si>
   <si>
     <t>Crear interfaz donde meter datos</t>
@@ -163,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Crear un mapa para universidades madrileñas </t>
+  </si>
+  <si>
+    <t>❌</t>
   </si>
   <si>
     <t>Crear conexión con API para obtener el nombre y localización de las universidades</t>
@@ -228,6 +235,9 @@
     <t>Semana 2</t>
   </si>
   <si>
+    <t>Requisitos: 7</t>
+  </si>
+  <si>
     <t>Requisitos Finalizados: 0</t>
   </si>
   <si>
@@ -236,6 +246,9 @@
   <si>
     <t xml:space="preserve">1. Entrar en la pantalla donde se muestra la enfermedad/condición del estudiante
 2. Mostrar lista de pasos (protocolo) para saber cómo actuar </t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
   <si>
     <t>Definición de los protocolos para las enfermedades de Supabase</t>
@@ -250,6 +263,9 @@
     <t xml:space="preserve">Backend de los protocolos </t>
   </si>
   <si>
+    <t xml:space="preserve">Hacer los tests correspondientes </t>
+  </si>
+  <si>
     <t>🆕  Chatbot biomédico</t>
   </si>
   <si>
@@ -260,25 +276,22 @@
 </t>
   </si>
   <si>
-    <t>Descargar Ollama y un modelo IA general</t>
+    <t>❌ Descargar Ollama y realizar pruebas desde la terminal</t>
   </si>
   <si>
-    <t>In progress</t>
+    <t>Crear cuenta de Cohere y crear API key</t>
   </si>
   <si>
-    <t>Realizar pruebas del chatbot desde la terminal</t>
+    <t>Realizar pruebas mediante Postman</t>
   </si>
   <si>
     <t>Desarrollar el front-end (HTML/CSS, JS) del chatbox en biomedical.html</t>
   </si>
   <si>
-    <t>Limitar/validar inputs (input vacio, longitud limitado, advertencias) en front-end</t>
+    <t>Set up app.py to run entire backend</t>
   </si>
   <si>
-    <t>Realizar llamadas al Ollama API</t>
-  </si>
-  <si>
-    <t>Realizar pruebas mediante Postman</t>
+    <t>Limitar/validar inputs (input vacio, longitud limitado, advertencias) en front-end</t>
   </si>
   <si>
     <t>🆕  Comparar precios y servicios 
@@ -896,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1079,7 +1092,7 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1328,6 +1341,15 @@
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1352,8 +1374,14 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1364,6 +1392,9 @@
     <xf borderId="0" fillId="4" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1373,14 +1404,17 @@
     <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,9 +1442,6 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -2004,7 +2035,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B17:D18" displayName="Table_18" name="Table_18" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B18:D19" displayName="Table_18" name="Table_18" id="18">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2015,7 +2046,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E17" displayName="Table_19" name="Table_19" id="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E18" displayName="Table_19" name="Table_19" id="19">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2035,7 +2066,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F17:I17" displayName="Table_20" name="Table_20" id="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F18:I18" displayName="Table_20" name="Table_20" id="20">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2047,7 +2078,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E18" displayName="Table_21" name="Table_21" id="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E19" displayName="Table_21" name="Table_21" id="21">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2056,7 +2087,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F18:I18" displayName="Table_22" name="Table_22" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F19:I19" displayName="Table_22" name="Table_22" id="22">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2068,7 +2099,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B19:D19" displayName="Table_23" name="Table_23" id="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B20:D20" displayName="Table_23" name="Table_23" id="23">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2079,7 +2110,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E19" displayName="Table_24" name="Table_24" id="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E20" displayName="Table_24" name="Table_24" id="24">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2088,7 +2119,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F19:I19" displayName="Table_25" name="Table_25" id="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F20:I20" displayName="Table_25" name="Table_25" id="25">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2100,7 +2131,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B20:D20" displayName="Table_26" name="Table_26" id="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B21:D21" displayName="Table_26" name="Table_26" id="26">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2111,7 +2142,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E20" displayName="Table_27" name="Table_27" id="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E21" displayName="Table_27" name="Table_27" id="27">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2120,7 +2151,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F20:I20" displayName="Table_28" name="Table_28" id="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F21:I21" displayName="Table_28" name="Table_28" id="28">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2132,7 +2163,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B21:D21" displayName="Table_29" name="Table_29" id="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B22:D22" displayName="Table_29" name="Table_29" id="29">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2152,7 +2183,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E21" displayName="Table_30" name="Table_30" id="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E22" displayName="Table_30" name="Table_30" id="30">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2161,7 +2192,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F21:I21" displayName="Table_31" name="Table_31" id="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F22:I22" displayName="Table_31" name="Table_31" id="31">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2173,7 +2204,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B22:D22" displayName="Table_32" name="Table_32" id="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B23:D24" displayName="Table_32" name="Table_32" id="32">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2184,7 +2215,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E22" displayName="Table_33" name="Table_33" id="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E23" displayName="Table_33" name="Table_33" id="33">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2193,7 +2224,7 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F22:I22" displayName="Table_34" name="Table_34" id="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F23:I23" displayName="Table_34" name="Table_34" id="34">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2205,7 +2236,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B27:D27" displayName="Table_35" name="Table_35" id="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B28:D28" displayName="Table_35" name="Table_35" id="35">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2216,7 +2247,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E27" displayName="Table_36" name="Table_36" id="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E28" displayName="Table_36" name="Table_36" id="36">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2225,7 +2256,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F27:I27" displayName="Table_37" name="Table_37" id="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F28:I28" displayName="Table_37" name="Table_37" id="37">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2237,7 +2268,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B32:D32" displayName="Table_38" name="Table_38" id="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B33:D33" displayName="Table_38" name="Table_38" id="38">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2248,7 +2279,7 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E32" displayName="Table_39" name="Table_39" id="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E33" displayName="Table_39" name="Table_39" id="39">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2269,7 +2300,7 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F32:I32" displayName="Table_40" name="Table_40" id="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F33:I33" displayName="Table_40" name="Table_40" id="40">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2281,7 +2312,7 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B37:D37" displayName="Table_41" name="Table_41" id="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B38:D38" displayName="Table_41" name="Table_41" id="41">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2292,7 +2323,7 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E37" displayName="Table_42" name="Table_42" id="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E38" displayName="Table_42" name="Table_42" id="42">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2301,7 +2332,7 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F37:I37" displayName="Table_43" name="Table_43" id="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F38:I38" displayName="Table_43" name="Table_43" id="43">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2313,7 +2344,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B42:D44" displayName="Table_44" name="Table_44" id="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B43:D45" displayName="Table_44" name="Table_44" id="44">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2324,7 +2355,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E42" displayName="Table_45" name="Table_45" id="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E43" displayName="Table_45" name="Table_45" id="45">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2333,7 +2364,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F42:I42" displayName="Table_46" name="Table_46" id="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F43:I43" displayName="Table_46" name="Table_46" id="46">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2345,7 +2376,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B49:D54" displayName="Table_47" name="Table_47" id="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B50:D55" displayName="Table_47" name="Table_47" id="47">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2356,7 +2387,7 @@
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E49" displayName="Table_48" name="Table_48" id="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E50" displayName="Table_48" name="Table_48" id="48">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2365,7 +2396,7 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F49:I54" displayName="Table_49" name="Table_49" id="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F50:I55" displayName="Table_49" name="Table_49" id="49">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2644,6 +2675,7 @@
   <sheetPr>
     <tabColor rgb="FFEAD1DC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2652,7 +2684,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
     <col customWidth="1" min="2" max="2" width="43.5"/>
-    <col customWidth="1" min="3" max="3" width="49.5"/>
+    <col customWidth="1" min="3" max="3" width="119.75"/>
     <col customWidth="1" min="4" max="4" width="23.38"/>
     <col customWidth="1" min="5" max="5" width="16.38"/>
   </cols>
@@ -2670,7 +2702,7 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>"Tiempo Tardado Actualmente: " &amp; SUM(I4,I13,I23,I29)</f>
-        <v>Tiempo Tardado Actualmente: 24</v>
+        <v>Tiempo Tardado Actualmente: 30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3697,7 +3729,7 @@
       <c r="AE22" s="58"/>
       <c r="AF22" s="58"/>
     </row>
-    <row r="23" ht="53.25" customHeight="1">
+    <row r="23" ht="65.25" customHeight="1">
       <c r="A23" s="61" t="s">
         <v>10</v>
       </c>
@@ -3705,7 +3737,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D23" s="64">
         <v>8.0</v>
@@ -3720,11 +3752,11 @@
         <v>45929.0</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I23" s="65">
         <f>SUM(I25,I26)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J23" s="67"/>
       <c r="K23" s="67"/>
@@ -3878,7 +3910,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="74">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="J26" s="75"/>
       <c r="K26" s="75"/>
@@ -4009,7 +4041,7 @@
         <v>45929.0</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I29" s="85">
         <v>4.5</v>
@@ -4093,7 +4125,7 @@
         <v>1.0</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="93">
         <v>1.5</v>
@@ -4108,7 +4140,7 @@
         <v>26</v>
       </c>
       <c r="G31" s="93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" s="85" t="s">
         <v>15</v>
@@ -4145,7 +4177,7 @@
         <v>2.0</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="93">
         <v>1.0</v>
@@ -4160,7 +4192,7 @@
         <v>26</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" s="85" t="s">
         <v>15</v>
@@ -4197,7 +4229,7 @@
         <v>3.0</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="93">
         <v>2.0</v>
@@ -4212,7 +4244,7 @@
         <v>14</v>
       </c>
       <c r="G33" s="93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="85" t="s">
         <v>15</v>
@@ -4331,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="104" t="s">
         <v>34</v>
@@ -4349,7 +4381,7 @@
         <v>45929.0</v>
       </c>
       <c r="H36" s="106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I36" s="106">
         <v>4.5</v>
@@ -4433,7 +4465,7 @@
         <v>1.0</v>
       </c>
       <c r="B38" s="113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="114">
         <v>2.0</v>
@@ -4448,7 +4480,7 @@
         <v>14</v>
       </c>
       <c r="G38" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" s="106" t="s">
         <v>15</v>
@@ -4485,7 +4517,7 @@
         <v>2.0</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="114">
         <v>1.0</v>
@@ -4500,7 +4532,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="106" t="s">
         <v>15</v>
@@ -4537,7 +4569,7 @@
         <v>3.0</v>
       </c>
       <c r="B40" s="113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40" s="114">
         <v>2.0</v>
@@ -4552,7 +4584,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" s="106" t="s">
         <v>15</v>
@@ -4589,7 +4621,7 @@
         <v>4.0</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" s="119">
         <v>3.0</v>
@@ -4604,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H41" s="106" t="s">
         <v>15</v>
@@ -4723,7 +4755,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="133" t="s">
         <v>34</v>
@@ -4741,7 +4773,7 @@
         <v>45929.0</v>
       </c>
       <c r="H44" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I44" s="135">
         <v>4.5</v>
@@ -4825,10 +4857,10 @@
         <v>1.0</v>
       </c>
       <c r="B46" s="142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46" s="144">
         <v>45928.0</v>
@@ -4840,13 +4872,13 @@
         <v>26</v>
       </c>
       <c r="G46" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46" s="135" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J46" s="145"/>
       <c r="K46" s="145"/>
@@ -4877,10 +4909,10 @@
         <v>2.0</v>
       </c>
       <c r="B47" s="142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="144">
         <v>45928.0</v>
@@ -4892,13 +4924,13 @@
         <v>26</v>
       </c>
       <c r="G47" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47" s="135" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J47" s="145"/>
       <c r="K47" s="145"/>
@@ -4929,10 +4961,10 @@
         <v>3.0</v>
       </c>
       <c r="B48" s="142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48" s="144">
         <v>45928.0</v>
@@ -4944,13 +4976,13 @@
         <v>14</v>
       </c>
       <c r="G48" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H48" s="135" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J48" s="145"/>
       <c r="K48" s="145"/>
@@ -4981,24 +5013,24 @@
         <v>4.0</v>
       </c>
       <c r="B49" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="147" t="s">
         <v>66</v>
-      </c>
-      <c r="C49" s="147" t="s">
-        <v>65</v>
       </c>
       <c r="D49" s="148"/>
       <c r="E49" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="143" t="s">
         <v>26</v>
       </c>
       <c r="G49" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -36983,6 +37015,9 @@
     <hyperlink r:id="rId9" ref="G19"/>
     <hyperlink r:id="rId10" ref="G20"/>
   </hyperlinks>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId11"/>
   <tableParts count="16">
     <tablePart r:id="rId28"/>
@@ -37024,49 +37059,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <f>"Tiempo Estimado: " </f>
-        <v>Tiempo Estimado: </v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <f>"Tiempo Tardado Actualmente: " &amp; SUM(I4,I15,I25,I35)</f>
-        <v>Tiempo Tardado Actualmente: 0</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>"Tiempo Estimado: " &amp; SUM(D4,D15,D26,D31,D36,D41,D48)</f>
+        <v>Tiempo Estimado: 76</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"Tiempo Tardado Actualmente: " &amp; SUM(I4,I15,I26,I36)</f>
+        <v>Tiempo Tardado Actualmente: 0,75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -37154,11 +37189,11 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="149" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="150" t="s">
-        <v>71</v>
+      <c r="B4" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="153" t="s">
+        <v>73</v>
       </c>
       <c r="D4" s="9">
         <v>13.0</v>
@@ -37173,35 +37208,35 @@
         <v>45936.0</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I4" s="12">
-        <f>SUM(I6,I7:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
+        <f>SUM(I6,I7:I12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
     </row>
     <row r="5">
       <c r="A5" s="16"/>
@@ -37295,11 +37330,11 @@
         <v>23</v>
       </c>
       <c r="C7" s="24">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>26</v>
@@ -37308,9 +37343,11 @@
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.75</v>
+      </c>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -37338,15 +37375,15 @@
       <c r="A8" s="19">
         <v>2.0</v>
       </c>
-      <c r="B8" s="152" t="s">
-        <v>72</v>
+      <c r="B8" s="155" t="s">
+        <v>75</v>
       </c>
       <c r="C8" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>14</v>
@@ -37355,7 +37392,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I8" s="24"/>
       <c r="K8" s="28"/>
@@ -37385,15 +37422,15 @@
       <c r="A9" s="19">
         <v>3.0</v>
       </c>
-      <c r="B9" s="153" t="s">
-        <v>73</v>
+      <c r="B9" s="156" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="24">
         <v>2.0</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>26</v>
@@ -37402,7 +37439,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I9" s="24"/>
       <c r="K9" s="28"/>
@@ -37432,15 +37469,15 @@
       <c r="A10" s="19">
         <v>4.0</v>
       </c>
-      <c r="B10" s="153" t="s">
-        <v>74</v>
+      <c r="B10" s="156" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="24">
         <v>1.0</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>26</v>
@@ -37449,7 +37486,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I10" s="24"/>
       <c r="K10" s="28"/>
@@ -37479,15 +37516,15 @@
       <c r="A11" s="19">
         <v>5.0</v>
       </c>
-      <c r="B11" s="153" t="s">
-        <v>75</v>
+      <c r="B11" s="156" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="24">
         <v>1.5</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>14</v>
@@ -37496,7 +37533,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I11" s="24"/>
       <c r="K11" s="28"/>
@@ -37526,15 +37563,15 @@
       <c r="A12" s="19">
         <v>6.0</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>32</v>
+      <c r="B12" s="155" t="s">
+        <v>79</v>
       </c>
       <c r="C12" s="24">
         <v>0.5</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>26</v>
@@ -37543,7 +37580,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I12" s="24"/>
       <c r="L12" s="18"/>
@@ -37647,11 +37684,11 @@
       <c r="A15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="155" t="s">
-        <v>77</v>
+      <c r="B15" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="158" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="42">
         <v>13.0</v>
@@ -37666,7 +37703,7 @@
         <v>45936.0</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="46"/>
@@ -37747,26 +37784,30 @@
       <c r="A17" s="47">
         <v>1.0</v>
       </c>
-      <c r="B17" s="156" t="s">
-        <v>78</v>
+      <c r="B17" s="159" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="52">
         <v>1.0</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="53">
+        <v>45930.0</v>
+      </c>
       <c r="E17" s="52" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="I17" s="52">
+        <v>2.0</v>
+      </c>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
@@ -37795,26 +37836,30 @@
       <c r="A18" s="47">
         <v>2.0</v>
       </c>
-      <c r="B18" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="53"/>
+      <c r="B18" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="161">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="162">
+        <v>45930.0</v>
+      </c>
       <c r="E18" s="52" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>37</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="I18" s="52">
+        <v>0.25</v>
+      </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
@@ -37840,114 +37885,124 @@
       <c r="AF18" s="55"/>
     </row>
     <row r="19">
-      <c r="A19" s="157">
+      <c r="A19" s="47">
         <v>3.0</v>
       </c>
-      <c r="B19" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="159">
+      <c r="B19" s="163" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="164">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="165">
+        <v>45930.0</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="166">
+        <v>4.0</v>
+      </c>
+      <c r="B20" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="161">
         <v>3.0</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="159" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="161" t="s">
+      <c r="D20" s="162">
+        <v>45930.0</v>
+      </c>
+      <c r="E20" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="164" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="162" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="159"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="163"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="47">
-        <v>4.0</v>
-      </c>
-      <c r="B20" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
+      <c r="H20" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="164">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="169"/>
+      <c r="U20" s="169"/>
+      <c r="V20" s="169"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="169"/>
+      <c r="Y20" s="169"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="169"/>
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="169"/>
+      <c r="AD20" s="169"/>
+      <c r="AE20" s="169"/>
+      <c r="AF20" s="169"/>
     </row>
     <row r="21">
       <c r="A21" s="47">
         <v>5.0</v>
       </c>
-      <c r="B21" s="156" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="53"/>
+      <c r="B21" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="164">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="165">
+        <v>45930.0</v>
+      </c>
       <c r="E21" s="52" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>14</v>
@@ -37956,9 +38011,11 @@
         <v>37</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="52"/>
+        <v>15</v>
+      </c>
+      <c r="I21" s="52">
+        <v>2.0</v>
+      </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
@@ -37987,24 +38044,24 @@
       <c r="A22" s="47">
         <v>6.0</v>
       </c>
-      <c r="B22" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="52">
+      <c r="B22" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="161">
         <v>2.0</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="162"/>
       <c r="E22" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I22" s="52"/>
       <c r="J22" s="55"/>
@@ -38032,1161 +38089,1161 @@
       <c r="AF22" s="55"/>
     </row>
     <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
+      <c r="A23" s="47">
+        <v>7.0</v>
+      </c>
+      <c r="B23" s="163"/>
+      <c r="C23" s="164">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="165"/>
+      <c r="E23" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="52"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D25" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E25" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F25" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G25" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I25" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="58"/>
-      <c r="AF24" s="58"/>
-    </row>
-    <row r="25" ht="53.25" customHeight="1">
-      <c r="A25" s="61" t="s">
+      <c r="J25" s="59"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
+      <c r="AF25" s="58"/>
+    </row>
+    <row r="26" ht="53.25" customHeight="1">
+      <c r="A26" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="64">
+      <c r="B26" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="64">
         <v>13.0</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E26" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F26" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G26" s="66">
         <v>45936.0</v>
       </c>
-      <c r="H25" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68" t="s">
+      <c r="H26" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="65"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C27" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D27" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E27" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F27" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G27" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H27" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="70" t="s">
+      <c r="I27" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="68">
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="68">
         <v>1.0</v>
       </c>
-      <c r="B27" s="166" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="64">
+      <c r="B28" s="172" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="64">
         <v>1.0</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="74" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G28" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="75"/>
-      <c r="Y27" s="75"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
+      <c r="H28" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
     </row>
     <row r="29">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D30" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E30" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F30" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G30" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H30" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I30" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-    </row>
-    <row r="30" ht="53.25" customHeight="1">
-      <c r="A30" s="61" t="s">
+      <c r="J30" s="59"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+    </row>
+    <row r="31" ht="53.25" customHeight="1">
+      <c r="A31" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C31" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D31" s="64">
         <v>8.0</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E31" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G31" s="66">
         <v>45936.0</v>
       </c>
-      <c r="H30" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68" t="s">
+      <c r="H31" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="65"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="67"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C32" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D32" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E32" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="F32" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G32" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I32" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="68">
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="68">
         <v>1.0</v>
       </c>
-      <c r="B32" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="64">
+      <c r="B33" s="172" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="64">
         <v>1.0</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="74" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="74" t="s">
+      <c r="G33" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="74"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="168"/>
-      <c r="Q33" s="168"/>
-      <c r="R33" s="168"/>
-      <c r="S33" s="168"/>
-      <c r="T33" s="168"/>
-      <c r="U33" s="168"/>
-      <c r="V33" s="168"/>
-      <c r="W33" s="168"/>
-      <c r="X33" s="168"/>
-      <c r="Y33" s="168"/>
-      <c r="Z33" s="168"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="168"/>
-      <c r="AF33" s="168"/>
+      <c r="H33" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
     </row>
     <row r="34">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78" t="s">
+      <c r="A34" s="174"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175"/>
+      <c r="Z34" s="175"/>
+      <c r="AA34" s="175"/>
+      <c r="AB34" s="175"/>
+      <c r="AC34" s="175"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="175"/>
+      <c r="AF34" s="175"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D35" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="78" t="s">
+      <c r="E35" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F35" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G35" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="79" t="s">
+      <c r="H35" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="78" t="s">
+      <c r="I35" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="77"/>
-      <c r="Y34" s="77"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="77"/>
-      <c r="AB34" s="77"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-    </row>
-    <row r="35" ht="53.25" customHeight="1">
-      <c r="A35" s="81" t="s">
+      <c r="J35" s="78"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="77"/>
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="77"/>
+      <c r="AB35" s="77"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="77"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="77"/>
+    </row>
+    <row r="36" ht="53.25" customHeight="1">
+      <c r="A36" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B36" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C36" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D36" s="84">
         <v>8.0</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E36" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F36" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="86">
+      <c r="G36" s="86">
         <v>45936.0</v>
       </c>
-      <c r="H35" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="85"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88" t="s">
+      <c r="H36" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="85"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="88"/>
+      <c r="B37" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C37" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D37" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E37" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F37" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="89" t="s">
+      <c r="G37" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="88" t="s">
+      <c r="H37" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="90" t="s">
+      <c r="I37" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="91"/>
-      <c r="Y36" s="91"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="91"/>
-      <c r="AB36" s="91"/>
-      <c r="AC36" s="91"/>
-      <c r="AD36" s="91"/>
-      <c r="AE36" s="91"/>
-      <c r="AF36" s="91"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="88">
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="91"/>
+      <c r="P37" s="91"/>
+      <c r="Q37" s="91"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="91"/>
+      <c r="T37" s="91"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="91"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="91"/>
+      <c r="AD37" s="91"/>
+      <c r="AE37" s="91"/>
+      <c r="AF37" s="91"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="88">
         <v>1.0</v>
       </c>
-      <c r="B37" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="93" t="s">
+      <c r="B38" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="93"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="95"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="95"/>
-      <c r="AA37" s="95"/>
-      <c r="AB37" s="95"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="95"/>
-      <c r="AE37" s="95"/>
-      <c r="AF37" s="95"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
+      <c r="G38" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="93"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="95"/>
+      <c r="AD38" s="95"/>
+      <c r="AE38" s="95"/>
+      <c r="AF38" s="95"/>
     </row>
     <row r="39">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="97"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D40" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E40" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="99" t="s">
+      <c r="F40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G40" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="100" t="s">
+      <c r="H40" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="99" t="s">
+      <c r="I40" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="99"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="98"/>
-      <c r="T39" s="98"/>
-      <c r="U39" s="98"/>
-      <c r="V39" s="98"/>
-      <c r="W39" s="98"/>
-      <c r="X39" s="98"/>
-      <c r="Y39" s="98"/>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="98"/>
-      <c r="AB39" s="98"/>
-      <c r="AC39" s="98"/>
-      <c r="AD39" s="98"/>
-      <c r="AE39" s="98"/>
-      <c r="AF39" s="98"/>
-    </row>
-    <row r="40" ht="53.25" customHeight="1">
-      <c r="A40" s="102" t="s">
+      <c r="J40" s="99"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="98"/>
+      <c r="S40" s="98"/>
+      <c r="T40" s="98"/>
+      <c r="U40" s="98"/>
+      <c r="V40" s="98"/>
+      <c r="W40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="98"/>
+      <c r="AA40" s="98"/>
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AE40" s="98"/>
+      <c r="AF40" s="98"/>
+    </row>
+    <row r="41" ht="53.25" customHeight="1">
+      <c r="A41" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="173" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="106" t="s">
+      <c r="B41" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="105">
+        <v>8.0</v>
+      </c>
+      <c r="E41" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="107">
+      <c r="G41" s="107">
         <v>45936.0</v>
       </c>
-      <c r="H40" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="106"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="108"/>
-      <c r="X40" s="108"/>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="108"/>
-      <c r="AE40" s="108"/>
-      <c r="AF40" s="108"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109" t="s">
+      <c r="H41" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="106"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="108"/>
+      <c r="U41" s="108"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="108"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="108"/>
+      <c r="AE41" s="108"/>
+      <c r="AF41" s="108"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="109"/>
+      <c r="B42" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C42" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D42" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="110" t="s">
+      <c r="E42" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="111" t="s">
+      <c r="F42" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G42" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="109" t="s">
+      <c r="H42" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="111" t="s">
+      <c r="I42" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="112"/>
-      <c r="V41" s="112"/>
-      <c r="W41" s="112"/>
-      <c r="X41" s="112"/>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="112"/>
-      <c r="AA41" s="112"/>
-      <c r="AB41" s="112"/>
-      <c r="AC41" s="112"/>
-      <c r="AD41" s="112"/>
-      <c r="AE41" s="112"/>
-      <c r="AF41" s="112"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="B42" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="114">
-        <v>3.0</v>
-      </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="114"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="117"/>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="117"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="112"/>
+      <c r="S42" s="112"/>
+      <c r="T42" s="112"/>
+      <c r="U42" s="112"/>
+      <c r="V42" s="112"/>
+      <c r="W42" s="112"/>
+      <c r="X42" s="112"/>
+      <c r="Y42" s="112"/>
+      <c r="Z42" s="112"/>
+      <c r="AA42" s="112"/>
+      <c r="AB42" s="112"/>
+      <c r="AC42" s="112"/>
+      <c r="AD42" s="112"/>
+      <c r="AE42" s="112"/>
+      <c r="AF42" s="112"/>
     </row>
     <row r="43">
       <c r="A43" s="109">
-        <v>2.0</v>
-      </c>
-      <c r="B43" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="119">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="175"/>
+        <v>1.0</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="114">
+        <v>3.0</v>
+      </c>
+      <c r="D43" s="115"/>
       <c r="E43" s="114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F43" s="116" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="I43" s="114"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="117"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="117"/>
     </row>
     <row r="44">
       <c r="A44" s="109">
-        <v>3.0</v>
-      </c>
-      <c r="B44" s="174" t="s">
-        <v>95</v>
+        <v>2.0</v>
+      </c>
+      <c r="B44" s="181" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="119">
         <v>2.0</v>
       </c>
-      <c r="D44" s="175"/>
+      <c r="D44" s="182"/>
       <c r="E44" s="114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F44" s="116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="109">
+        <v>3.0</v>
+      </c>
+      <c r="B45" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="119">
+        <v>2.0</v>
+      </c>
+      <c r="D45" s="182"/>
+      <c r="E45" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="140"/>
-      <c r="K44" s="176"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="177"/>
-      <c r="O44" s="177"/>
-      <c r="P44" s="177"/>
-      <c r="Q44" s="177"/>
-      <c r="R44" s="177"/>
-      <c r="S44" s="177"/>
-      <c r="T44" s="177"/>
-      <c r="U44" s="177"/>
-      <c r="V44" s="177"/>
-      <c r="W44" s="177"/>
-      <c r="X44" s="177"/>
-      <c r="Y44" s="177"/>
-      <c r="Z44" s="177"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="177"/>
-      <c r="AC44" s="177"/>
-      <c r="AD44" s="177"/>
-      <c r="AE44" s="177"/>
-      <c r="AF44" s="177"/>
-    </row>
-    <row r="45">
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="145"/>
-      <c r="N45" s="145"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145"/>
-      <c r="R45" s="145"/>
-      <c r="S45" s="145"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="145"/>
-      <c r="V45" s="145"/>
-      <c r="W45" s="145"/>
-      <c r="X45" s="145"/>
-      <c r="Y45" s="145"/>
-      <c r="Z45" s="145"/>
-      <c r="AA45" s="145"/>
-      <c r="AB45" s="145"/>
-      <c r="AC45" s="145"/>
-      <c r="AD45" s="145"/>
-      <c r="AE45" s="145"/>
-      <c r="AF45" s="145"/>
+      <c r="G45" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="140"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151"/>
+      <c r="S45" s="151"/>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="151"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="151"/>
+      <c r="Y45" s="151"/>
+      <c r="Z45" s="151"/>
+      <c r="AA45" s="151"/>
+      <c r="AB45" s="151"/>
+      <c r="AC45" s="151"/>
+      <c r="AD45" s="151"/>
+      <c r="AE45" s="151"/>
+      <c r="AF45" s="151"/>
     </row>
     <row r="46">
-      <c r="A46" s="126"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="128" t="s">
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="145"/>
+      <c r="P46" s="145"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="145"/>
+      <c r="S46" s="145"/>
+      <c r="T46" s="145"/>
+      <c r="U46" s="145"/>
+      <c r="V46" s="145"/>
+      <c r="W46" s="145"/>
+      <c r="X46" s="145"/>
+      <c r="Y46" s="145"/>
+      <c r="Z46" s="145"/>
+      <c r="AA46" s="145"/>
+      <c r="AB46" s="145"/>
+      <c r="AC46" s="145"/>
+      <c r="AD46" s="145"/>
+      <c r="AE46" s="145"/>
+      <c r="AF46" s="145"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="126"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="128" t="s">
+      <c r="D47" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="128" t="s">
+      <c r="E47" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="128" t="s">
+      <c r="F47" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="128" t="s">
+      <c r="G47" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="129" t="s">
+      <c r="H47" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="128" t="s">
+      <c r="I47" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="178"/>
-      <c r="P46" s="178"/>
-      <c r="Q46" s="178"/>
-      <c r="R46" s="178"/>
-      <c r="S46" s="178"/>
-      <c r="T46" s="178"/>
-      <c r="U46" s="178"/>
-      <c r="V46" s="178"/>
-      <c r="W46" s="178"/>
-      <c r="X46" s="178"/>
-      <c r="Y46" s="178"/>
-      <c r="Z46" s="178"/>
-      <c r="AA46" s="178"/>
-      <c r="AB46" s="178"/>
-      <c r="AC46" s="178"/>
-      <c r="AD46" s="178"/>
-      <c r="AE46" s="178"/>
-      <c r="AF46" s="178"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="131" t="s">
+      <c r="J47" s="184"/>
+      <c r="K47" s="184"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="184"/>
+      <c r="O47" s="184"/>
+      <c r="P47" s="184"/>
+      <c r="Q47" s="184"/>
+      <c r="R47" s="184"/>
+      <c r="S47" s="184"/>
+      <c r="T47" s="184"/>
+      <c r="U47" s="184"/>
+      <c r="V47" s="184"/>
+      <c r="W47" s="184"/>
+      <c r="X47" s="184"/>
+      <c r="Y47" s="184"/>
+      <c r="Z47" s="184"/>
+      <c r="AA47" s="184"/>
+      <c r="AB47" s="184"/>
+      <c r="AC47" s="184"/>
+      <c r="AD47" s="184"/>
+      <c r="AE47" s="184"/>
+      <c r="AF47" s="184"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="179" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="134"/>
-      <c r="E47" s="135" t="s">
+      <c r="B48" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="185" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="134">
+        <v>13.0</v>
+      </c>
+      <c r="E48" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="135" t="s">
+      <c r="F48" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="136">
+      <c r="G48" s="136">
         <v>45936.0</v>
       </c>
-      <c r="H47" s="135"/>
-      <c r="I47" s="135"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="139" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="139" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="138" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="140" t="s">
-        <v>22</v>
-      </c>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
@@ -39212,29 +39269,31 @@
       <c r="AF48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="138">
-        <v>1.0</v>
-      </c>
-      <c r="B49" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="143">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="144"/>
-      <c r="E49" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="143" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" s="143"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="140" t="s">
+        <v>22</v>
+      </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
@@ -39261,28 +39320,28 @@
     </row>
     <row r="50">
       <c r="A50" s="138">
+        <v>1.0</v>
+      </c>
+      <c r="B50" s="186" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="143">
         <v>2.0</v>
       </c>
-      <c r="B50" s="181" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="147">
-        <v>1.5</v>
-      </c>
-      <c r="D50" s="148"/>
+      <c r="D50" s="144"/>
       <c r="E50" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="143" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G50" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H50" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="148"/>
+        <v>48</v>
+      </c>
+      <c r="I50" s="143"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
@@ -39309,26 +39368,26 @@
     </row>
     <row r="51">
       <c r="A51" s="138">
-        <v>3.0</v>
-      </c>
-      <c r="B51" s="181" t="s">
-        <v>100</v>
+        <v>2.0</v>
+      </c>
+      <c r="B51" s="187" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="147">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="D51" s="148"/>
       <c r="E51" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="143" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I51" s="148"/>
       <c r="J51" s="18"/>
@@ -39357,26 +39416,26 @@
     </row>
     <row r="52">
       <c r="A52" s="138">
-        <v>4.0</v>
-      </c>
-      <c r="B52" s="181" t="s">
-        <v>101</v>
+        <v>3.0</v>
+      </c>
+      <c r="B52" s="187" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="147">
         <v>2.0</v>
       </c>
       <c r="D52" s="148"/>
       <c r="E52" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52" s="143" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G52" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H52" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I52" s="148"/>
       <c r="J52" s="18"/>
@@ -39405,26 +39464,26 @@
     </row>
     <row r="53">
       <c r="A53" s="138">
-        <v>5.0</v>
-      </c>
-      <c r="B53" s="181" t="s">
-        <v>102</v>
+        <v>4.0</v>
+      </c>
+      <c r="B53" s="187" t="s">
+        <v>104</v>
       </c>
       <c r="C53" s="147">
         <v>2.0</v>
       </c>
       <c r="D53" s="148"/>
       <c r="E53" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="143" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H53" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I53" s="148"/>
       <c r="J53" s="18"/>
@@ -39453,26 +39512,26 @@
     </row>
     <row r="54">
       <c r="A54" s="138">
-        <v>6.0</v>
-      </c>
-      <c r="B54" s="181" t="s">
-        <v>103</v>
+        <v>5.0</v>
+      </c>
+      <c r="B54" s="187" t="s">
+        <v>105</v>
       </c>
       <c r="C54" s="147">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D54" s="148"/>
       <c r="E54" s="143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="143" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G54" s="143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54" s="135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I54" s="148"/>
       <c r="J54" s="18"/>
@@ -39500,15 +39559,29 @@
       <c r="AF54" s="18"/>
     </row>
     <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
+      <c r="A55" s="138">
+        <v>6.0</v>
+      </c>
+      <c r="B55" s="187" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="147">
+        <v>1.0</v>
+      </c>
+      <c r="D55" s="148"/>
+      <c r="E55" s="143" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="148"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
@@ -71119,21 +71192,55 @@
       <c r="AE984" s="18"/>
       <c r="AF984" s="18"/>
     </row>
+    <row r="985">
+      <c r="A985" s="16"/>
+      <c r="B985" s="18"/>
+      <c r="C985" s="18"/>
+      <c r="D985" s="18"/>
+      <c r="E985" s="18"/>
+      <c r="F985" s="18"/>
+      <c r="G985" s="18"/>
+      <c r="H985" s="18"/>
+      <c r="I985" s="18"/>
+      <c r="J985" s="18"/>
+      <c r="K985" s="18"/>
+      <c r="L985" s="18"/>
+      <c r="M985" s="18"/>
+      <c r="N985" s="18"/>
+      <c r="O985" s="18"/>
+      <c r="P985" s="18"/>
+      <c r="Q985" s="18"/>
+      <c r="R985" s="18"/>
+      <c r="S985" s="18"/>
+      <c r="T985" s="18"/>
+      <c r="U985" s="18"/>
+      <c r="V985" s="18"/>
+      <c r="W985" s="18"/>
+      <c r="X985" s="18"/>
+      <c r="Y985" s="18"/>
+      <c r="Z985" s="18"/>
+      <c r="AA985" s="18"/>
+      <c r="AB985" s="18"/>
+      <c r="AC985" s="18"/>
+      <c r="AD985" s="18"/>
+      <c r="AE985" s="18"/>
+      <c r="AF985" s="18"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F15 F25 F30 F35 F40 F47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F15 F26 F31 F36 F41 F48">
       <formula1>"Bajo,Medio,Alto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4 E15 E25 E30 E35 E40 E47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4 E15 E26 E31 E36 E41 E48">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F4 F7:F12 F17:F22 F27 F32 F37 F42:F44 F49:F54">
+    <dataValidation type="list" allowBlank="1" sqref="F4 F7:F12 F17:F23 F28 F33 F38 F43:F45 F50:F55">
       <formula1>"Bajo,Medio,Alto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4 H7:H12 H15 H17:H22 H25 H27 H30 H32 H35 H37 H40 H42:H44 H47 H49:H54">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4 H7:H12 H15 H17:H23 H26 H28 H31 H33 H36 H38 H41 H43:H45 H48 H50:H55">
       <formula1>"✅,❌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E7:E12 E17:E22 E27 E32 E37 E42:E44 E49:E54">
+    <dataValidation type="list" allowBlank="1" sqref="E7:E12 E17:E23 E28 E33 E38 E43:E45 E50:E55">
       <formula1>"Not started,In progress,Blocked,Completed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -71150,10 +71257,10 @@
     <hyperlink r:id="rId10" ref="G20"/>
     <hyperlink r:id="rId11" ref="G21"/>
     <hyperlink r:id="rId12" ref="G22"/>
+    <hyperlink r:id="rId13" ref="G23"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
   <tableParts count="33">
-    <tablePart r:id="rId47"/>
     <tablePart r:id="rId48"/>
     <tablePart r:id="rId49"/>
     <tablePart r:id="rId50"/>
@@ -71186,6 +71293,7 @@
     <tablePart r:id="rId77"/>
     <tablePart r:id="rId78"/>
     <tablePart r:id="rId79"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>
@@ -71214,2955 +71322,2955 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
     </row>
     <row r="2">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
+      <c r="A2" s="191"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
     </row>
     <row r="3">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="188" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="188" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="188" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="188" t="s">
+      <c r="B3" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="188" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="188" t="s">
+      <c r="F3" s="194" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="188" t="s">
+      <c r="H3" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="189" t="s">
+      <c r="I3" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
-      <c r="L3" s="186"/>
-      <c r="M3" s="186"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="186"/>
-      <c r="Q3" s="186"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="186"/>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
     </row>
     <row r="4">
-      <c r="A4" s="190" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="191" t="s">
+      <c r="A4" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193" t="s">
+      <c r="B4" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="194" t="s">
+      <c r="C4" s="198"/>
+      <c r="D4" s="199" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" s="194" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="192"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
+      <c r="F4" s="201" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="198"/>
+      <c r="I4" s="202"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="203"/>
+      <c r="O4" s="203"/>
+      <c r="P4" s="203"/>
+      <c r="Q4" s="203"/>
+      <c r="R4" s="203"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="203"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="203"/>
+      <c r="W4" s="203"/>
+      <c r="X4" s="203"/>
+      <c r="Y4" s="203"/>
     </row>
     <row r="5">
-      <c r="A5" s="198" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="199" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="200"/>
-      <c r="D5" s="201" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="202" t="s">
+      <c r="A5" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="206"/>
+      <c r="D5" s="207" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="202" t="s">
+      <c r="F5" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="200"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="205"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="205"/>
-      <c r="T5" s="205"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="205"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="205"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="211"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="211"/>
+      <c r="Q5" s="211"/>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+      <c r="V5" s="211"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="211"/>
     </row>
     <row r="6">
-      <c r="A6" s="190" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="191" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193" t="s">
+      <c r="A6" s="196" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="194" t="s">
+      <c r="C6" s="198"/>
+      <c r="D6" s="199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="194" t="s">
+      <c r="F6" s="201" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="192"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="203"/>
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="203"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="203"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="203"/>
+      <c r="V6" s="203"/>
+      <c r="W6" s="203"/>
+      <c r="X6" s="203"/>
+      <c r="Y6" s="203"/>
     </row>
     <row r="7">
-      <c r="A7" s="198" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="199" t="s">
+      <c r="A7" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="201" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="202" t="s">
+      <c r="E7" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="202" t="s">
+      <c r="F7" s="209" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="206" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="212" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
     </row>
     <row r="8">
-      <c r="A8" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="208" t="s">
+      <c r="A8" s="213" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="194" t="s">
+      <c r="B8" s="214" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="193" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="194" t="s">
+      <c r="D8" s="199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="194" t="s">
+      <c r="F8" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="194" t="s">
+      <c r="H8" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="209" t="s">
-        <v>111</v>
+      <c r="I8" s="215" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="210" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="211" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="202" t="s">
+      <c r="A9" s="216" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="217" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="201" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="202" t="s">
+      <c r="D9" s="207" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="203" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="202" t="s">
+      <c r="F9" s="209" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="202" t="s">
+      <c r="H9" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="212" t="s">
-        <v>60</v>
+      <c r="I9" s="218" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="208" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="194" t="s">
+      <c r="A10" s="213" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="214" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="193" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="194" t="s">
+      <c r="D10" s="199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="195" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="194" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
+      <c r="F10" s="201" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="198"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="203"/>
+      <c r="L10" s="203"/>
+      <c r="M10" s="203"/>
+      <c r="N10" s="203"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="203"/>
+      <c r="X10" s="203"/>
+      <c r="Y10" s="203"/>
     </row>
     <row r="11">
-      <c r="A11" s="213" t="s">
+      <c r="A11" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="214" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="215" t="s">
+      <c r="B11" s="220" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="215" t="s">
+      <c r="E11" s="221" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="217" t="s">
+      <c r="F11" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="215" t="s">
+      <c r="G11" s="221" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="218" t="s">
+      <c r="H11" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="219" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="197"/>
-      <c r="K11" s="197"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="197"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="197"/>
+      <c r="I11" s="225" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="203"/>
+      <c r="K11" s="203"/>
+      <c r="L11" s="203"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="203"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="203"/>
+      <c r="X11" s="203"/>
+      <c r="Y11" s="203"/>
     </row>
     <row r="12">
-      <c r="A12" s="220" t="s">
+      <c r="A12" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="194" t="s">
+      <c r="H12" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="224" t="s">
+      <c r="I12" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="197"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="197"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="197"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="203"/>
+      <c r="M12" s="203"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="203"/>
+      <c r="S12" s="203"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="203"/>
+      <c r="W12" s="203"/>
+      <c r="X12" s="203"/>
+      <c r="Y12" s="203"/>
     </row>
     <row r="13">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="202" t="s">
+      <c r="C13" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="216" t="s">
+      <c r="D13" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="202" t="s">
+      <c r="E13" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="202" t="s">
+      <c r="G13" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="202" t="s">
+      <c r="H13" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="219" t="s">
+      <c r="I13" s="225" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="220" t="s">
+      <c r="A14" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="221" t="s">
+      <c r="B14" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="222" t="s">
+      <c r="D14" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="223" t="s">
+      <c r="F14" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="194" t="s">
+      <c r="G14" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="194" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="224" t="s">
+      <c r="H14" s="200" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="197"/>
-      <c r="N14" s="197"/>
-      <c r="O14" s="197"/>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="197"/>
-      <c r="R14" s="197"/>
-      <c r="S14" s="197"/>
-      <c r="T14" s="197"/>
-      <c r="U14" s="197"/>
-      <c r="V14" s="197"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="197"/>
-      <c r="Y14" s="197"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="203"/>
+      <c r="S14" s="203"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="203"/>
+      <c r="W14" s="203"/>
+      <c r="X14" s="203"/>
+      <c r="Y14" s="203"/>
     </row>
     <row r="15">
-      <c r="A15" s="225" t="s">
+      <c r="A15" s="231" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="226" t="s">
+      <c r="B15" s="232" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="207" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="208" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="207" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="208" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="206"/>
+      <c r="I15" s="210"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="233" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="234" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="199" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="200" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="199" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="200" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="198"/>
+      <c r="I16" s="202"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="231" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="232" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="207" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="207" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="208" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="206"/>
+      <c r="I17" s="210"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="235" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="236" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="238" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="237" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="237" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="240" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="244" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="245" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="246" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="235" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="236" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="238" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="237" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="237" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="237" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="240" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="242" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="244" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="243" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="245" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="246" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="235" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="236" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="238" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="237" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="237" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="240" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="242" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="244" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="243" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="245" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="243" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="246" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="235" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="236" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="238" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="237" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="I24" s="240"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="247" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="248" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="201" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="202" t="s">
+      <c r="D25" s="207" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="201" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="202" t="s">
+      <c r="F25" s="209" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="200"/>
-      <c r="I15" s="204"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="227" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="228" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="194" t="s">
+      <c r="H25" s="206"/>
+      <c r="I25" s="218" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="249" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="250" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="194" t="s">
+      <c r="D26" s="199" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="193" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="194" t="s">
+      <c r="F26" s="201" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="192"/>
-      <c r="I16" s="196"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="225" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="226" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="202" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="201" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="202" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="201" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="202" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="204"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="230" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="232" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="231" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="233" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="231" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="231" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="234" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="236" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="237" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="237" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="240" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="230" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="232" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="231" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="233" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="231" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="231" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="236" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="238" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="237" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="237" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="240" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="230" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="232" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="231" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="233" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="231" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="231" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="236" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="237" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="238" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="237" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="237" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="240" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="229" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="230" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="231" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="232" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="231" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="233" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="231" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="231" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="234"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="241" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="242" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="202" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="201" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="202" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="202" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="200"/>
-      <c r="I25" s="212" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="243" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="244" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="194" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="193" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="194" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="194" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="192"/>
-      <c r="I26" s="209" t="s">
-        <v>65</v>
+      <c r="H26" s="198"/>
+      <c r="I26" s="215" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="245"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
+      <c r="A27" s="251"/>
+      <c r="B27" s="252"/>
+      <c r="C27" s="253"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="252"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
     </row>
     <row r="28">
-      <c r="A28" s="248"/>
-      <c r="B28" s="249"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="196"/>
+      <c r="A28" s="254"/>
+      <c r="B28" s="255"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="202"/>
     </row>
     <row r="29">
-      <c r="A29" s="251"/>
-      <c r="B29" s="252"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="204"/>
+      <c r="A29" s="257"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="210"/>
     </row>
     <row r="30">
-      <c r="A30" s="248"/>
-      <c r="B30" s="249"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="196"/>
+      <c r="A30" s="254"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="202"/>
     </row>
     <row r="31">
-      <c r="A31" s="251"/>
-      <c r="B31" s="252"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="253"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="204"/>
+      <c r="A31" s="257"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="210"/>
     </row>
     <row r="32">
-      <c r="A32" s="248"/>
-      <c r="B32" s="249"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="196"/>
+      <c r="A32" s="254"/>
+      <c r="B32" s="255"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="202"/>
     </row>
     <row r="33">
-      <c r="A33" s="251"/>
-      <c r="B33" s="252"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="204"/>
+      <c r="A33" s="257"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="258"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="210"/>
     </row>
     <row r="34">
-      <c r="A34" s="248"/>
-      <c r="B34" s="249"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="196"/>
+      <c r="A34" s="254"/>
+      <c r="B34" s="255"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="256"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="255"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="202"/>
     </row>
     <row r="35">
-      <c r="A35" s="251"/>
-      <c r="B35" s="252"/>
-      <c r="C35" s="200"/>
-      <c r="D35" s="253"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="252"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="204"/>
+      <c r="A35" s="257"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="210"/>
     </row>
     <row r="36">
-      <c r="A36" s="248"/>
-      <c r="B36" s="249"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="196"/>
+      <c r="A36" s="254"/>
+      <c r="B36" s="255"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="256"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="255"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="202"/>
     </row>
     <row r="37">
-      <c r="A37" s="251"/>
-      <c r="B37" s="252"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="204"/>
+      <c r="A37" s="257"/>
+      <c r="B37" s="258"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="210"/>
     </row>
     <row r="38">
-      <c r="A38" s="248"/>
-      <c r="B38" s="249"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="249"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="196"/>
+      <c r="A38" s="254"/>
+      <c r="B38" s="255"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="256"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="255"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="202"/>
     </row>
     <row r="39">
-      <c r="A39" s="251"/>
-      <c r="B39" s="252"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="253"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="204"/>
+      <c r="A39" s="257"/>
+      <c r="B39" s="258"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="258"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="210"/>
     </row>
     <row r="40">
-      <c r="A40" s="248"/>
-      <c r="B40" s="249"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="250"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="249"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="196"/>
+      <c r="A40" s="254"/>
+      <c r="B40" s="255"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="256"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="202"/>
     </row>
     <row r="41">
-      <c r="A41" s="251"/>
-      <c r="B41" s="252"/>
-      <c r="C41" s="200"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="204"/>
+      <c r="A41" s="257"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="258"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="210"/>
     </row>
     <row r="42">
-      <c r="A42" s="248"/>
-      <c r="B42" s="249"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="250"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="249"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="196"/>
+      <c r="A42" s="254"/>
+      <c r="B42" s="255"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="256"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="202"/>
     </row>
     <row r="43">
-      <c r="A43" s="251"/>
-      <c r="B43" s="252"/>
-      <c r="C43" s="200"/>
-      <c r="D43" s="253"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="252"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="204"/>
+      <c r="A43" s="257"/>
+      <c r="B43" s="258"/>
+      <c r="C43" s="206"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="210"/>
     </row>
     <row r="44">
-      <c r="A44" s="248"/>
-      <c r="B44" s="249"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="196"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="255"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="256"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="255"/>
+      <c r="G44" s="198"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="202"/>
     </row>
     <row r="45">
-      <c r="A45" s="251"/>
-      <c r="B45" s="252"/>
-      <c r="C45" s="200"/>
-      <c r="D45" s="253"/>
-      <c r="E45" s="200"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="200"/>
-      <c r="H45" s="200"/>
-      <c r="I45" s="204"/>
+      <c r="A45" s="257"/>
+      <c r="B45" s="258"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="206"/>
+      <c r="F45" s="258"/>
+      <c r="G45" s="206"/>
+      <c r="H45" s="206"/>
+      <c r="I45" s="210"/>
     </row>
     <row r="46">
-      <c r="A46" s="248"/>
-      <c r="B46" s="249"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="250"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="249"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="196"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="255"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="202"/>
     </row>
     <row r="47">
-      <c r="A47" s="251"/>
-      <c r="B47" s="252"/>
-      <c r="C47" s="200"/>
-      <c r="D47" s="253"/>
-      <c r="E47" s="200"/>
-      <c r="F47" s="252"/>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
-      <c r="I47" s="204"/>
+      <c r="A47" s="257"/>
+      <c r="B47" s="258"/>
+      <c r="C47" s="206"/>
+      <c r="D47" s="259"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="258"/>
+      <c r="G47" s="206"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="210"/>
     </row>
     <row r="48">
-      <c r="A48" s="248"/>
-      <c r="B48" s="249"/>
-      <c r="C48" s="192"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="192"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="192"/>
-      <c r="H48" s="192"/>
-      <c r="I48" s="196"/>
+      <c r="A48" s="254"/>
+      <c r="B48" s="255"/>
+      <c r="C48" s="198"/>
+      <c r="D48" s="256"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="255"/>
+      <c r="G48" s="198"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="202"/>
     </row>
     <row r="49">
-      <c r="A49" s="251"/>
-      <c r="B49" s="252"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="200"/>
-      <c r="F49" s="252"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="204"/>
+      <c r="A49" s="257"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="206"/>
+      <c r="D49" s="259"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="258"/>
+      <c r="G49" s="206"/>
+      <c r="H49" s="206"/>
+      <c r="I49" s="210"/>
     </row>
     <row r="50">
-      <c r="A50" s="248"/>
-      <c r="B50" s="249"/>
-      <c r="C50" s="192"/>
-      <c r="D50" s="250"/>
-      <c r="E50" s="192"/>
-      <c r="F50" s="249"/>
-      <c r="G50" s="192"/>
-      <c r="H50" s="192"/>
-      <c r="I50" s="196"/>
+      <c r="A50" s="254"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="256"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="255"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="202"/>
     </row>
     <row r="51">
-      <c r="A51" s="251"/>
-      <c r="B51" s="252"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="253"/>
-      <c r="E51" s="200"/>
-      <c r="F51" s="252"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="204"/>
+      <c r="A51" s="257"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="259"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="258"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="210"/>
     </row>
     <row r="52">
-      <c r="A52" s="248"/>
-      <c r="B52" s="249"/>
-      <c r="C52" s="192"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="249"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="196"/>
+      <c r="A52" s="254"/>
+      <c r="B52" s="255"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="256"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="255"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="202"/>
     </row>
     <row r="53">
-      <c r="A53" s="251"/>
-      <c r="B53" s="252"/>
-      <c r="C53" s="200"/>
-      <c r="D53" s="253"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="252"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="204"/>
+      <c r="A53" s="257"/>
+      <c r="B53" s="258"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="259"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="210"/>
     </row>
     <row r="54">
-      <c r="A54" s="248"/>
-      <c r="B54" s="249"/>
-      <c r="C54" s="192"/>
-      <c r="D54" s="250"/>
-      <c r="E54" s="192"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="192"/>
-      <c r="H54" s="192"/>
-      <c r="I54" s="196"/>
+      <c r="A54" s="254"/>
+      <c r="B54" s="255"/>
+      <c r="C54" s="198"/>
+      <c r="D54" s="256"/>
+      <c r="E54" s="198"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="198"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="202"/>
     </row>
     <row r="55">
-      <c r="A55" s="251"/>
-      <c r="B55" s="252"/>
-      <c r="C55" s="200"/>
-      <c r="D55" s="253"/>
-      <c r="E55" s="200"/>
-      <c r="F55" s="252"/>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="204"/>
+      <c r="A55" s="257"/>
+      <c r="B55" s="258"/>
+      <c r="C55" s="206"/>
+      <c r="D55" s="259"/>
+      <c r="E55" s="206"/>
+      <c r="F55" s="258"/>
+      <c r="G55" s="206"/>
+      <c r="H55" s="206"/>
+      <c r="I55" s="210"/>
     </row>
     <row r="56">
-      <c r="A56" s="248"/>
-      <c r="B56" s="249"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="250"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="249"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="196"/>
+      <c r="A56" s="254"/>
+      <c r="B56" s="255"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="256"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="255"/>
+      <c r="G56" s="198"/>
+      <c r="H56" s="198"/>
+      <c r="I56" s="202"/>
     </row>
     <row r="57">
-      <c r="A57" s="251"/>
-      <c r="B57" s="252"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="253"/>
-      <c r="E57" s="200"/>
-      <c r="F57" s="252"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="204"/>
+      <c r="A57" s="257"/>
+      <c r="B57" s="258"/>
+      <c r="C57" s="206"/>
+      <c r="D57" s="259"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="258"/>
+      <c r="G57" s="206"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="210"/>
     </row>
     <row r="58">
-      <c r="A58" s="248"/>
-      <c r="B58" s="249"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="250"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="249"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="196"/>
+      <c r="A58" s="254"/>
+      <c r="B58" s="255"/>
+      <c r="C58" s="198"/>
+      <c r="D58" s="256"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="255"/>
+      <c r="G58" s="198"/>
+      <c r="H58" s="198"/>
+      <c r="I58" s="202"/>
     </row>
     <row r="59">
-      <c r="A59" s="251"/>
-      <c r="B59" s="252"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="253"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="252"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="204"/>
+      <c r="A59" s="257"/>
+      <c r="B59" s="258"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="259"/>
+      <c r="E59" s="206"/>
+      <c r="F59" s="258"/>
+      <c r="G59" s="206"/>
+      <c r="H59" s="206"/>
+      <c r="I59" s="210"/>
     </row>
     <row r="60">
-      <c r="A60" s="248"/>
-      <c r="B60" s="249"/>
-      <c r="C60" s="192"/>
-      <c r="D60" s="250"/>
-      <c r="E60" s="192"/>
-      <c r="F60" s="249"/>
-      <c r="G60" s="192"/>
-      <c r="H60" s="192"/>
-      <c r="I60" s="196"/>
+      <c r="A60" s="254"/>
+      <c r="B60" s="255"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="256"/>
+      <c r="E60" s="198"/>
+      <c r="F60" s="255"/>
+      <c r="G60" s="198"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="202"/>
     </row>
     <row r="61">
-      <c r="A61" s="251"/>
-      <c r="B61" s="252"/>
-      <c r="C61" s="200"/>
-      <c r="D61" s="253"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="252"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="204"/>
+      <c r="A61" s="257"/>
+      <c r="B61" s="258"/>
+      <c r="C61" s="206"/>
+      <c r="D61" s="259"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="258"/>
+      <c r="G61" s="206"/>
+      <c r="H61" s="206"/>
+      <c r="I61" s="210"/>
     </row>
     <row r="62">
-      <c r="A62" s="248"/>
-      <c r="B62" s="249"/>
-      <c r="C62" s="192"/>
-      <c r="D62" s="250"/>
-      <c r="E62" s="192"/>
-      <c r="F62" s="249"/>
-      <c r="G62" s="192"/>
-      <c r="H62" s="192"/>
-      <c r="I62" s="196"/>
+      <c r="A62" s="254"/>
+      <c r="B62" s="255"/>
+      <c r="C62" s="198"/>
+      <c r="D62" s="256"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="255"/>
+      <c r="G62" s="198"/>
+      <c r="H62" s="198"/>
+      <c r="I62" s="202"/>
     </row>
     <row r="63">
-      <c r="A63" s="251"/>
-      <c r="B63" s="252"/>
-      <c r="C63" s="200"/>
-      <c r="D63" s="253"/>
-      <c r="E63" s="200"/>
-      <c r="F63" s="252"/>
-      <c r="G63" s="200"/>
-      <c r="H63" s="200"/>
-      <c r="I63" s="204"/>
+      <c r="A63" s="257"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="206"/>
+      <c r="D63" s="259"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="258"/>
+      <c r="G63" s="206"/>
+      <c r="H63" s="206"/>
+      <c r="I63" s="210"/>
     </row>
     <row r="64">
-      <c r="A64" s="248"/>
-      <c r="B64" s="249"/>
-      <c r="C64" s="192"/>
-      <c r="D64" s="250"/>
-      <c r="E64" s="192"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="192"/>
-      <c r="H64" s="192"/>
-      <c r="I64" s="196"/>
+      <c r="A64" s="254"/>
+      <c r="B64" s="255"/>
+      <c r="C64" s="198"/>
+      <c r="D64" s="256"/>
+      <c r="E64" s="198"/>
+      <c r="F64" s="255"/>
+      <c r="G64" s="198"/>
+      <c r="H64" s="198"/>
+      <c r="I64" s="202"/>
     </row>
     <row r="65">
-      <c r="A65" s="251"/>
-      <c r="B65" s="252"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="253"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="252"/>
-      <c r="G65" s="200"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="204"/>
+      <c r="A65" s="257"/>
+      <c r="B65" s="258"/>
+      <c r="C65" s="206"/>
+      <c r="D65" s="259"/>
+      <c r="E65" s="206"/>
+      <c r="F65" s="258"/>
+      <c r="G65" s="206"/>
+      <c r="H65" s="206"/>
+      <c r="I65" s="210"/>
     </row>
     <row r="66">
-      <c r="A66" s="248"/>
-      <c r="B66" s="249"/>
-      <c r="C66" s="192"/>
-      <c r="D66" s="250"/>
-      <c r="E66" s="192"/>
-      <c r="F66" s="249"/>
-      <c r="G66" s="192"/>
-      <c r="H66" s="192"/>
-      <c r="I66" s="196"/>
+      <c r="A66" s="254"/>
+      <c r="B66" s="255"/>
+      <c r="C66" s="198"/>
+      <c r="D66" s="256"/>
+      <c r="E66" s="198"/>
+      <c r="F66" s="255"/>
+      <c r="G66" s="198"/>
+      <c r="H66" s="198"/>
+      <c r="I66" s="202"/>
     </row>
     <row r="67">
-      <c r="A67" s="251"/>
-      <c r="B67" s="252"/>
-      <c r="C67" s="200"/>
-      <c r="D67" s="253"/>
-      <c r="E67" s="200"/>
-      <c r="F67" s="252"/>
-      <c r="G67" s="200"/>
-      <c r="H67" s="200"/>
-      <c r="I67" s="204"/>
+      <c r="A67" s="257"/>
+      <c r="B67" s="258"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="206"/>
+      <c r="F67" s="258"/>
+      <c r="G67" s="206"/>
+      <c r="H67" s="206"/>
+      <c r="I67" s="210"/>
     </row>
     <row r="68">
-      <c r="A68" s="248"/>
-      <c r="B68" s="249"/>
-      <c r="C68" s="192"/>
-      <c r="D68" s="250"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="192"/>
-      <c r="H68" s="192"/>
-      <c r="I68" s="196"/>
+      <c r="A68" s="254"/>
+      <c r="B68" s="255"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="256"/>
+      <c r="E68" s="198"/>
+      <c r="F68" s="255"/>
+      <c r="G68" s="198"/>
+      <c r="H68" s="198"/>
+      <c r="I68" s="202"/>
     </row>
     <row r="69">
-      <c r="A69" s="251"/>
-      <c r="B69" s="252"/>
-      <c r="C69" s="200"/>
-      <c r="D69" s="253"/>
-      <c r="E69" s="200"/>
-      <c r="F69" s="252"/>
-      <c r="G69" s="200"/>
-      <c r="H69" s="200"/>
-      <c r="I69" s="204"/>
+      <c r="A69" s="257"/>
+      <c r="B69" s="258"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="206"/>
+      <c r="F69" s="258"/>
+      <c r="G69" s="206"/>
+      <c r="H69" s="206"/>
+      <c r="I69" s="210"/>
     </row>
     <row r="70">
-      <c r="A70" s="248"/>
-      <c r="B70" s="249"/>
-      <c r="C70" s="192"/>
-      <c r="D70" s="250"/>
-      <c r="E70" s="192"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="192"/>
-      <c r="H70" s="192"/>
-      <c r="I70" s="196"/>
+      <c r="A70" s="254"/>
+      <c r="B70" s="255"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="256"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="255"/>
+      <c r="G70" s="198"/>
+      <c r="H70" s="198"/>
+      <c r="I70" s="202"/>
     </row>
     <row r="71">
-      <c r="A71" s="251"/>
-      <c r="B71" s="252"/>
-      <c r="C71" s="200"/>
-      <c r="D71" s="253"/>
-      <c r="E71" s="200"/>
-      <c r="F71" s="252"/>
-      <c r="G71" s="200"/>
-      <c r="H71" s="200"/>
-      <c r="I71" s="204"/>
+      <c r="A71" s="257"/>
+      <c r="B71" s="258"/>
+      <c r="C71" s="206"/>
+      <c r="D71" s="259"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="258"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="206"/>
+      <c r="I71" s="210"/>
     </row>
     <row r="72">
-      <c r="A72" s="248"/>
-      <c r="B72" s="249"/>
-      <c r="C72" s="192"/>
-      <c r="D72" s="250"/>
-      <c r="E72" s="192"/>
-      <c r="F72" s="249"/>
-      <c r="G72" s="192"/>
-      <c r="H72" s="192"/>
-      <c r="I72" s="196"/>
+      <c r="A72" s="254"/>
+      <c r="B72" s="255"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="256"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="255"/>
+      <c r="G72" s="198"/>
+      <c r="H72" s="198"/>
+      <c r="I72" s="202"/>
     </row>
     <row r="73">
-      <c r="A73" s="251"/>
-      <c r="B73" s="252"/>
-      <c r="C73" s="200"/>
-      <c r="D73" s="253"/>
-      <c r="E73" s="200"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="200"/>
-      <c r="H73" s="200"/>
-      <c r="I73" s="204"/>
+      <c r="A73" s="257"/>
+      <c r="B73" s="258"/>
+      <c r="C73" s="206"/>
+      <c r="D73" s="259"/>
+      <c r="E73" s="206"/>
+      <c r="F73" s="258"/>
+      <c r="G73" s="206"/>
+      <c r="H73" s="206"/>
+      <c r="I73" s="210"/>
     </row>
     <row r="74">
-      <c r="A74" s="248"/>
-      <c r="B74" s="249"/>
-      <c r="C74" s="192"/>
-      <c r="D74" s="250"/>
-      <c r="E74" s="192"/>
-      <c r="F74" s="249"/>
-      <c r="G74" s="192"/>
-      <c r="H74" s="192"/>
-      <c r="I74" s="196"/>
+      <c r="A74" s="254"/>
+      <c r="B74" s="255"/>
+      <c r="C74" s="198"/>
+      <c r="D74" s="256"/>
+      <c r="E74" s="198"/>
+      <c r="F74" s="255"/>
+      <c r="G74" s="198"/>
+      <c r="H74" s="198"/>
+      <c r="I74" s="202"/>
     </row>
     <row r="75">
-      <c r="A75" s="251"/>
-      <c r="B75" s="252"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="253"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="252"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="204"/>
+      <c r="A75" s="257"/>
+      <c r="B75" s="258"/>
+      <c r="C75" s="206"/>
+      <c r="D75" s="259"/>
+      <c r="E75" s="206"/>
+      <c r="F75" s="258"/>
+      <c r="G75" s="206"/>
+      <c r="H75" s="206"/>
+      <c r="I75" s="210"/>
     </row>
     <row r="76">
-      <c r="A76" s="248"/>
-      <c r="B76" s="249"/>
-      <c r="C76" s="192"/>
-      <c r="D76" s="250"/>
-      <c r="E76" s="192"/>
-      <c r="F76" s="249"/>
-      <c r="G76" s="192"/>
-      <c r="H76" s="192"/>
-      <c r="I76" s="196"/>
+      <c r="A76" s="254"/>
+      <c r="B76" s="255"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="256"/>
+      <c r="E76" s="198"/>
+      <c r="F76" s="255"/>
+      <c r="G76" s="198"/>
+      <c r="H76" s="198"/>
+      <c r="I76" s="202"/>
     </row>
     <row r="77">
-      <c r="A77" s="251"/>
-      <c r="B77" s="252"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="253"/>
-      <c r="E77" s="200"/>
-      <c r="F77" s="252"/>
-      <c r="G77" s="200"/>
-      <c r="H77" s="200"/>
-      <c r="I77" s="204"/>
+      <c r="A77" s="257"/>
+      <c r="B77" s="258"/>
+      <c r="C77" s="206"/>
+      <c r="D77" s="259"/>
+      <c r="E77" s="206"/>
+      <c r="F77" s="258"/>
+      <c r="G77" s="206"/>
+      <c r="H77" s="206"/>
+      <c r="I77" s="210"/>
     </row>
     <row r="78">
-      <c r="A78" s="248"/>
-      <c r="B78" s="249"/>
-      <c r="C78" s="192"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="192"/>
-      <c r="F78" s="249"/>
-      <c r="G78" s="192"/>
-      <c r="H78" s="192"/>
-      <c r="I78" s="196"/>
+      <c r="A78" s="254"/>
+      <c r="B78" s="255"/>
+      <c r="C78" s="198"/>
+      <c r="D78" s="256"/>
+      <c r="E78" s="198"/>
+      <c r="F78" s="255"/>
+      <c r="G78" s="198"/>
+      <c r="H78" s="198"/>
+      <c r="I78" s="202"/>
     </row>
     <row r="79">
-      <c r="A79" s="251"/>
-      <c r="B79" s="252"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="253"/>
-      <c r="E79" s="200"/>
-      <c r="F79" s="252"/>
-      <c r="G79" s="200"/>
-      <c r="H79" s="200"/>
-      <c r="I79" s="204"/>
+      <c r="A79" s="257"/>
+      <c r="B79" s="258"/>
+      <c r="C79" s="206"/>
+      <c r="D79" s="259"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="258"/>
+      <c r="G79" s="206"/>
+      <c r="H79" s="206"/>
+      <c r="I79" s="210"/>
     </row>
     <row r="80">
-      <c r="A80" s="248"/>
-      <c r="B80" s="249"/>
-      <c r="C80" s="192"/>
-      <c r="D80" s="250"/>
-      <c r="E80" s="192"/>
-      <c r="F80" s="249"/>
-      <c r="G80" s="192"/>
-      <c r="H80" s="192"/>
-      <c r="I80" s="196"/>
+      <c r="A80" s="254"/>
+      <c r="B80" s="255"/>
+      <c r="C80" s="198"/>
+      <c r="D80" s="256"/>
+      <c r="E80" s="198"/>
+      <c r="F80" s="255"/>
+      <c r="G80" s="198"/>
+      <c r="H80" s="198"/>
+      <c r="I80" s="202"/>
     </row>
     <row r="81">
-      <c r="A81" s="251"/>
-      <c r="B81" s="252"/>
-      <c r="C81" s="200"/>
-      <c r="D81" s="253"/>
-      <c r="E81" s="200"/>
-      <c r="F81" s="252"/>
-      <c r="G81" s="200"/>
-      <c r="H81" s="200"/>
-      <c r="I81" s="204"/>
+      <c r="A81" s="257"/>
+      <c r="B81" s="258"/>
+      <c r="C81" s="206"/>
+      <c r="D81" s="259"/>
+      <c r="E81" s="206"/>
+      <c r="F81" s="258"/>
+      <c r="G81" s="206"/>
+      <c r="H81" s="206"/>
+      <c r="I81" s="210"/>
     </row>
     <row r="82">
-      <c r="A82" s="248"/>
-      <c r="B82" s="249"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="250"/>
-      <c r="E82" s="192"/>
-      <c r="F82" s="249"/>
-      <c r="G82" s="192"/>
-      <c r="H82" s="192"/>
-      <c r="I82" s="196"/>
+      <c r="A82" s="254"/>
+      <c r="B82" s="255"/>
+      <c r="C82" s="198"/>
+      <c r="D82" s="256"/>
+      <c r="E82" s="198"/>
+      <c r="F82" s="255"/>
+      <c r="G82" s="198"/>
+      <c r="H82" s="198"/>
+      <c r="I82" s="202"/>
     </row>
     <row r="83">
-      <c r="A83" s="251"/>
-      <c r="B83" s="252"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="253"/>
-      <c r="E83" s="200"/>
-      <c r="F83" s="252"/>
-      <c r="G83" s="200"/>
-      <c r="H83" s="200"/>
-      <c r="I83" s="204"/>
+      <c r="A83" s="257"/>
+      <c r="B83" s="258"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="259"/>
+      <c r="E83" s="206"/>
+      <c r="F83" s="258"/>
+      <c r="G83" s="206"/>
+      <c r="H83" s="206"/>
+      <c r="I83" s="210"/>
     </row>
     <row r="84">
-      <c r="A84" s="248"/>
-      <c r="B84" s="249"/>
-      <c r="C84" s="192"/>
-      <c r="D84" s="250"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="249"/>
-      <c r="G84" s="192"/>
-      <c r="H84" s="192"/>
-      <c r="I84" s="196"/>
+      <c r="A84" s="254"/>
+      <c r="B84" s="255"/>
+      <c r="C84" s="198"/>
+      <c r="D84" s="256"/>
+      <c r="E84" s="198"/>
+      <c r="F84" s="255"/>
+      <c r="G84" s="198"/>
+      <c r="H84" s="198"/>
+      <c r="I84" s="202"/>
     </row>
     <row r="85">
-      <c r="A85" s="251"/>
-      <c r="B85" s="252"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="253"/>
-      <c r="E85" s="200"/>
-      <c r="F85" s="252"/>
-      <c r="G85" s="200"/>
-      <c r="H85" s="200"/>
-      <c r="I85" s="204"/>
+      <c r="A85" s="257"/>
+      <c r="B85" s="258"/>
+      <c r="C85" s="206"/>
+      <c r="D85" s="259"/>
+      <c r="E85" s="206"/>
+      <c r="F85" s="258"/>
+      <c r="G85" s="206"/>
+      <c r="H85" s="206"/>
+      <c r="I85" s="210"/>
     </row>
     <row r="86">
-      <c r="A86" s="248"/>
-      <c r="B86" s="249"/>
-      <c r="C86" s="192"/>
-      <c r="D86" s="250"/>
-      <c r="E86" s="192"/>
-      <c r="F86" s="249"/>
-      <c r="G86" s="192"/>
-      <c r="H86" s="192"/>
-      <c r="I86" s="196"/>
+      <c r="A86" s="254"/>
+      <c r="B86" s="255"/>
+      <c r="C86" s="198"/>
+      <c r="D86" s="256"/>
+      <c r="E86" s="198"/>
+      <c r="F86" s="255"/>
+      <c r="G86" s="198"/>
+      <c r="H86" s="198"/>
+      <c r="I86" s="202"/>
     </row>
     <row r="87">
-      <c r="A87" s="251"/>
-      <c r="B87" s="252"/>
-      <c r="C87" s="200"/>
-      <c r="D87" s="253"/>
-      <c r="E87" s="200"/>
-      <c r="F87" s="252"/>
-      <c r="G87" s="200"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="204"/>
+      <c r="A87" s="257"/>
+      <c r="B87" s="258"/>
+      <c r="C87" s="206"/>
+      <c r="D87" s="259"/>
+      <c r="E87" s="206"/>
+      <c r="F87" s="258"/>
+      <c r="G87" s="206"/>
+      <c r="H87" s="206"/>
+      <c r="I87" s="210"/>
     </row>
     <row r="88">
-      <c r="A88" s="248"/>
-      <c r="B88" s="249"/>
-      <c r="C88" s="192"/>
-      <c r="D88" s="250"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="249"/>
-      <c r="G88" s="192"/>
-      <c r="H88" s="192"/>
-      <c r="I88" s="196"/>
+      <c r="A88" s="254"/>
+      <c r="B88" s="255"/>
+      <c r="C88" s="198"/>
+      <c r="D88" s="256"/>
+      <c r="E88" s="198"/>
+      <c r="F88" s="255"/>
+      <c r="G88" s="198"/>
+      <c r="H88" s="198"/>
+      <c r="I88" s="202"/>
     </row>
     <row r="89">
-      <c r="A89" s="251"/>
-      <c r="B89" s="252"/>
-      <c r="C89" s="200"/>
-      <c r="D89" s="253"/>
-      <c r="E89" s="200"/>
-      <c r="F89" s="252"/>
-      <c r="G89" s="200"/>
-      <c r="H89" s="200"/>
-      <c r="I89" s="204"/>
+      <c r="A89" s="257"/>
+      <c r="B89" s="258"/>
+      <c r="C89" s="206"/>
+      <c r="D89" s="259"/>
+      <c r="E89" s="206"/>
+      <c r="F89" s="258"/>
+      <c r="G89" s="206"/>
+      <c r="H89" s="206"/>
+      <c r="I89" s="210"/>
     </row>
     <row r="90">
-      <c r="A90" s="248"/>
-      <c r="B90" s="249"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="250"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="249"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="196"/>
+      <c r="A90" s="254"/>
+      <c r="B90" s="255"/>
+      <c r="C90" s="198"/>
+      <c r="D90" s="256"/>
+      <c r="E90" s="198"/>
+      <c r="F90" s="255"/>
+      <c r="G90" s="198"/>
+      <c r="H90" s="198"/>
+      <c r="I90" s="202"/>
     </row>
     <row r="91">
-      <c r="A91" s="251"/>
-      <c r="B91" s="252"/>
-      <c r="C91" s="200"/>
-      <c r="D91" s="253"/>
-      <c r="E91" s="200"/>
-      <c r="F91" s="252"/>
-      <c r="G91" s="200"/>
-      <c r="H91" s="200"/>
-      <c r="I91" s="204"/>
+      <c r="A91" s="257"/>
+      <c r="B91" s="258"/>
+      <c r="C91" s="206"/>
+      <c r="D91" s="259"/>
+      <c r="E91" s="206"/>
+      <c r="F91" s="258"/>
+      <c r="G91" s="206"/>
+      <c r="H91" s="206"/>
+      <c r="I91" s="210"/>
     </row>
     <row r="92">
-      <c r="A92" s="248"/>
-      <c r="B92" s="249"/>
-      <c r="C92" s="192"/>
-      <c r="D92" s="250"/>
-      <c r="E92" s="192"/>
-      <c r="F92" s="249"/>
-      <c r="G92" s="192"/>
-      <c r="H92" s="192"/>
-      <c r="I92" s="196"/>
+      <c r="A92" s="254"/>
+      <c r="B92" s="255"/>
+      <c r="C92" s="198"/>
+      <c r="D92" s="256"/>
+      <c r="E92" s="198"/>
+      <c r="F92" s="255"/>
+      <c r="G92" s="198"/>
+      <c r="H92" s="198"/>
+      <c r="I92" s="202"/>
     </row>
     <row r="93">
-      <c r="A93" s="251"/>
-      <c r="B93" s="252"/>
-      <c r="C93" s="200"/>
-      <c r="D93" s="253"/>
-      <c r="E93" s="200"/>
-      <c r="F93" s="252"/>
-      <c r="G93" s="200"/>
-      <c r="H93" s="200"/>
-      <c r="I93" s="204"/>
+      <c r="A93" s="257"/>
+      <c r="B93" s="258"/>
+      <c r="C93" s="206"/>
+      <c r="D93" s="259"/>
+      <c r="E93" s="206"/>
+      <c r="F93" s="258"/>
+      <c r="G93" s="206"/>
+      <c r="H93" s="206"/>
+      <c r="I93" s="210"/>
     </row>
     <row r="94">
-      <c r="A94" s="248"/>
-      <c r="B94" s="249"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="250"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="249"/>
-      <c r="G94" s="192"/>
-      <c r="H94" s="192"/>
-      <c r="I94" s="196"/>
+      <c r="A94" s="254"/>
+      <c r="B94" s="255"/>
+      <c r="C94" s="198"/>
+      <c r="D94" s="256"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="255"/>
+      <c r="G94" s="198"/>
+      <c r="H94" s="198"/>
+      <c r="I94" s="202"/>
     </row>
     <row r="95">
-      <c r="A95" s="251"/>
-      <c r="B95" s="252"/>
-      <c r="C95" s="200"/>
-      <c r="D95" s="253"/>
-      <c r="E95" s="200"/>
-      <c r="F95" s="252"/>
-      <c r="G95" s="200"/>
-      <c r="H95" s="200"/>
-      <c r="I95" s="204"/>
+      <c r="A95" s="257"/>
+      <c r="B95" s="258"/>
+      <c r="C95" s="206"/>
+      <c r="D95" s="259"/>
+      <c r="E95" s="206"/>
+      <c r="F95" s="258"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="210"/>
     </row>
     <row r="96">
-      <c r="A96" s="248"/>
-      <c r="B96" s="249"/>
-      <c r="C96" s="192"/>
-      <c r="D96" s="250"/>
-      <c r="E96" s="192"/>
-      <c r="F96" s="249"/>
-      <c r="G96" s="192"/>
-      <c r="H96" s="192"/>
-      <c r="I96" s="196"/>
+      <c r="A96" s="254"/>
+      <c r="B96" s="255"/>
+      <c r="C96" s="198"/>
+      <c r="D96" s="256"/>
+      <c r="E96" s="198"/>
+      <c r="F96" s="255"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="202"/>
     </row>
     <row r="97">
-      <c r="A97" s="251"/>
-      <c r="B97" s="252"/>
-      <c r="C97" s="200"/>
-      <c r="D97" s="253"/>
-      <c r="E97" s="200"/>
-      <c r="F97" s="252"/>
-      <c r="G97" s="200"/>
-      <c r="H97" s="200"/>
-      <c r="I97" s="204"/>
+      <c r="A97" s="257"/>
+      <c r="B97" s="258"/>
+      <c r="C97" s="206"/>
+      <c r="D97" s="259"/>
+      <c r="E97" s="206"/>
+      <c r="F97" s="258"/>
+      <c r="G97" s="206"/>
+      <c r="H97" s="206"/>
+      <c r="I97" s="210"/>
     </row>
     <row r="98">
-      <c r="A98" s="248"/>
-      <c r="B98" s="249"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="250"/>
-      <c r="E98" s="192"/>
-      <c r="F98" s="249"/>
-      <c r="G98" s="192"/>
-      <c r="H98" s="192"/>
-      <c r="I98" s="196"/>
+      <c r="A98" s="254"/>
+      <c r="B98" s="255"/>
+      <c r="C98" s="198"/>
+      <c r="D98" s="256"/>
+      <c r="E98" s="198"/>
+      <c r="F98" s="255"/>
+      <c r="G98" s="198"/>
+      <c r="H98" s="198"/>
+      <c r="I98" s="202"/>
     </row>
     <row r="99">
-      <c r="A99" s="251"/>
-      <c r="B99" s="252"/>
-      <c r="C99" s="200"/>
-      <c r="D99" s="253"/>
-      <c r="E99" s="200"/>
-      <c r="F99" s="252"/>
-      <c r="G99" s="200"/>
-      <c r="H99" s="200"/>
-      <c r="I99" s="204"/>
+      <c r="A99" s="257"/>
+      <c r="B99" s="258"/>
+      <c r="C99" s="206"/>
+      <c r="D99" s="259"/>
+      <c r="E99" s="206"/>
+      <c r="F99" s="258"/>
+      <c r="G99" s="206"/>
+      <c r="H99" s="206"/>
+      <c r="I99" s="210"/>
     </row>
     <row r="100">
-      <c r="A100" s="248"/>
-      <c r="B100" s="249"/>
-      <c r="C100" s="192"/>
-      <c r="D100" s="250"/>
-      <c r="E100" s="192"/>
-      <c r="F100" s="249"/>
-      <c r="G100" s="192"/>
-      <c r="H100" s="192"/>
-      <c r="I100" s="196"/>
+      <c r="A100" s="254"/>
+      <c r="B100" s="255"/>
+      <c r="C100" s="198"/>
+      <c r="D100" s="256"/>
+      <c r="E100" s="198"/>
+      <c r="F100" s="255"/>
+      <c r="G100" s="198"/>
+      <c r="H100" s="198"/>
+      <c r="I100" s="202"/>
     </row>
     <row r="101">
-      <c r="A101" s="251"/>
-      <c r="B101" s="252"/>
-      <c r="C101" s="200"/>
-      <c r="D101" s="253"/>
-      <c r="E101" s="200"/>
-      <c r="F101" s="252"/>
-      <c r="G101" s="200"/>
-      <c r="H101" s="200"/>
-      <c r="I101" s="204"/>
+      <c r="A101" s="257"/>
+      <c r="B101" s="258"/>
+      <c r="C101" s="206"/>
+      <c r="D101" s="259"/>
+      <c r="E101" s="206"/>
+      <c r="F101" s="258"/>
+      <c r="G101" s="206"/>
+      <c r="H101" s="206"/>
+      <c r="I101" s="210"/>
     </row>
     <row r="102">
-      <c r="A102" s="248"/>
-      <c r="B102" s="249"/>
-      <c r="C102" s="192"/>
-      <c r="D102" s="250"/>
-      <c r="E102" s="192"/>
-      <c r="F102" s="249"/>
-      <c r="G102" s="192"/>
-      <c r="H102" s="192"/>
-      <c r="I102" s="196"/>
+      <c r="A102" s="254"/>
+      <c r="B102" s="255"/>
+      <c r="C102" s="198"/>
+      <c r="D102" s="256"/>
+      <c r="E102" s="198"/>
+      <c r="F102" s="255"/>
+      <c r="G102" s="198"/>
+      <c r="H102" s="198"/>
+      <c r="I102" s="202"/>
     </row>
     <row r="103">
-      <c r="A103" s="251"/>
-      <c r="B103" s="252"/>
-      <c r="C103" s="200"/>
-      <c r="D103" s="253"/>
-      <c r="E103" s="200"/>
-      <c r="F103" s="252"/>
-      <c r="G103" s="200"/>
-      <c r="H103" s="200"/>
-      <c r="I103" s="204"/>
+      <c r="A103" s="257"/>
+      <c r="B103" s="258"/>
+      <c r="C103" s="206"/>
+      <c r="D103" s="259"/>
+      <c r="E103" s="206"/>
+      <c r="F103" s="258"/>
+      <c r="G103" s="206"/>
+      <c r="H103" s="206"/>
+      <c r="I103" s="210"/>
     </row>
     <row r="104">
-      <c r="A104" s="248"/>
-      <c r="B104" s="249"/>
-      <c r="C104" s="192"/>
-      <c r="D104" s="250"/>
-      <c r="E104" s="192"/>
-      <c r="F104" s="249"/>
-      <c r="G104" s="192"/>
-      <c r="H104" s="192"/>
-      <c r="I104" s="196"/>
+      <c r="A104" s="254"/>
+      <c r="B104" s="255"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="256"/>
+      <c r="E104" s="198"/>
+      <c r="F104" s="255"/>
+      <c r="G104" s="198"/>
+      <c r="H104" s="198"/>
+      <c r="I104" s="202"/>
     </row>
     <row r="105">
-      <c r="A105" s="251"/>
-      <c r="B105" s="252"/>
-      <c r="C105" s="200"/>
-      <c r="D105" s="253"/>
-      <c r="E105" s="200"/>
-      <c r="F105" s="252"/>
-      <c r="G105" s="200"/>
-      <c r="H105" s="200"/>
-      <c r="I105" s="204"/>
+      <c r="A105" s="257"/>
+      <c r="B105" s="258"/>
+      <c r="C105" s="206"/>
+      <c r="D105" s="259"/>
+      <c r="E105" s="206"/>
+      <c r="F105" s="258"/>
+      <c r="G105" s="206"/>
+      <c r="H105" s="206"/>
+      <c r="I105" s="210"/>
     </row>
     <row r="106">
-      <c r="A106" s="248"/>
-      <c r="B106" s="249"/>
-      <c r="C106" s="192"/>
-      <c r="D106" s="250"/>
-      <c r="E106" s="192"/>
-      <c r="F106" s="249"/>
-      <c r="G106" s="192"/>
-      <c r="H106" s="192"/>
-      <c r="I106" s="196"/>
+      <c r="A106" s="254"/>
+      <c r="B106" s="255"/>
+      <c r="C106" s="198"/>
+      <c r="D106" s="256"/>
+      <c r="E106" s="198"/>
+      <c r="F106" s="255"/>
+      <c r="G106" s="198"/>
+      <c r="H106" s="198"/>
+      <c r="I106" s="202"/>
     </row>
     <row r="107">
-      <c r="A107" s="251"/>
-      <c r="B107" s="252"/>
-      <c r="C107" s="200"/>
-      <c r="D107" s="253"/>
-      <c r="E107" s="200"/>
-      <c r="F107" s="252"/>
-      <c r="G107" s="200"/>
-      <c r="H107" s="200"/>
-      <c r="I107" s="204"/>
+      <c r="A107" s="257"/>
+      <c r="B107" s="258"/>
+      <c r="C107" s="206"/>
+      <c r="D107" s="259"/>
+      <c r="E107" s="206"/>
+      <c r="F107" s="258"/>
+      <c r="G107" s="206"/>
+      <c r="H107" s="206"/>
+      <c r="I107" s="210"/>
     </row>
     <row r="108">
-      <c r="A108" s="248"/>
-      <c r="B108" s="249"/>
-      <c r="C108" s="192"/>
-      <c r="D108" s="250"/>
-      <c r="E108" s="192"/>
-      <c r="F108" s="249"/>
-      <c r="G108" s="192"/>
-      <c r="H108" s="192"/>
-      <c r="I108" s="196"/>
+      <c r="A108" s="254"/>
+      <c r="B108" s="255"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="256"/>
+      <c r="E108" s="198"/>
+      <c r="F108" s="255"/>
+      <c r="G108" s="198"/>
+      <c r="H108" s="198"/>
+      <c r="I108" s="202"/>
     </row>
     <row r="109">
-      <c r="A109" s="251"/>
-      <c r="B109" s="252"/>
-      <c r="C109" s="200"/>
-      <c r="D109" s="253"/>
-      <c r="E109" s="200"/>
-      <c r="F109" s="252"/>
-      <c r="G109" s="200"/>
-      <c r="H109" s="200"/>
-      <c r="I109" s="204"/>
+      <c r="A109" s="257"/>
+      <c r="B109" s="258"/>
+      <c r="C109" s="206"/>
+      <c r="D109" s="259"/>
+      <c r="E109" s="206"/>
+      <c r="F109" s="258"/>
+      <c r="G109" s="206"/>
+      <c r="H109" s="206"/>
+      <c r="I109" s="210"/>
     </row>
     <row r="110">
-      <c r="A110" s="248"/>
-      <c r="B110" s="249"/>
-      <c r="C110" s="192"/>
-      <c r="D110" s="250"/>
-      <c r="E110" s="192"/>
-      <c r="F110" s="249"/>
-      <c r="G110" s="192"/>
-      <c r="H110" s="192"/>
-      <c r="I110" s="196"/>
+      <c r="A110" s="254"/>
+      <c r="B110" s="255"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="256"/>
+      <c r="E110" s="198"/>
+      <c r="F110" s="255"/>
+      <c r="G110" s="198"/>
+      <c r="H110" s="198"/>
+      <c r="I110" s="202"/>
     </row>
     <row r="111">
-      <c r="A111" s="251"/>
-      <c r="B111" s="252"/>
-      <c r="C111" s="200"/>
-      <c r="D111" s="253"/>
-      <c r="E111" s="200"/>
-      <c r="F111" s="252"/>
-      <c r="G111" s="200"/>
-      <c r="H111" s="200"/>
-      <c r="I111" s="204"/>
+      <c r="A111" s="257"/>
+      <c r="B111" s="258"/>
+      <c r="C111" s="206"/>
+      <c r="D111" s="259"/>
+      <c r="E111" s="206"/>
+      <c r="F111" s="258"/>
+      <c r="G111" s="206"/>
+      <c r="H111" s="206"/>
+      <c r="I111" s="210"/>
     </row>
     <row r="112">
-      <c r="A112" s="248"/>
-      <c r="B112" s="249"/>
-      <c r="C112" s="192"/>
-      <c r="D112" s="250"/>
-      <c r="E112" s="192"/>
-      <c r="F112" s="249"/>
-      <c r="G112" s="192"/>
-      <c r="H112" s="192"/>
-      <c r="I112" s="196"/>
+      <c r="A112" s="254"/>
+      <c r="B112" s="255"/>
+      <c r="C112" s="198"/>
+      <c r="D112" s="256"/>
+      <c r="E112" s="198"/>
+      <c r="F112" s="255"/>
+      <c r="G112" s="198"/>
+      <c r="H112" s="198"/>
+      <c r="I112" s="202"/>
     </row>
     <row r="113">
-      <c r="A113" s="251"/>
-      <c r="B113" s="252"/>
-      <c r="C113" s="200"/>
-      <c r="D113" s="253"/>
-      <c r="E113" s="200"/>
-      <c r="F113" s="252"/>
-      <c r="G113" s="200"/>
-      <c r="H113" s="200"/>
-      <c r="I113" s="204"/>
+      <c r="A113" s="257"/>
+      <c r="B113" s="258"/>
+      <c r="C113" s="206"/>
+      <c r="D113" s="259"/>
+      <c r="E113" s="206"/>
+      <c r="F113" s="258"/>
+      <c r="G113" s="206"/>
+      <c r="H113" s="206"/>
+      <c r="I113" s="210"/>
     </row>
     <row r="114">
-      <c r="A114" s="248"/>
-      <c r="B114" s="249"/>
-      <c r="C114" s="192"/>
-      <c r="D114" s="250"/>
-      <c r="E114" s="192"/>
-      <c r="F114" s="249"/>
-      <c r="G114" s="192"/>
-      <c r="H114" s="192"/>
-      <c r="I114" s="196"/>
+      <c r="A114" s="254"/>
+      <c r="B114" s="255"/>
+      <c r="C114" s="198"/>
+      <c r="D114" s="256"/>
+      <c r="E114" s="198"/>
+      <c r="F114" s="255"/>
+      <c r="G114" s="198"/>
+      <c r="H114" s="198"/>
+      <c r="I114" s="202"/>
     </row>
     <row r="115">
-      <c r="A115" s="251"/>
-      <c r="B115" s="252"/>
-      <c r="C115" s="200"/>
-      <c r="D115" s="253"/>
-      <c r="E115" s="200"/>
-      <c r="F115" s="252"/>
-      <c r="G115" s="200"/>
-      <c r="H115" s="200"/>
-      <c r="I115" s="204"/>
+      <c r="A115" s="257"/>
+      <c r="B115" s="258"/>
+      <c r="C115" s="206"/>
+      <c r="D115" s="259"/>
+      <c r="E115" s="206"/>
+      <c r="F115" s="258"/>
+      <c r="G115" s="206"/>
+      <c r="H115" s="206"/>
+      <c r="I115" s="210"/>
     </row>
     <row r="116">
-      <c r="A116" s="248"/>
-      <c r="B116" s="249"/>
-      <c r="C116" s="192"/>
-      <c r="D116" s="250"/>
-      <c r="E116" s="192"/>
-      <c r="F116" s="249"/>
-      <c r="G116" s="192"/>
-      <c r="H116" s="192"/>
-      <c r="I116" s="196"/>
+      <c r="A116" s="254"/>
+      <c r="B116" s="255"/>
+      <c r="C116" s="198"/>
+      <c r="D116" s="256"/>
+      <c r="E116" s="198"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="198"/>
+      <c r="H116" s="198"/>
+      <c r="I116" s="202"/>
     </row>
     <row r="117">
-      <c r="A117" s="251"/>
-      <c r="B117" s="252"/>
-      <c r="C117" s="200"/>
-      <c r="D117" s="253"/>
-      <c r="E117" s="200"/>
-      <c r="F117" s="252"/>
-      <c r="G117" s="200"/>
-      <c r="H117" s="200"/>
-      <c r="I117" s="204"/>
+      <c r="A117" s="257"/>
+      <c r="B117" s="258"/>
+      <c r="C117" s="206"/>
+      <c r="D117" s="259"/>
+      <c r="E117" s="206"/>
+      <c r="F117" s="258"/>
+      <c r="G117" s="206"/>
+      <c r="H117" s="206"/>
+      <c r="I117" s="210"/>
     </row>
     <row r="118">
-      <c r="A118" s="248"/>
-      <c r="B118" s="249"/>
-      <c r="C118" s="192"/>
-      <c r="D118" s="250"/>
-      <c r="E118" s="192"/>
-      <c r="F118" s="249"/>
-      <c r="G118" s="192"/>
-      <c r="H118" s="192"/>
-      <c r="I118" s="196"/>
+      <c r="A118" s="254"/>
+      <c r="B118" s="255"/>
+      <c r="C118" s="198"/>
+      <c r="D118" s="256"/>
+      <c r="E118" s="198"/>
+      <c r="F118" s="255"/>
+      <c r="G118" s="198"/>
+      <c r="H118" s="198"/>
+      <c r="I118" s="202"/>
     </row>
     <row r="119">
-      <c r="A119" s="251"/>
-      <c r="B119" s="252"/>
-      <c r="C119" s="200"/>
-      <c r="D119" s="253"/>
-      <c r="E119" s="200"/>
-      <c r="F119" s="252"/>
-      <c r="G119" s="200"/>
-      <c r="H119" s="200"/>
-      <c r="I119" s="204"/>
+      <c r="A119" s="257"/>
+      <c r="B119" s="258"/>
+      <c r="C119" s="206"/>
+      <c r="D119" s="259"/>
+      <c r="E119" s="206"/>
+      <c r="F119" s="258"/>
+      <c r="G119" s="206"/>
+      <c r="H119" s="206"/>
+      <c r="I119" s="210"/>
     </row>
     <row r="120">
-      <c r="A120" s="248"/>
-      <c r="B120" s="249"/>
-      <c r="C120" s="192"/>
-      <c r="D120" s="250"/>
-      <c r="E120" s="192"/>
-      <c r="F120" s="249"/>
-      <c r="G120" s="192"/>
-      <c r="H120" s="192"/>
-      <c r="I120" s="196"/>
+      <c r="A120" s="254"/>
+      <c r="B120" s="255"/>
+      <c r="C120" s="198"/>
+      <c r="D120" s="256"/>
+      <c r="E120" s="198"/>
+      <c r="F120" s="255"/>
+      <c r="G120" s="198"/>
+      <c r="H120" s="198"/>
+      <c r="I120" s="202"/>
     </row>
     <row r="121">
-      <c r="A121" s="251"/>
-      <c r="B121" s="252"/>
-      <c r="C121" s="200"/>
-      <c r="D121" s="253"/>
-      <c r="E121" s="200"/>
-      <c r="F121" s="252"/>
-      <c r="G121" s="200"/>
-      <c r="H121" s="200"/>
-      <c r="I121" s="204"/>
+      <c r="A121" s="257"/>
+      <c r="B121" s="258"/>
+      <c r="C121" s="206"/>
+      <c r="D121" s="259"/>
+      <c r="E121" s="206"/>
+      <c r="F121" s="258"/>
+      <c r="G121" s="206"/>
+      <c r="H121" s="206"/>
+      <c r="I121" s="210"/>
     </row>
     <row r="122">
-      <c r="A122" s="248"/>
-      <c r="B122" s="249"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="250"/>
-      <c r="E122" s="192"/>
-      <c r="F122" s="249"/>
-      <c r="G122" s="192"/>
-      <c r="H122" s="192"/>
-      <c r="I122" s="196"/>
+      <c r="A122" s="254"/>
+      <c r="B122" s="255"/>
+      <c r="C122" s="198"/>
+      <c r="D122" s="256"/>
+      <c r="E122" s="198"/>
+      <c r="F122" s="255"/>
+      <c r="G122" s="198"/>
+      <c r="H122" s="198"/>
+      <c r="I122" s="202"/>
     </row>
     <row r="123">
-      <c r="A123" s="251"/>
-      <c r="B123" s="252"/>
-      <c r="C123" s="200"/>
-      <c r="D123" s="253"/>
-      <c r="E123" s="200"/>
-      <c r="F123" s="252"/>
-      <c r="G123" s="200"/>
-      <c r="H123" s="200"/>
-      <c r="I123" s="204"/>
+      <c r="A123" s="257"/>
+      <c r="B123" s="258"/>
+      <c r="C123" s="206"/>
+      <c r="D123" s="259"/>
+      <c r="E123" s="206"/>
+      <c r="F123" s="258"/>
+      <c r="G123" s="206"/>
+      <c r="H123" s="206"/>
+      <c r="I123" s="210"/>
     </row>
     <row r="124">
-      <c r="A124" s="248"/>
-      <c r="B124" s="249"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="250"/>
-      <c r="E124" s="192"/>
-      <c r="F124" s="249"/>
-      <c r="G124" s="192"/>
-      <c r="H124" s="192"/>
-      <c r="I124" s="196"/>
+      <c r="A124" s="254"/>
+      <c r="B124" s="255"/>
+      <c r="C124" s="198"/>
+      <c r="D124" s="256"/>
+      <c r="E124" s="198"/>
+      <c r="F124" s="255"/>
+      <c r="G124" s="198"/>
+      <c r="H124" s="198"/>
+      <c r="I124" s="202"/>
     </row>
     <row r="125">
-      <c r="A125" s="251"/>
-      <c r="B125" s="252"/>
-      <c r="C125" s="200"/>
-      <c r="D125" s="253"/>
-      <c r="E125" s="200"/>
-      <c r="F125" s="252"/>
-      <c r="G125" s="200"/>
-      <c r="H125" s="200"/>
-      <c r="I125" s="204"/>
+      <c r="A125" s="257"/>
+      <c r="B125" s="258"/>
+      <c r="C125" s="206"/>
+      <c r="D125" s="259"/>
+      <c r="E125" s="206"/>
+      <c r="F125" s="258"/>
+      <c r="G125" s="206"/>
+      <c r="H125" s="206"/>
+      <c r="I125" s="210"/>
     </row>
     <row r="126">
-      <c r="A126" s="248"/>
-      <c r="B126" s="249"/>
-      <c r="C126" s="192"/>
-      <c r="D126" s="250"/>
-      <c r="E126" s="192"/>
-      <c r="F126" s="249"/>
-      <c r="G126" s="192"/>
-      <c r="H126" s="192"/>
-      <c r="I126" s="196"/>
+      <c r="A126" s="254"/>
+      <c r="B126" s="255"/>
+      <c r="C126" s="198"/>
+      <c r="D126" s="256"/>
+      <c r="E126" s="198"/>
+      <c r="F126" s="255"/>
+      <c r="G126" s="198"/>
+      <c r="H126" s="198"/>
+      <c r="I126" s="202"/>
     </row>
     <row r="127">
-      <c r="A127" s="251"/>
-      <c r="B127" s="252"/>
-      <c r="C127" s="200"/>
-      <c r="D127" s="253"/>
-      <c r="E127" s="200"/>
-      <c r="F127" s="252"/>
-      <c r="G127" s="200"/>
-      <c r="H127" s="200"/>
-      <c r="I127" s="204"/>
+      <c r="A127" s="257"/>
+      <c r="B127" s="258"/>
+      <c r="C127" s="206"/>
+      <c r="D127" s="259"/>
+      <c r="E127" s="206"/>
+      <c r="F127" s="258"/>
+      <c r="G127" s="206"/>
+      <c r="H127" s="206"/>
+      <c r="I127" s="210"/>
     </row>
     <row r="128">
-      <c r="A128" s="248"/>
-      <c r="B128" s="249"/>
-      <c r="C128" s="192"/>
-      <c r="D128" s="250"/>
-      <c r="E128" s="192"/>
-      <c r="F128" s="249"/>
-      <c r="G128" s="192"/>
-      <c r="H128" s="192"/>
-      <c r="I128" s="196"/>
+      <c r="A128" s="254"/>
+      <c r="B128" s="255"/>
+      <c r="C128" s="198"/>
+      <c r="D128" s="256"/>
+      <c r="E128" s="198"/>
+      <c r="F128" s="255"/>
+      <c r="G128" s="198"/>
+      <c r="H128" s="198"/>
+      <c r="I128" s="202"/>
     </row>
     <row r="129">
-      <c r="A129" s="251"/>
-      <c r="B129" s="252"/>
-      <c r="C129" s="200"/>
-      <c r="D129" s="253"/>
-      <c r="E129" s="200"/>
-      <c r="F129" s="252"/>
-      <c r="G129" s="200"/>
-      <c r="H129" s="200"/>
-      <c r="I129" s="204"/>
+      <c r="A129" s="257"/>
+      <c r="B129" s="258"/>
+      <c r="C129" s="206"/>
+      <c r="D129" s="259"/>
+      <c r="E129" s="206"/>
+      <c r="F129" s="258"/>
+      <c r="G129" s="206"/>
+      <c r="H129" s="206"/>
+      <c r="I129" s="210"/>
     </row>
     <row r="130">
-      <c r="A130" s="248"/>
-      <c r="B130" s="249"/>
-      <c r="C130" s="192"/>
-      <c r="D130" s="250"/>
-      <c r="E130" s="192"/>
-      <c r="F130" s="249"/>
-      <c r="G130" s="192"/>
-      <c r="H130" s="192"/>
-      <c r="I130" s="196"/>
+      <c r="A130" s="254"/>
+      <c r="B130" s="255"/>
+      <c r="C130" s="198"/>
+      <c r="D130" s="256"/>
+      <c r="E130" s="198"/>
+      <c r="F130" s="255"/>
+      <c r="G130" s="198"/>
+      <c r="H130" s="198"/>
+      <c r="I130" s="202"/>
     </row>
     <row r="131">
-      <c r="A131" s="251"/>
-      <c r="B131" s="252"/>
-      <c r="C131" s="200"/>
-      <c r="D131" s="253"/>
-      <c r="E131" s="200"/>
-      <c r="F131" s="252"/>
-      <c r="G131" s="200"/>
-      <c r="H131" s="200"/>
-      <c r="I131" s="204"/>
+      <c r="A131" s="257"/>
+      <c r="B131" s="258"/>
+      <c r="C131" s="206"/>
+      <c r="D131" s="259"/>
+      <c r="E131" s="206"/>
+      <c r="F131" s="258"/>
+      <c r="G131" s="206"/>
+      <c r="H131" s="206"/>
+      <c r="I131" s="210"/>
     </row>
     <row r="132">
-      <c r="A132" s="248"/>
-      <c r="B132" s="249"/>
-      <c r="C132" s="192"/>
-      <c r="D132" s="250"/>
-      <c r="E132" s="192"/>
-      <c r="F132" s="249"/>
-      <c r="G132" s="192"/>
-      <c r="H132" s="192"/>
-      <c r="I132" s="196"/>
+      <c r="A132" s="254"/>
+      <c r="B132" s="255"/>
+      <c r="C132" s="198"/>
+      <c r="D132" s="256"/>
+      <c r="E132" s="198"/>
+      <c r="F132" s="255"/>
+      <c r="G132" s="198"/>
+      <c r="H132" s="198"/>
+      <c r="I132" s="202"/>
     </row>
     <row r="133">
-      <c r="A133" s="251"/>
-      <c r="B133" s="252"/>
-      <c r="C133" s="200"/>
-      <c r="D133" s="253"/>
-      <c r="E133" s="200"/>
-      <c r="F133" s="252"/>
-      <c r="G133" s="200"/>
-      <c r="H133" s="200"/>
-      <c r="I133" s="204"/>
+      <c r="A133" s="257"/>
+      <c r="B133" s="258"/>
+      <c r="C133" s="206"/>
+      <c r="D133" s="259"/>
+      <c r="E133" s="206"/>
+      <c r="F133" s="258"/>
+      <c r="G133" s="206"/>
+      <c r="H133" s="206"/>
+      <c r="I133" s="210"/>
     </row>
     <row r="134">
-      <c r="A134" s="248"/>
-      <c r="B134" s="249"/>
-      <c r="C134" s="192"/>
-      <c r="D134" s="250"/>
-      <c r="E134" s="192"/>
-      <c r="F134" s="249"/>
-      <c r="G134" s="192"/>
-      <c r="H134" s="192"/>
-      <c r="I134" s="196"/>
+      <c r="A134" s="254"/>
+      <c r="B134" s="255"/>
+      <c r="C134" s="198"/>
+      <c r="D134" s="256"/>
+      <c r="E134" s="198"/>
+      <c r="F134" s="255"/>
+      <c r="G134" s="198"/>
+      <c r="H134" s="198"/>
+      <c r="I134" s="202"/>
     </row>
     <row r="135">
-      <c r="A135" s="251"/>
-      <c r="B135" s="252"/>
-      <c r="C135" s="200"/>
-      <c r="D135" s="253"/>
-      <c r="E135" s="200"/>
-      <c r="F135" s="252"/>
-      <c r="G135" s="200"/>
-      <c r="H135" s="200"/>
-      <c r="I135" s="204"/>
+      <c r="A135" s="257"/>
+      <c r="B135" s="258"/>
+      <c r="C135" s="206"/>
+      <c r="D135" s="259"/>
+      <c r="E135" s="206"/>
+      <c r="F135" s="258"/>
+      <c r="G135" s="206"/>
+      <c r="H135" s="206"/>
+      <c r="I135" s="210"/>
     </row>
     <row r="136">
-      <c r="A136" s="248"/>
-      <c r="B136" s="249"/>
-      <c r="C136" s="192"/>
-      <c r="D136" s="250"/>
-      <c r="E136" s="192"/>
-      <c r="F136" s="249"/>
-      <c r="G136" s="192"/>
-      <c r="H136" s="192"/>
-      <c r="I136" s="196"/>
+      <c r="A136" s="254"/>
+      <c r="B136" s="255"/>
+      <c r="C136" s="198"/>
+      <c r="D136" s="256"/>
+      <c r="E136" s="198"/>
+      <c r="F136" s="255"/>
+      <c r="G136" s="198"/>
+      <c r="H136" s="198"/>
+      <c r="I136" s="202"/>
     </row>
     <row r="137">
-      <c r="A137" s="251"/>
-      <c r="B137" s="252"/>
-      <c r="C137" s="200"/>
-      <c r="D137" s="253"/>
-      <c r="E137" s="200"/>
-      <c r="F137" s="252"/>
-      <c r="G137" s="200"/>
-      <c r="H137" s="200"/>
-      <c r="I137" s="204"/>
+      <c r="A137" s="257"/>
+      <c r="B137" s="258"/>
+      <c r="C137" s="206"/>
+      <c r="D137" s="259"/>
+      <c r="E137" s="206"/>
+      <c r="F137" s="258"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="206"/>
+      <c r="I137" s="210"/>
     </row>
     <row r="138">
-      <c r="A138" s="248"/>
-      <c r="B138" s="249"/>
-      <c r="C138" s="192"/>
-      <c r="D138" s="250"/>
-      <c r="E138" s="192"/>
-      <c r="F138" s="249"/>
-      <c r="G138" s="192"/>
-      <c r="H138" s="192"/>
-      <c r="I138" s="196"/>
+      <c r="A138" s="254"/>
+      <c r="B138" s="255"/>
+      <c r="C138" s="198"/>
+      <c r="D138" s="256"/>
+      <c r="E138" s="198"/>
+      <c r="F138" s="255"/>
+      <c r="G138" s="198"/>
+      <c r="H138" s="198"/>
+      <c r="I138" s="202"/>
     </row>
     <row r="139">
-      <c r="A139" s="251"/>
-      <c r="B139" s="252"/>
-      <c r="C139" s="200"/>
-      <c r="D139" s="253"/>
-      <c r="E139" s="200"/>
-      <c r="F139" s="252"/>
-      <c r="G139" s="200"/>
-      <c r="H139" s="200"/>
-      <c r="I139" s="204"/>
+      <c r="A139" s="257"/>
+      <c r="B139" s="258"/>
+      <c r="C139" s="206"/>
+      <c r="D139" s="259"/>
+      <c r="E139" s="206"/>
+      <c r="F139" s="258"/>
+      <c r="G139" s="206"/>
+      <c r="H139" s="206"/>
+      <c r="I139" s="210"/>
     </row>
     <row r="140">
-      <c r="A140" s="248"/>
-      <c r="B140" s="249"/>
-      <c r="C140" s="192"/>
-      <c r="D140" s="250"/>
-      <c r="E140" s="192"/>
-      <c r="F140" s="249"/>
-      <c r="G140" s="192"/>
-      <c r="H140" s="192"/>
-      <c r="I140" s="196"/>
+      <c r="A140" s="254"/>
+      <c r="B140" s="255"/>
+      <c r="C140" s="198"/>
+      <c r="D140" s="256"/>
+      <c r="E140" s="198"/>
+      <c r="F140" s="255"/>
+      <c r="G140" s="198"/>
+      <c r="H140" s="198"/>
+      <c r="I140" s="202"/>
     </row>
     <row r="141">
-      <c r="A141" s="251"/>
-      <c r="B141" s="252"/>
-      <c r="C141" s="200"/>
-      <c r="D141" s="253"/>
-      <c r="E141" s="200"/>
-      <c r="F141" s="252"/>
-      <c r="G141" s="200"/>
-      <c r="H141" s="200"/>
-      <c r="I141" s="204"/>
+      <c r="A141" s="257"/>
+      <c r="B141" s="258"/>
+      <c r="C141" s="206"/>
+      <c r="D141" s="259"/>
+      <c r="E141" s="206"/>
+      <c r="F141" s="258"/>
+      <c r="G141" s="206"/>
+      <c r="H141" s="206"/>
+      <c r="I141" s="210"/>
     </row>
     <row r="142">
-      <c r="A142" s="248"/>
-      <c r="B142" s="249"/>
-      <c r="C142" s="192"/>
-      <c r="D142" s="250"/>
-      <c r="E142" s="192"/>
-      <c r="F142" s="249"/>
-      <c r="G142" s="192"/>
-      <c r="H142" s="192"/>
-      <c r="I142" s="196"/>
+      <c r="A142" s="254"/>
+      <c r="B142" s="255"/>
+      <c r="C142" s="198"/>
+      <c r="D142" s="256"/>
+      <c r="E142" s="198"/>
+      <c r="F142" s="255"/>
+      <c r="G142" s="198"/>
+      <c r="H142" s="198"/>
+      <c r="I142" s="202"/>
     </row>
     <row r="143">
-      <c r="A143" s="251"/>
-      <c r="B143" s="252"/>
-      <c r="C143" s="200"/>
-      <c r="D143" s="253"/>
-      <c r="E143" s="200"/>
-      <c r="F143" s="252"/>
-      <c r="G143" s="200"/>
-      <c r="H143" s="200"/>
-      <c r="I143" s="204"/>
+      <c r="A143" s="257"/>
+      <c r="B143" s="258"/>
+      <c r="C143" s="206"/>
+      <c r="D143" s="259"/>
+      <c r="E143" s="206"/>
+      <c r="F143" s="258"/>
+      <c r="G143" s="206"/>
+      <c r="H143" s="206"/>
+      <c r="I143" s="210"/>
     </row>
     <row r="144">
-      <c r="A144" s="248"/>
-      <c r="B144" s="249"/>
-      <c r="C144" s="192"/>
-      <c r="D144" s="250"/>
-      <c r="E144" s="192"/>
-      <c r="F144" s="249"/>
-      <c r="G144" s="192"/>
-      <c r="H144" s="192"/>
-      <c r="I144" s="196"/>
+      <c r="A144" s="254"/>
+      <c r="B144" s="255"/>
+      <c r="C144" s="198"/>
+      <c r="D144" s="256"/>
+      <c r="E144" s="198"/>
+      <c r="F144" s="255"/>
+      <c r="G144" s="198"/>
+      <c r="H144" s="198"/>
+      <c r="I144" s="202"/>
     </row>
     <row r="145">
-      <c r="A145" s="251"/>
-      <c r="B145" s="252"/>
-      <c r="C145" s="200"/>
-      <c r="D145" s="253"/>
-      <c r="E145" s="200"/>
-      <c r="F145" s="252"/>
-      <c r="G145" s="200"/>
-      <c r="H145" s="200"/>
-      <c r="I145" s="204"/>
+      <c r="A145" s="257"/>
+      <c r="B145" s="258"/>
+      <c r="C145" s="206"/>
+      <c r="D145" s="259"/>
+      <c r="E145" s="206"/>
+      <c r="F145" s="258"/>
+      <c r="G145" s="206"/>
+      <c r="H145" s="206"/>
+      <c r="I145" s="210"/>
     </row>
     <row r="146">
-      <c r="A146" s="248"/>
-      <c r="B146" s="249"/>
-      <c r="C146" s="192"/>
-      <c r="D146" s="250"/>
-      <c r="E146" s="192"/>
-      <c r="F146" s="249"/>
-      <c r="G146" s="192"/>
-      <c r="H146" s="192"/>
-      <c r="I146" s="196"/>
+      <c r="A146" s="254"/>
+      <c r="B146" s="255"/>
+      <c r="C146" s="198"/>
+      <c r="D146" s="256"/>
+      <c r="E146" s="198"/>
+      <c r="F146" s="255"/>
+      <c r="G146" s="198"/>
+      <c r="H146" s="198"/>
+      <c r="I146" s="202"/>
     </row>
     <row r="147">
-      <c r="A147" s="251"/>
-      <c r="B147" s="252"/>
-      <c r="C147" s="200"/>
-      <c r="D147" s="253"/>
-      <c r="E147" s="200"/>
-      <c r="F147" s="252"/>
-      <c r="G147" s="200"/>
-      <c r="H147" s="200"/>
-      <c r="I147" s="204"/>
+      <c r="A147" s="257"/>
+      <c r="B147" s="258"/>
+      <c r="C147" s="206"/>
+      <c r="D147" s="259"/>
+      <c r="E147" s="206"/>
+      <c r="F147" s="258"/>
+      <c r="G147" s="206"/>
+      <c r="H147" s="206"/>
+      <c r="I147" s="210"/>
     </row>
     <row r="148">
-      <c r="A148" s="248"/>
-      <c r="B148" s="249"/>
-      <c r="C148" s="192"/>
-      <c r="D148" s="250"/>
-      <c r="E148" s="192"/>
-      <c r="F148" s="249"/>
-      <c r="G148" s="192"/>
-      <c r="H148" s="192"/>
-      <c r="I148" s="196"/>
+      <c r="A148" s="254"/>
+      <c r="B148" s="255"/>
+      <c r="C148" s="198"/>
+      <c r="D148" s="256"/>
+      <c r="E148" s="198"/>
+      <c r="F148" s="255"/>
+      <c r="G148" s="198"/>
+      <c r="H148" s="198"/>
+      <c r="I148" s="202"/>
     </row>
     <row r="149">
-      <c r="A149" s="251"/>
-      <c r="B149" s="252"/>
-      <c r="C149" s="200"/>
-      <c r="D149" s="253"/>
-      <c r="E149" s="200"/>
-      <c r="F149" s="252"/>
-      <c r="G149" s="200"/>
-      <c r="H149" s="200"/>
-      <c r="I149" s="204"/>
+      <c r="A149" s="257"/>
+      <c r="B149" s="258"/>
+      <c r="C149" s="206"/>
+      <c r="D149" s="259"/>
+      <c r="E149" s="206"/>
+      <c r="F149" s="258"/>
+      <c r="G149" s="206"/>
+      <c r="H149" s="206"/>
+      <c r="I149" s="210"/>
     </row>
     <row r="150">
-      <c r="A150" s="248"/>
-      <c r="B150" s="249"/>
-      <c r="C150" s="192"/>
-      <c r="D150" s="250"/>
-      <c r="E150" s="192"/>
-      <c r="F150" s="249"/>
-      <c r="G150" s="192"/>
-      <c r="H150" s="192"/>
-      <c r="I150" s="196"/>
+      <c r="A150" s="254"/>
+      <c r="B150" s="255"/>
+      <c r="C150" s="198"/>
+      <c r="D150" s="256"/>
+      <c r="E150" s="198"/>
+      <c r="F150" s="255"/>
+      <c r="G150" s="198"/>
+      <c r="H150" s="198"/>
+      <c r="I150" s="202"/>
     </row>
     <row r="151">
-      <c r="A151" s="251"/>
-      <c r="B151" s="252"/>
-      <c r="C151" s="200"/>
-      <c r="D151" s="253"/>
-      <c r="E151" s="200"/>
-      <c r="F151" s="252"/>
-      <c r="G151" s="200"/>
-      <c r="H151" s="200"/>
-      <c r="I151" s="204"/>
+      <c r="A151" s="257"/>
+      <c r="B151" s="258"/>
+      <c r="C151" s="206"/>
+      <c r="D151" s="259"/>
+      <c r="E151" s="206"/>
+      <c r="F151" s="258"/>
+      <c r="G151" s="206"/>
+      <c r="H151" s="206"/>
+      <c r="I151" s="210"/>
     </row>
     <row r="152">
-      <c r="A152" s="248"/>
-      <c r="B152" s="249"/>
-      <c r="C152" s="192"/>
-      <c r="D152" s="250"/>
-      <c r="E152" s="192"/>
-      <c r="F152" s="249"/>
-      <c r="G152" s="192"/>
-      <c r="H152" s="192"/>
-      <c r="I152" s="196"/>
+      <c r="A152" s="254"/>
+      <c r="B152" s="255"/>
+      <c r="C152" s="198"/>
+      <c r="D152" s="256"/>
+      <c r="E152" s="198"/>
+      <c r="F152" s="255"/>
+      <c r="G152" s="198"/>
+      <c r="H152" s="198"/>
+      <c r="I152" s="202"/>
     </row>
     <row r="153">
-      <c r="A153" s="251"/>
-      <c r="B153" s="252"/>
-      <c r="C153" s="200"/>
-      <c r="D153" s="253"/>
-      <c r="E153" s="200"/>
-      <c r="F153" s="252"/>
-      <c r="G153" s="200"/>
-      <c r="H153" s="200"/>
-      <c r="I153" s="204"/>
+      <c r="A153" s="257"/>
+      <c r="B153" s="258"/>
+      <c r="C153" s="206"/>
+      <c r="D153" s="259"/>
+      <c r="E153" s="206"/>
+      <c r="F153" s="258"/>
+      <c r="G153" s="206"/>
+      <c r="H153" s="206"/>
+      <c r="I153" s="210"/>
     </row>
     <row r="154">
-      <c r="A154" s="248"/>
-      <c r="B154" s="249"/>
-      <c r="C154" s="192"/>
-      <c r="D154" s="250"/>
-      <c r="E154" s="192"/>
-      <c r="F154" s="249"/>
-      <c r="G154" s="192"/>
-      <c r="H154" s="192"/>
-      <c r="I154" s="196"/>
+      <c r="A154" s="254"/>
+      <c r="B154" s="255"/>
+      <c r="C154" s="198"/>
+      <c r="D154" s="256"/>
+      <c r="E154" s="198"/>
+      <c r="F154" s="255"/>
+      <c r="G154" s="198"/>
+      <c r="H154" s="198"/>
+      <c r="I154" s="202"/>
     </row>
     <row r="155">
-      <c r="A155" s="251"/>
-      <c r="B155" s="252"/>
-      <c r="C155" s="200"/>
-      <c r="D155" s="253"/>
-      <c r="E155" s="200"/>
-      <c r="F155" s="252"/>
-      <c r="G155" s="200"/>
-      <c r="H155" s="200"/>
-      <c r="I155" s="204"/>
+      <c r="A155" s="257"/>
+      <c r="B155" s="258"/>
+      <c r="C155" s="206"/>
+      <c r="D155" s="259"/>
+      <c r="E155" s="206"/>
+      <c r="F155" s="258"/>
+      <c r="G155" s="206"/>
+      <c r="H155" s="206"/>
+      <c r="I155" s="210"/>
     </row>
     <row r="156">
-      <c r="A156" s="248"/>
-      <c r="B156" s="249"/>
-      <c r="C156" s="192"/>
-      <c r="D156" s="250"/>
-      <c r="E156" s="192"/>
-      <c r="F156" s="249"/>
-      <c r="G156" s="192"/>
-      <c r="H156" s="192"/>
-      <c r="I156" s="196"/>
+      <c r="A156" s="254"/>
+      <c r="B156" s="255"/>
+      <c r="C156" s="198"/>
+      <c r="D156" s="256"/>
+      <c r="E156" s="198"/>
+      <c r="F156" s="255"/>
+      <c r="G156" s="198"/>
+      <c r="H156" s="198"/>
+      <c r="I156" s="202"/>
     </row>
     <row r="157">
-      <c r="A157" s="251"/>
-      <c r="B157" s="252"/>
-      <c r="C157" s="200"/>
-      <c r="D157" s="253"/>
-      <c r="E157" s="200"/>
-      <c r="F157" s="252"/>
-      <c r="G157" s="200"/>
-      <c r="H157" s="200"/>
-      <c r="I157" s="204"/>
+      <c r="A157" s="257"/>
+      <c r="B157" s="258"/>
+      <c r="C157" s="206"/>
+      <c r="D157" s="259"/>
+      <c r="E157" s="206"/>
+      <c r="F157" s="258"/>
+      <c r="G157" s="206"/>
+      <c r="H157" s="206"/>
+      <c r="I157" s="210"/>
     </row>
     <row r="158">
-      <c r="A158" s="248"/>
-      <c r="B158" s="249"/>
-      <c r="C158" s="192"/>
-      <c r="D158" s="250"/>
-      <c r="E158" s="192"/>
-      <c r="F158" s="249"/>
-      <c r="G158" s="192"/>
-      <c r="H158" s="192"/>
-      <c r="I158" s="196"/>
+      <c r="A158" s="254"/>
+      <c r="B158" s="255"/>
+      <c r="C158" s="198"/>
+      <c r="D158" s="256"/>
+      <c r="E158" s="198"/>
+      <c r="F158" s="255"/>
+      <c r="G158" s="198"/>
+      <c r="H158" s="198"/>
+      <c r="I158" s="202"/>
     </row>
     <row r="159">
-      <c r="A159" s="251"/>
-      <c r="B159" s="252"/>
-      <c r="C159" s="200"/>
-      <c r="D159" s="253"/>
-      <c r="E159" s="200"/>
-      <c r="F159" s="252"/>
-      <c r="G159" s="200"/>
-      <c r="H159" s="200"/>
-      <c r="I159" s="204"/>
+      <c r="A159" s="257"/>
+      <c r="B159" s="258"/>
+      <c r="C159" s="206"/>
+      <c r="D159" s="259"/>
+      <c r="E159" s="206"/>
+      <c r="F159" s="258"/>
+      <c r="G159" s="206"/>
+      <c r="H159" s="206"/>
+      <c r="I159" s="210"/>
     </row>
     <row r="160">
-      <c r="A160" s="248"/>
-      <c r="B160" s="249"/>
-      <c r="C160" s="192"/>
-      <c r="D160" s="250"/>
-      <c r="E160" s="192"/>
-      <c r="F160" s="249"/>
-      <c r="G160" s="192"/>
-      <c r="H160" s="192"/>
-      <c r="I160" s="196"/>
+      <c r="A160" s="254"/>
+      <c r="B160" s="255"/>
+      <c r="C160" s="198"/>
+      <c r="D160" s="256"/>
+      <c r="E160" s="198"/>
+      <c r="F160" s="255"/>
+      <c r="G160" s="198"/>
+      <c r="H160" s="198"/>
+      <c r="I160" s="202"/>
     </row>
     <row r="161">
-      <c r="A161" s="251"/>
-      <c r="B161" s="252"/>
-      <c r="C161" s="200"/>
-      <c r="D161" s="253"/>
-      <c r="E161" s="200"/>
-      <c r="F161" s="252"/>
-      <c r="G161" s="200"/>
-      <c r="H161" s="200"/>
-      <c r="I161" s="204"/>
+      <c r="A161" s="257"/>
+      <c r="B161" s="258"/>
+      <c r="C161" s="206"/>
+      <c r="D161" s="259"/>
+      <c r="E161" s="206"/>
+      <c r="F161" s="258"/>
+      <c r="G161" s="206"/>
+      <c r="H161" s="206"/>
+      <c r="I161" s="210"/>
     </row>
     <row r="162">
-      <c r="A162" s="248"/>
-      <c r="B162" s="249"/>
-      <c r="C162" s="192"/>
-      <c r="D162" s="250"/>
-      <c r="E162" s="192"/>
-      <c r="F162" s="249"/>
-      <c r="G162" s="192"/>
-      <c r="H162" s="192"/>
-      <c r="I162" s="196"/>
+      <c r="A162" s="254"/>
+      <c r="B162" s="255"/>
+      <c r="C162" s="198"/>
+      <c r="D162" s="256"/>
+      <c r="E162" s="198"/>
+      <c r="F162" s="255"/>
+      <c r="G162" s="198"/>
+      <c r="H162" s="198"/>
+      <c r="I162" s="202"/>
     </row>
     <row r="163">
-      <c r="A163" s="251"/>
-      <c r="B163" s="252"/>
-      <c r="C163" s="200"/>
-      <c r="D163" s="253"/>
-      <c r="E163" s="200"/>
-      <c r="F163" s="252"/>
-      <c r="G163" s="200"/>
-      <c r="H163" s="200"/>
-      <c r="I163" s="204"/>
+      <c r="A163" s="257"/>
+      <c r="B163" s="258"/>
+      <c r="C163" s="206"/>
+      <c r="D163" s="259"/>
+      <c r="E163" s="206"/>
+      <c r="F163" s="258"/>
+      <c r="G163" s="206"/>
+      <c r="H163" s="206"/>
+      <c r="I163" s="210"/>
     </row>
     <row r="164">
-      <c r="A164" s="248"/>
-      <c r="B164" s="249"/>
-      <c r="C164" s="192"/>
-      <c r="D164" s="250"/>
-      <c r="E164" s="192"/>
-      <c r="F164" s="249"/>
-      <c r="G164" s="192"/>
-      <c r="H164" s="192"/>
-      <c r="I164" s="196"/>
+      <c r="A164" s="254"/>
+      <c r="B164" s="255"/>
+      <c r="C164" s="198"/>
+      <c r="D164" s="256"/>
+      <c r="E164" s="198"/>
+      <c r="F164" s="255"/>
+      <c r="G164" s="198"/>
+      <c r="H164" s="198"/>
+      <c r="I164" s="202"/>
     </row>
     <row r="165">
-      <c r="A165" s="251"/>
-      <c r="B165" s="252"/>
-      <c r="C165" s="200"/>
-      <c r="D165" s="253"/>
-      <c r="E165" s="200"/>
-      <c r="F165" s="252"/>
-      <c r="G165" s="200"/>
-      <c r="H165" s="200"/>
-      <c r="I165" s="204"/>
+      <c r="A165" s="257"/>
+      <c r="B165" s="258"/>
+      <c r="C165" s="206"/>
+      <c r="D165" s="259"/>
+      <c r="E165" s="206"/>
+      <c r="F165" s="258"/>
+      <c r="G165" s="206"/>
+      <c r="H165" s="206"/>
+      <c r="I165" s="210"/>
     </row>
     <row r="166">
-      <c r="A166" s="248"/>
-      <c r="B166" s="249"/>
-      <c r="C166" s="192"/>
-      <c r="D166" s="250"/>
-      <c r="E166" s="192"/>
-      <c r="F166" s="249"/>
-      <c r="G166" s="192"/>
-      <c r="H166" s="192"/>
-      <c r="I166" s="196"/>
+      <c r="A166" s="254"/>
+      <c r="B166" s="255"/>
+      <c r="C166" s="198"/>
+      <c r="D166" s="256"/>
+      <c r="E166" s="198"/>
+      <c r="F166" s="255"/>
+      <c r="G166" s="198"/>
+      <c r="H166" s="198"/>
+      <c r="I166" s="202"/>
     </row>
     <row r="167">
-      <c r="A167" s="251"/>
-      <c r="B167" s="252"/>
-      <c r="C167" s="200"/>
-      <c r="D167" s="253"/>
-      <c r="E167" s="200"/>
-      <c r="F167" s="252"/>
-      <c r="G167" s="200"/>
-      <c r="H167" s="200"/>
-      <c r="I167" s="204"/>
+      <c r="A167" s="257"/>
+      <c r="B167" s="258"/>
+      <c r="C167" s="206"/>
+      <c r="D167" s="259"/>
+      <c r="E167" s="206"/>
+      <c r="F167" s="258"/>
+      <c r="G167" s="206"/>
+      <c r="H167" s="206"/>
+      <c r="I167" s="210"/>
     </row>
     <row r="168">
-      <c r="A168" s="248"/>
-      <c r="B168" s="249"/>
-      <c r="C168" s="192"/>
-      <c r="D168" s="250"/>
-      <c r="E168" s="192"/>
-      <c r="F168" s="249"/>
-      <c r="G168" s="192"/>
-      <c r="H168" s="192"/>
-      <c r="I168" s="196"/>
+      <c r="A168" s="254"/>
+      <c r="B168" s="255"/>
+      <c r="C168" s="198"/>
+      <c r="D168" s="256"/>
+      <c r="E168" s="198"/>
+      <c r="F168" s="255"/>
+      <c r="G168" s="198"/>
+      <c r="H168" s="198"/>
+      <c r="I168" s="202"/>
     </row>
     <row r="169">
-      <c r="A169" s="251"/>
-      <c r="B169" s="252"/>
-      <c r="C169" s="200"/>
-      <c r="D169" s="253"/>
-      <c r="E169" s="200"/>
-      <c r="F169" s="252"/>
-      <c r="G169" s="200"/>
-      <c r="H169" s="200"/>
-      <c r="I169" s="204"/>
+      <c r="A169" s="257"/>
+      <c r="B169" s="258"/>
+      <c r="C169" s="206"/>
+      <c r="D169" s="259"/>
+      <c r="E169" s="206"/>
+      <c r="F169" s="258"/>
+      <c r="G169" s="206"/>
+      <c r="H169" s="206"/>
+      <c r="I169" s="210"/>
     </row>
     <row r="170">
-      <c r="A170" s="248"/>
-      <c r="B170" s="249"/>
-      <c r="C170" s="192"/>
-      <c r="D170" s="250"/>
-      <c r="E170" s="192"/>
-      <c r="F170" s="249"/>
-      <c r="G170" s="192"/>
-      <c r="H170" s="192"/>
-      <c r="I170" s="196"/>
+      <c r="A170" s="254"/>
+      <c r="B170" s="255"/>
+      <c r="C170" s="198"/>
+      <c r="D170" s="256"/>
+      <c r="E170" s="198"/>
+      <c r="F170" s="255"/>
+      <c r="G170" s="198"/>
+      <c r="H170" s="198"/>
+      <c r="I170" s="202"/>
     </row>
     <row r="171">
-      <c r="A171" s="251"/>
-      <c r="B171" s="252"/>
-      <c r="C171" s="200"/>
-      <c r="D171" s="253"/>
-      <c r="E171" s="200"/>
-      <c r="F171" s="252"/>
-      <c r="G171" s="200"/>
-      <c r="H171" s="200"/>
-      <c r="I171" s="204"/>
+      <c r="A171" s="257"/>
+      <c r="B171" s="258"/>
+      <c r="C171" s="206"/>
+      <c r="D171" s="259"/>
+      <c r="E171" s="206"/>
+      <c r="F171" s="258"/>
+      <c r="G171" s="206"/>
+      <c r="H171" s="206"/>
+      <c r="I171" s="210"/>
     </row>
     <row r="172">
-      <c r="A172" s="248"/>
-      <c r="B172" s="249"/>
-      <c r="C172" s="192"/>
-      <c r="D172" s="250"/>
-      <c r="E172" s="192"/>
-      <c r="F172" s="249"/>
-      <c r="G172" s="192"/>
-      <c r="H172" s="192"/>
-      <c r="I172" s="196"/>
+      <c r="A172" s="254"/>
+      <c r="B172" s="255"/>
+      <c r="C172" s="198"/>
+      <c r="D172" s="256"/>
+      <c r="E172" s="198"/>
+      <c r="F172" s="255"/>
+      <c r="G172" s="198"/>
+      <c r="H172" s="198"/>
+      <c r="I172" s="202"/>
     </row>
     <row r="173">
-      <c r="A173" s="251"/>
-      <c r="B173" s="252"/>
-      <c r="C173" s="200"/>
-      <c r="D173" s="253"/>
-      <c r="E173" s="200"/>
-      <c r="F173" s="252"/>
-      <c r="G173" s="200"/>
-      <c r="H173" s="200"/>
-      <c r="I173" s="204"/>
+      <c r="A173" s="257"/>
+      <c r="B173" s="258"/>
+      <c r="C173" s="206"/>
+      <c r="D173" s="259"/>
+      <c r="E173" s="206"/>
+      <c r="F173" s="258"/>
+      <c r="G173" s="206"/>
+      <c r="H173" s="206"/>
+      <c r="I173" s="210"/>
     </row>
     <row r="174">
-      <c r="A174" s="248"/>
-      <c r="B174" s="249"/>
-      <c r="C174" s="192"/>
-      <c r="D174" s="250"/>
-      <c r="E174" s="192"/>
-      <c r="F174" s="249"/>
-      <c r="G174" s="192"/>
-      <c r="H174" s="192"/>
-      <c r="I174" s="196"/>
+      <c r="A174" s="254"/>
+      <c r="B174" s="255"/>
+      <c r="C174" s="198"/>
+      <c r="D174" s="256"/>
+      <c r="E174" s="198"/>
+      <c r="F174" s="255"/>
+      <c r="G174" s="198"/>
+      <c r="H174" s="198"/>
+      <c r="I174" s="202"/>
     </row>
     <row r="175">
-      <c r="A175" s="251"/>
-      <c r="B175" s="252"/>
-      <c r="C175" s="200"/>
-      <c r="D175" s="253"/>
-      <c r="E175" s="200"/>
-      <c r="F175" s="252"/>
-      <c r="G175" s="200"/>
-      <c r="H175" s="200"/>
-      <c r="I175" s="204"/>
+      <c r="A175" s="257"/>
+      <c r="B175" s="258"/>
+      <c r="C175" s="206"/>
+      <c r="D175" s="259"/>
+      <c r="E175" s="206"/>
+      <c r="F175" s="258"/>
+      <c r="G175" s="206"/>
+      <c r="H175" s="206"/>
+      <c r="I175" s="210"/>
     </row>
     <row r="176">
-      <c r="A176" s="248"/>
-      <c r="B176" s="249"/>
-      <c r="C176" s="192"/>
-      <c r="D176" s="250"/>
-      <c r="E176" s="192"/>
-      <c r="F176" s="249"/>
-      <c r="G176" s="192"/>
-      <c r="H176" s="192"/>
-      <c r="I176" s="196"/>
+      <c r="A176" s="254"/>
+      <c r="B176" s="255"/>
+      <c r="C176" s="198"/>
+      <c r="D176" s="256"/>
+      <c r="E176" s="198"/>
+      <c r="F176" s="255"/>
+      <c r="G176" s="198"/>
+      <c r="H176" s="198"/>
+      <c r="I176" s="202"/>
     </row>
     <row r="177">
-      <c r="A177" s="251"/>
-      <c r="B177" s="252"/>
-      <c r="C177" s="200"/>
-      <c r="D177" s="253"/>
-      <c r="E177" s="200"/>
-      <c r="F177" s="252"/>
-      <c r="G177" s="200"/>
-      <c r="H177" s="200"/>
-      <c r="I177" s="204"/>
+      <c r="A177" s="257"/>
+      <c r="B177" s="258"/>
+      <c r="C177" s="206"/>
+      <c r="D177" s="259"/>
+      <c r="E177" s="206"/>
+      <c r="F177" s="258"/>
+      <c r="G177" s="206"/>
+      <c r="H177" s="206"/>
+      <c r="I177" s="210"/>
     </row>
     <row r="178">
-      <c r="A178" s="248"/>
-      <c r="B178" s="249"/>
-      <c r="C178" s="192"/>
-      <c r="D178" s="250"/>
-      <c r="E178" s="192"/>
-      <c r="F178" s="249"/>
-      <c r="G178" s="192"/>
-      <c r="H178" s="192"/>
-      <c r="I178" s="196"/>
+      <c r="A178" s="254"/>
+      <c r="B178" s="255"/>
+      <c r="C178" s="198"/>
+      <c r="D178" s="256"/>
+      <c r="E178" s="198"/>
+      <c r="F178" s="255"/>
+      <c r="G178" s="198"/>
+      <c r="H178" s="198"/>
+      <c r="I178" s="202"/>
     </row>
     <row r="179">
-      <c r="A179" s="251"/>
-      <c r="B179" s="252"/>
-      <c r="C179" s="200"/>
-      <c r="D179" s="253"/>
-      <c r="E179" s="200"/>
-      <c r="F179" s="252"/>
-      <c r="G179" s="200"/>
-      <c r="H179" s="200"/>
-      <c r="I179" s="204"/>
+      <c r="A179" s="257"/>
+      <c r="B179" s="258"/>
+      <c r="C179" s="206"/>
+      <c r="D179" s="259"/>
+      <c r="E179" s="206"/>
+      <c r="F179" s="258"/>
+      <c r="G179" s="206"/>
+      <c r="H179" s="206"/>
+      <c r="I179" s="210"/>
     </row>
     <row r="180">
-      <c r="A180" s="248"/>
-      <c r="B180" s="249"/>
-      <c r="C180" s="192"/>
-      <c r="D180" s="250"/>
-      <c r="E180" s="192"/>
-      <c r="F180" s="249"/>
-      <c r="G180" s="192"/>
-      <c r="H180" s="192"/>
-      <c r="I180" s="196"/>
+      <c r="A180" s="254"/>
+      <c r="B180" s="255"/>
+      <c r="C180" s="198"/>
+      <c r="D180" s="256"/>
+      <c r="E180" s="198"/>
+      <c r="F180" s="255"/>
+      <c r="G180" s="198"/>
+      <c r="H180" s="198"/>
+      <c r="I180" s="202"/>
     </row>
     <row r="181">
-      <c r="A181" s="251"/>
-      <c r="B181" s="252"/>
-      <c r="C181" s="200"/>
-      <c r="D181" s="253"/>
-      <c r="E181" s="200"/>
-      <c r="F181" s="252"/>
-      <c r="G181" s="200"/>
-      <c r="H181" s="200"/>
-      <c r="I181" s="204"/>
+      <c r="A181" s="257"/>
+      <c r="B181" s="258"/>
+      <c r="C181" s="206"/>
+      <c r="D181" s="259"/>
+      <c r="E181" s="206"/>
+      <c r="F181" s="258"/>
+      <c r="G181" s="206"/>
+      <c r="H181" s="206"/>
+      <c r="I181" s="210"/>
     </row>
     <row r="182">
-      <c r="A182" s="248"/>
-      <c r="B182" s="249"/>
-      <c r="C182" s="192"/>
-      <c r="D182" s="250"/>
-      <c r="E182" s="192"/>
-      <c r="F182" s="249"/>
-      <c r="G182" s="192"/>
-      <c r="H182" s="192"/>
-      <c r="I182" s="196"/>
+      <c r="A182" s="254"/>
+      <c r="B182" s="255"/>
+      <c r="C182" s="198"/>
+      <c r="D182" s="256"/>
+      <c r="E182" s="198"/>
+      <c r="F182" s="255"/>
+      <c r="G182" s="198"/>
+      <c r="H182" s="198"/>
+      <c r="I182" s="202"/>
     </row>
     <row r="183">
-      <c r="A183" s="251"/>
-      <c r="B183" s="252"/>
-      <c r="C183" s="200"/>
-      <c r="D183" s="253"/>
-      <c r="E183" s="200"/>
-      <c r="F183" s="252"/>
-      <c r="G183" s="200"/>
-      <c r="H183" s="200"/>
-      <c r="I183" s="204"/>
+      <c r="A183" s="257"/>
+      <c r="B183" s="258"/>
+      <c r="C183" s="206"/>
+      <c r="D183" s="259"/>
+      <c r="E183" s="206"/>
+      <c r="F183" s="258"/>
+      <c r="G183" s="206"/>
+      <c r="H183" s="206"/>
+      <c r="I183" s="210"/>
     </row>
     <row r="184">
-      <c r="A184" s="248"/>
-      <c r="B184" s="249"/>
-      <c r="C184" s="192"/>
-      <c r="D184" s="250"/>
-      <c r="E184" s="192"/>
-      <c r="F184" s="249"/>
-      <c r="G184" s="192"/>
-      <c r="H184" s="192"/>
-      <c r="I184" s="196"/>
+      <c r="A184" s="254"/>
+      <c r="B184" s="255"/>
+      <c r="C184" s="198"/>
+      <c r="D184" s="256"/>
+      <c r="E184" s="198"/>
+      <c r="F184" s="255"/>
+      <c r="G184" s="198"/>
+      <c r="H184" s="198"/>
+      <c r="I184" s="202"/>
     </row>
     <row r="185">
-      <c r="A185" s="251"/>
-      <c r="B185" s="252"/>
-      <c r="C185" s="200"/>
-      <c r="D185" s="253"/>
-      <c r="E185" s="200"/>
-      <c r="F185" s="252"/>
-      <c r="G185" s="200"/>
-      <c r="H185" s="200"/>
-      <c r="I185" s="204"/>
+      <c r="A185" s="257"/>
+      <c r="B185" s="258"/>
+      <c r="C185" s="206"/>
+      <c r="D185" s="259"/>
+      <c r="E185" s="206"/>
+      <c r="F185" s="258"/>
+      <c r="G185" s="206"/>
+      <c r="H185" s="206"/>
+      <c r="I185" s="210"/>
     </row>
     <row r="186">
-      <c r="A186" s="248"/>
-      <c r="B186" s="249"/>
-      <c r="C186" s="192"/>
-      <c r="D186" s="250"/>
-      <c r="E186" s="192"/>
-      <c r="F186" s="249"/>
-      <c r="G186" s="192"/>
-      <c r="H186" s="192"/>
-      <c r="I186" s="196"/>
+      <c r="A186" s="254"/>
+      <c r="B186" s="255"/>
+      <c r="C186" s="198"/>
+      <c r="D186" s="256"/>
+      <c r="E186" s="198"/>
+      <c r="F186" s="255"/>
+      <c r="G186" s="198"/>
+      <c r="H186" s="198"/>
+      <c r="I186" s="202"/>
     </row>
     <row r="187">
-      <c r="A187" s="251"/>
-      <c r="B187" s="252"/>
-      <c r="C187" s="200"/>
-      <c r="D187" s="253"/>
-      <c r="E187" s="200"/>
-      <c r="F187" s="252"/>
-      <c r="G187" s="200"/>
-      <c r="H187" s="200"/>
-      <c r="I187" s="204"/>
+      <c r="A187" s="257"/>
+      <c r="B187" s="258"/>
+      <c r="C187" s="206"/>
+      <c r="D187" s="259"/>
+      <c r="E187" s="206"/>
+      <c r="F187" s="258"/>
+      <c r="G187" s="206"/>
+      <c r="H187" s="206"/>
+      <c r="I187" s="210"/>
     </row>
     <row r="188">
-      <c r="A188" s="248"/>
-      <c r="B188" s="249"/>
-      <c r="C188" s="192"/>
-      <c r="D188" s="250"/>
-      <c r="E188" s="192"/>
-      <c r="F188" s="249"/>
-      <c r="G188" s="192"/>
-      <c r="H188" s="192"/>
-      <c r="I188" s="196"/>
+      <c r="A188" s="254"/>
+      <c r="B188" s="255"/>
+      <c r="C188" s="198"/>
+      <c r="D188" s="256"/>
+      <c r="E188" s="198"/>
+      <c r="F188" s="255"/>
+      <c r="G188" s="198"/>
+      <c r="H188" s="198"/>
+      <c r="I188" s="202"/>
     </row>
     <row r="189">
-      <c r="A189" s="251"/>
-      <c r="B189" s="252"/>
-      <c r="C189" s="200"/>
-      <c r="D189" s="253"/>
-      <c r="E189" s="200"/>
-      <c r="F189" s="252"/>
-      <c r="G189" s="200"/>
-      <c r="H189" s="200"/>
-      <c r="I189" s="204"/>
+      <c r="A189" s="257"/>
+      <c r="B189" s="258"/>
+      <c r="C189" s="206"/>
+      <c r="D189" s="259"/>
+      <c r="E189" s="206"/>
+      <c r="F189" s="258"/>
+      <c r="G189" s="206"/>
+      <c r="H189" s="206"/>
+      <c r="I189" s="210"/>
     </row>
     <row r="190">
-      <c r="A190" s="248"/>
-      <c r="B190" s="249"/>
-      <c r="C190" s="192"/>
-      <c r="D190" s="250"/>
-      <c r="E190" s="192"/>
-      <c r="F190" s="249"/>
-      <c r="G190" s="192"/>
-      <c r="H190" s="192"/>
-      <c r="I190" s="196"/>
+      <c r="A190" s="254"/>
+      <c r="B190" s="255"/>
+      <c r="C190" s="198"/>
+      <c r="D190" s="256"/>
+      <c r="E190" s="198"/>
+      <c r="F190" s="255"/>
+      <c r="G190" s="198"/>
+      <c r="H190" s="198"/>
+      <c r="I190" s="202"/>
     </row>
     <row r="191">
-      <c r="A191" s="251"/>
-      <c r="B191" s="252"/>
-      <c r="C191" s="200"/>
-      <c r="D191" s="253"/>
-      <c r="E191" s="200"/>
-      <c r="F191" s="252"/>
-      <c r="G191" s="200"/>
-      <c r="H191" s="200"/>
-      <c r="I191" s="204"/>
+      <c r="A191" s="257"/>
+      <c r="B191" s="258"/>
+      <c r="C191" s="206"/>
+      <c r="D191" s="259"/>
+      <c r="E191" s="206"/>
+      <c r="F191" s="258"/>
+      <c r="G191" s="206"/>
+      <c r="H191" s="206"/>
+      <c r="I191" s="210"/>
     </row>
     <row r="192">
-      <c r="A192" s="248"/>
-      <c r="B192" s="249"/>
-      <c r="C192" s="192"/>
-      <c r="D192" s="250"/>
-      <c r="E192" s="192"/>
-      <c r="F192" s="249"/>
-      <c r="G192" s="192"/>
-      <c r="H192" s="192"/>
-      <c r="I192" s="196"/>
+      <c r="A192" s="254"/>
+      <c r="B192" s="255"/>
+      <c r="C192" s="198"/>
+      <c r="D192" s="256"/>
+      <c r="E192" s="198"/>
+      <c r="F192" s="255"/>
+      <c r="G192" s="198"/>
+      <c r="H192" s="198"/>
+      <c r="I192" s="202"/>
     </row>
     <row r="193">
-      <c r="A193" s="251"/>
-      <c r="B193" s="252"/>
-      <c r="C193" s="200"/>
-      <c r="D193" s="253"/>
-      <c r="E193" s="200"/>
-      <c r="F193" s="252"/>
-      <c r="G193" s="200"/>
-      <c r="H193" s="200"/>
-      <c r="I193" s="204"/>
+      <c r="A193" s="257"/>
+      <c r="B193" s="258"/>
+      <c r="C193" s="206"/>
+      <c r="D193" s="259"/>
+      <c r="E193" s="206"/>
+      <c r="F193" s="258"/>
+      <c r="G193" s="206"/>
+      <c r="H193" s="206"/>
+      <c r="I193" s="210"/>
     </row>
     <row r="194">
-      <c r="A194" s="248"/>
-      <c r="B194" s="249"/>
-      <c r="C194" s="192"/>
-      <c r="D194" s="250"/>
-      <c r="E194" s="192"/>
-      <c r="F194" s="249"/>
-      <c r="G194" s="192"/>
-      <c r="H194" s="192"/>
-      <c r="I194" s="196"/>
+      <c r="A194" s="254"/>
+      <c r="B194" s="255"/>
+      <c r="C194" s="198"/>
+      <c r="D194" s="256"/>
+      <c r="E194" s="198"/>
+      <c r="F194" s="255"/>
+      <c r="G194" s="198"/>
+      <c r="H194" s="198"/>
+      <c r="I194" s="202"/>
     </row>
     <row r="195">
-      <c r="A195" s="251"/>
-      <c r="B195" s="252"/>
-      <c r="C195" s="200"/>
-      <c r="D195" s="253"/>
-      <c r="E195" s="200"/>
-      <c r="F195" s="252"/>
-      <c r="G195" s="200"/>
-      <c r="H195" s="200"/>
-      <c r="I195" s="204"/>
+      <c r="A195" s="257"/>
+      <c r="B195" s="258"/>
+      <c r="C195" s="206"/>
+      <c r="D195" s="259"/>
+      <c r="E195" s="206"/>
+      <c r="F195" s="258"/>
+      <c r="G195" s="206"/>
+      <c r="H195" s="206"/>
+      <c r="I195" s="210"/>
     </row>
     <row r="196">
-      <c r="A196" s="248"/>
-      <c r="B196" s="249"/>
-      <c r="C196" s="192"/>
-      <c r="D196" s="250"/>
-      <c r="E196" s="192"/>
-      <c r="F196" s="249"/>
-      <c r="G196" s="192"/>
-      <c r="H196" s="192"/>
-      <c r="I196" s="196"/>
+      <c r="A196" s="254"/>
+      <c r="B196" s="255"/>
+      <c r="C196" s="198"/>
+      <c r="D196" s="256"/>
+      <c r="E196" s="198"/>
+      <c r="F196" s="255"/>
+      <c r="G196" s="198"/>
+      <c r="H196" s="198"/>
+      <c r="I196" s="202"/>
     </row>
     <row r="197">
-      <c r="A197" s="251"/>
-      <c r="B197" s="252"/>
-      <c r="C197" s="200"/>
-      <c r="D197" s="253"/>
-      <c r="E197" s="200"/>
-      <c r="F197" s="252"/>
-      <c r="G197" s="200"/>
-      <c r="H197" s="200"/>
-      <c r="I197" s="204"/>
+      <c r="A197" s="257"/>
+      <c r="B197" s="258"/>
+      <c r="C197" s="206"/>
+      <c r="D197" s="259"/>
+      <c r="E197" s="206"/>
+      <c r="F197" s="258"/>
+      <c r="G197" s="206"/>
+      <c r="H197" s="206"/>
+      <c r="I197" s="210"/>
     </row>
     <row r="198">
-      <c r="A198" s="248"/>
-      <c r="B198" s="249"/>
-      <c r="C198" s="192"/>
-      <c r="D198" s="250"/>
-      <c r="E198" s="192"/>
-      <c r="F198" s="249"/>
-      <c r="G198" s="192"/>
-      <c r="H198" s="192"/>
-      <c r="I198" s="196"/>
+      <c r="A198" s="254"/>
+      <c r="B198" s="255"/>
+      <c r="C198" s="198"/>
+      <c r="D198" s="256"/>
+      <c r="E198" s="198"/>
+      <c r="F198" s="255"/>
+      <c r="G198" s="198"/>
+      <c r="H198" s="198"/>
+      <c r="I198" s="202"/>
     </row>
     <row r="199">
-      <c r="A199" s="251"/>
-      <c r="B199" s="252"/>
-      <c r="C199" s="200"/>
-      <c r="D199" s="253"/>
-      <c r="E199" s="200"/>
-      <c r="F199" s="252"/>
-      <c r="G199" s="200"/>
-      <c r="H199" s="200"/>
-      <c r="I199" s="204"/>
+      <c r="A199" s="257"/>
+      <c r="B199" s="258"/>
+      <c r="C199" s="206"/>
+      <c r="D199" s="259"/>
+      <c r="E199" s="206"/>
+      <c r="F199" s="258"/>
+      <c r="G199" s="206"/>
+      <c r="H199" s="206"/>
+      <c r="I199" s="210"/>
     </row>
     <row r="200">
-      <c r="A200" s="248"/>
-      <c r="B200" s="249"/>
-      <c r="C200" s="192"/>
-      <c r="D200" s="250"/>
-      <c r="E200" s="192"/>
-      <c r="F200" s="249"/>
-      <c r="G200" s="192"/>
-      <c r="H200" s="192"/>
-      <c r="I200" s="196"/>
+      <c r="A200" s="254"/>
+      <c r="B200" s="255"/>
+      <c r="C200" s="198"/>
+      <c r="D200" s="256"/>
+      <c r="E200" s="198"/>
+      <c r="F200" s="255"/>
+      <c r="G200" s="198"/>
+      <c r="H200" s="198"/>
+      <c r="I200" s="202"/>
     </row>
     <row r="201">
-      <c r="A201" s="251"/>
-      <c r="B201" s="252"/>
-      <c r="C201" s="200"/>
-      <c r="D201" s="253"/>
-      <c r="E201" s="200"/>
-      <c r="F201" s="252"/>
-      <c r="G201" s="200"/>
-      <c r="H201" s="200"/>
-      <c r="I201" s="204"/>
+      <c r="A201" s="257"/>
+      <c r="B201" s="258"/>
+      <c r="C201" s="206"/>
+      <c r="D201" s="259"/>
+      <c r="E201" s="206"/>
+      <c r="F201" s="258"/>
+      <c r="G201" s="206"/>
+      <c r="H201" s="206"/>
+      <c r="I201" s="210"/>
     </row>
     <row r="202">
-      <c r="A202" s="248"/>
-      <c r="B202" s="249"/>
-      <c r="C202" s="192"/>
-      <c r="D202" s="250"/>
-      <c r="E202" s="192"/>
-      <c r="F202" s="249"/>
-      <c r="G202" s="192"/>
-      <c r="H202" s="192"/>
-      <c r="I202" s="196"/>
+      <c r="A202" s="254"/>
+      <c r="B202" s="255"/>
+      <c r="C202" s="198"/>
+      <c r="D202" s="256"/>
+      <c r="E202" s="198"/>
+      <c r="F202" s="255"/>
+      <c r="G202" s="198"/>
+      <c r="H202" s="198"/>
+      <c r="I202" s="202"/>
     </row>
     <row r="203">
-      <c r="A203" s="251"/>
-      <c r="B203" s="252"/>
-      <c r="C203" s="200"/>
-      <c r="D203" s="253"/>
-      <c r="E203" s="200"/>
-      <c r="F203" s="252"/>
-      <c r="G203" s="200"/>
-      <c r="H203" s="200"/>
-      <c r="I203" s="204"/>
+      <c r="A203" s="257"/>
+      <c r="B203" s="258"/>
+      <c r="C203" s="206"/>
+      <c r="D203" s="259"/>
+      <c r="E203" s="206"/>
+      <c r="F203" s="258"/>
+      <c r="G203" s="206"/>
+      <c r="H203" s="206"/>
+      <c r="I203" s="210"/>
     </row>
     <row r="204">
-      <c r="A204" s="248"/>
-      <c r="B204" s="249"/>
-      <c r="C204" s="192"/>
-      <c r="D204" s="250"/>
-      <c r="E204" s="192"/>
-      <c r="F204" s="249"/>
-      <c r="G204" s="192"/>
-      <c r="H204" s="192"/>
-      <c r="I204" s="196"/>
+      <c r="A204" s="254"/>
+      <c r="B204" s="255"/>
+      <c r="C204" s="198"/>
+      <c r="D204" s="256"/>
+      <c r="E204" s="198"/>
+      <c r="F204" s="255"/>
+      <c r="G204" s="198"/>
+      <c r="H204" s="198"/>
+      <c r="I204" s="202"/>
     </row>
     <row r="205">
-      <c r="A205" s="251"/>
-      <c r="B205" s="252"/>
-      <c r="C205" s="200"/>
-      <c r="D205" s="253"/>
-      <c r="E205" s="200"/>
-      <c r="F205" s="252"/>
-      <c r="G205" s="200"/>
-      <c r="H205" s="200"/>
-      <c r="I205" s="204"/>
+      <c r="A205" s="257"/>
+      <c r="B205" s="258"/>
+      <c r="C205" s="206"/>
+      <c r="D205" s="259"/>
+      <c r="E205" s="206"/>
+      <c r="F205" s="258"/>
+      <c r="G205" s="206"/>
+      <c r="H205" s="206"/>
+      <c r="I205" s="210"/>
     </row>
     <row r="206">
-      <c r="A206" s="248"/>
-      <c r="B206" s="249"/>
-      <c r="C206" s="192"/>
-      <c r="D206" s="250"/>
-      <c r="E206" s="192"/>
-      <c r="F206" s="249"/>
-      <c r="G206" s="192"/>
-      <c r="H206" s="192"/>
-      <c r="I206" s="196"/>
+      <c r="A206" s="254"/>
+      <c r="B206" s="255"/>
+      <c r="C206" s="198"/>
+      <c r="D206" s="256"/>
+      <c r="E206" s="198"/>
+      <c r="F206" s="255"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="198"/>
+      <c r="I206" s="202"/>
     </row>
     <row r="207">
-      <c r="A207" s="251"/>
-      <c r="B207" s="252"/>
-      <c r="C207" s="200"/>
-      <c r="D207" s="253"/>
-      <c r="E207" s="200"/>
-      <c r="F207" s="252"/>
-      <c r="G207" s="200"/>
-      <c r="H207" s="200"/>
-      <c r="I207" s="204"/>
+      <c r="A207" s="257"/>
+      <c r="B207" s="258"/>
+      <c r="C207" s="206"/>
+      <c r="D207" s="259"/>
+      <c r="E207" s="206"/>
+      <c r="F207" s="258"/>
+      <c r="G207" s="206"/>
+      <c r="H207" s="206"/>
+      <c r="I207" s="210"/>
     </row>
     <row r="208">
-      <c r="A208" s="248"/>
-      <c r="B208" s="249"/>
-      <c r="C208" s="192"/>
-      <c r="D208" s="250"/>
-      <c r="E208" s="192"/>
-      <c r="F208" s="249"/>
-      <c r="G208" s="192"/>
-      <c r="H208" s="192"/>
-      <c r="I208" s="196"/>
+      <c r="A208" s="254"/>
+      <c r="B208" s="255"/>
+      <c r="C208" s="198"/>
+      <c r="D208" s="256"/>
+      <c r="E208" s="198"/>
+      <c r="F208" s="255"/>
+      <c r="G208" s="198"/>
+      <c r="H208" s="198"/>
+      <c r="I208" s="202"/>
     </row>
     <row r="209">
-      <c r="A209" s="251"/>
-      <c r="B209" s="252"/>
-      <c r="C209" s="200"/>
-      <c r="D209" s="253"/>
-      <c r="E209" s="200"/>
-      <c r="F209" s="252"/>
-      <c r="G209" s="200"/>
-      <c r="H209" s="200"/>
-      <c r="I209" s="204"/>
+      <c r="A209" s="257"/>
+      <c r="B209" s="258"/>
+      <c r="C209" s="206"/>
+      <c r="D209" s="259"/>
+      <c r="E209" s="206"/>
+      <c r="F209" s="258"/>
+      <c r="G209" s="206"/>
+      <c r="H209" s="206"/>
+      <c r="I209" s="210"/>
     </row>
     <row r="210">
-      <c r="A210" s="248"/>
-      <c r="B210" s="249"/>
-      <c r="C210" s="192"/>
-      <c r="D210" s="250"/>
-      <c r="E210" s="192"/>
-      <c r="F210" s="249"/>
-      <c r="G210" s="192"/>
-      <c r="H210" s="192"/>
-      <c r="I210" s="196"/>
+      <c r="A210" s="254"/>
+      <c r="B210" s="255"/>
+      <c r="C210" s="198"/>
+      <c r="D210" s="256"/>
+      <c r="E210" s="198"/>
+      <c r="F210" s="255"/>
+      <c r="G210" s="198"/>
+      <c r="H210" s="198"/>
+      <c r="I210" s="202"/>
     </row>
     <row r="211">
-      <c r="A211" s="251"/>
-      <c r="B211" s="252"/>
-      <c r="C211" s="200"/>
-      <c r="D211" s="253"/>
-      <c r="E211" s="200"/>
-      <c r="F211" s="252"/>
-      <c r="G211" s="200"/>
-      <c r="H211" s="200"/>
-      <c r="I211" s="204"/>
+      <c r="A211" s="257"/>
+      <c r="B211" s="258"/>
+      <c r="C211" s="206"/>
+      <c r="D211" s="259"/>
+      <c r="E211" s="206"/>
+      <c r="F211" s="258"/>
+      <c r="G211" s="206"/>
+      <c r="H211" s="206"/>
+      <c r="I211" s="210"/>
     </row>
     <row r="212">
-      <c r="A212" s="248"/>
-      <c r="B212" s="249"/>
-      <c r="C212" s="192"/>
-      <c r="D212" s="250"/>
-      <c r="E212" s="192"/>
-      <c r="F212" s="249"/>
-      <c r="G212" s="192"/>
-      <c r="H212" s="192"/>
-      <c r="I212" s="196"/>
+      <c r="A212" s="254"/>
+      <c r="B212" s="255"/>
+      <c r="C212" s="198"/>
+      <c r="D212" s="256"/>
+      <c r="E212" s="198"/>
+      <c r="F212" s="255"/>
+      <c r="G212" s="198"/>
+      <c r="H212" s="198"/>
+      <c r="I212" s="202"/>
     </row>
     <row r="213">
-      <c r="A213" s="251"/>
-      <c r="B213" s="252"/>
-      <c r="C213" s="200"/>
-      <c r="D213" s="253"/>
-      <c r="E213" s="200"/>
-      <c r="F213" s="252"/>
-      <c r="G213" s="200"/>
-      <c r="H213" s="200"/>
-      <c r="I213" s="204"/>
+      <c r="A213" s="257"/>
+      <c r="B213" s="258"/>
+      <c r="C213" s="206"/>
+      <c r="D213" s="259"/>
+      <c r="E213" s="206"/>
+      <c r="F213" s="258"/>
+      <c r="G213" s="206"/>
+      <c r="H213" s="206"/>
+      <c r="I213" s="210"/>
     </row>
     <row r="214">
-      <c r="A214" s="248"/>
-      <c r="B214" s="249"/>
-      <c r="C214" s="192"/>
-      <c r="D214" s="250"/>
-      <c r="E214" s="192"/>
-      <c r="F214" s="249"/>
-      <c r="G214" s="192"/>
-      <c r="H214" s="192"/>
-      <c r="I214" s="196"/>
+      <c r="A214" s="254"/>
+      <c r="B214" s="255"/>
+      <c r="C214" s="198"/>
+      <c r="D214" s="256"/>
+      <c r="E214" s="198"/>
+      <c r="F214" s="255"/>
+      <c r="G214" s="198"/>
+      <c r="H214" s="198"/>
+      <c r="I214" s="202"/>
     </row>
     <row r="215">
-      <c r="A215" s="251"/>
-      <c r="B215" s="252"/>
-      <c r="C215" s="200"/>
-      <c r="D215" s="253"/>
-      <c r="E215" s="200"/>
-      <c r="F215" s="252"/>
-      <c r="G215" s="200"/>
-      <c r="H215" s="200"/>
-      <c r="I215" s="204"/>
+      <c r="A215" s="257"/>
+      <c r="B215" s="258"/>
+      <c r="C215" s="206"/>
+      <c r="D215" s="259"/>
+      <c r="E215" s="206"/>
+      <c r="F215" s="258"/>
+      <c r="G215" s="206"/>
+      <c r="H215" s="206"/>
+      <c r="I215" s="210"/>
     </row>
     <row r="216">
-      <c r="A216" s="248"/>
-      <c r="B216" s="249"/>
-      <c r="C216" s="192"/>
-      <c r="D216" s="250"/>
-      <c r="E216" s="192"/>
-      <c r="F216" s="249"/>
-      <c r="G216" s="192"/>
-      <c r="H216" s="192"/>
-      <c r="I216" s="196"/>
+      <c r="A216" s="254"/>
+      <c r="B216" s="255"/>
+      <c r="C216" s="198"/>
+      <c r="D216" s="256"/>
+      <c r="E216" s="198"/>
+      <c r="F216" s="255"/>
+      <c r="G216" s="198"/>
+      <c r="H216" s="198"/>
+      <c r="I216" s="202"/>
     </row>
     <row r="217">
-      <c r="A217" s="254"/>
-      <c r="B217" s="255"/>
-      <c r="C217" s="256"/>
-      <c r="D217" s="257"/>
-      <c r="E217" s="256"/>
-      <c r="F217" s="255"/>
-      <c r="G217" s="256"/>
-      <c r="H217" s="256"/>
-      <c r="I217" s="258"/>
+      <c r="A217" s="260"/>
+      <c r="B217" s="261"/>
+      <c r="C217" s="262"/>
+      <c r="D217" s="263"/>
+      <c r="E217" s="262"/>
+      <c r="F217" s="261"/>
+      <c r="G217" s="262"/>
+      <c r="H217" s="262"/>
+      <c r="I217" s="264"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/docs/UniMove Tickets.xlsx
+++ b/docs/UniMove Tickets.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="133">
   <si>
     <t>Semana 1</t>
   </si>
@@ -257,14 +257,17 @@
     <t>Login/Register</t>
   </si>
   <si>
+    <t>Marta/Alejandra</t>
+  </si>
+  <si>
+    <t>Mapas Universidades</t>
+  </si>
+  <si>
     <t>🆕  Protocolos preconfigurados</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar en la pantalla donde se muestra la enfermedad/condición del estudiante
 2. Mostrar lista de pasos (protocolo) para saber cómo actuar </t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Definición de los protocolos para las enfermedades de Supabase</t>
@@ -310,19 +313,16 @@
     <t>Limitar/validar inputs (input vacio, longitud limitado, advertencias) en front-end</t>
   </si>
   <si>
-    <t>🆕  Comparar precios y servicios 
-entre proveedores</t>
+    <t>Reimplementar el código para que funcione con el pytest</t>
   </si>
   <si>
-    <t>1. Entrar en la pantalla donde te muestran diferentes tipos de proveedores.
-2. Permitir al usuario ingresar un presupuesto.
-3. Permitir al usuario filtrar lo que se muestra según el precio, mejores valoraciones.</t>
-  </si>
-  <si>
-    <t>Crear la interfaz donde te muestran los tipos de proveedores</t>
+    <t>4h</t>
   </si>
   <si>
     <t>Convertir login/register a Flask</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
   <si>
     <t>Terminar configuración del mapa</t>
@@ -335,7 +335,7 @@
     <t>1. Entra en una pantalla donde se muestra la información de cada 
     universidad ordenadas por ranking.
 2. Permite al usuario filtrarlas ingresando el grado/grados de interés.
-3. Si no existe ninguna universidad que imparta el grado seleccionado, lanza un error.</t>
+3. Mostrar al usuario las universidades que lo ofrecen junto a sus detalles. Si no existe ninguna universidad que imparta el grado seleccionado, lanza un error.</t>
   </si>
   <si>
     <t>P2</t>
@@ -344,10 +344,16 @@
     <t>Diseñar la vista de detalle con nombre, ranking, datos clave y contacto.</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>Implementar el filtrado por grado con campo de búsqueda conectado a la base de datos.</t>
   </si>
   <si>
-    <t>Validar el correcto orden del ranking y probar búsquedas con uno, varios o ningún grado.</t>
+    <t>Validar el correcto orden del ranking y probar búsquedas con el grado.</t>
+  </si>
+  <si>
+    <t>Conectar fronted con Backend</t>
   </si>
   <si>
     <t>🆕  Mostrar información detallada de cada apartamento 
@@ -443,9 +449,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/MM/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -934,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="275">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1455,45 +1462,54 @@
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2058,7 +2074,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B12:D16" displayName="Table_17" name="Table_17" id="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B13:D17" displayName="Table_17" name="Table_17" id="17">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2069,7 +2085,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B22:D23" displayName="Table_18" name="Table_18" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B23:D24" displayName="Table_18" name="Table_18" id="18">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2080,7 +2096,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E22" displayName="Table_19" name="Table_19" id="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E23" displayName="Table_19" name="Table_19" id="19">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2100,7 +2116,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F22:I22" displayName="Table_20" name="Table_20" id="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F23:I23" displayName="Table_20" name="Table_20" id="20">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2112,7 +2128,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E23" displayName="Table_21" name="Table_21" id="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E24" displayName="Table_21" name="Table_21" id="21">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2121,7 +2137,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F23:I23" displayName="Table_22" name="Table_22" id="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F24:I24" displayName="Table_22" name="Table_22" id="22">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2133,7 +2149,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B24:D24" displayName="Table_23" name="Table_23" id="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B25:D25" displayName="Table_23" name="Table_23" id="23">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2144,7 +2160,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E24" displayName="Table_24" name="Table_24" id="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E25" displayName="Table_24" name="Table_24" id="24">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2153,7 +2169,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F24:I24" displayName="Table_25" name="Table_25" id="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F25:I25" displayName="Table_25" name="Table_25" id="25">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2165,7 +2181,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B25:D25" displayName="Table_26" name="Table_26" id="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B26:D26" displayName="Table_26" name="Table_26" id="26">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2176,7 +2192,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E25" displayName="Table_27" name="Table_27" id="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E26" displayName="Table_27" name="Table_27" id="27">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2185,7 +2201,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F25:I25" displayName="Table_28" name="Table_28" id="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F26:I26" displayName="Table_28" name="Table_28" id="28">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2197,7 +2213,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B26:D26" displayName="Table_29" name="Table_29" id="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B27:D27" displayName="Table_29" name="Table_29" id="29">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2217,7 +2233,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E26" displayName="Table_30" name="Table_30" id="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E27" displayName="Table_30" name="Table_30" id="30">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2226,7 +2242,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F26:I26" displayName="Table_31" name="Table_31" id="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F27:I27" displayName="Table_31" name="Table_31" id="31">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2238,7 +2254,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B27:D27" displayName="Table_32" name="Table_32" id="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B28:D28" displayName="Table_32" name="Table_32" id="32">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2249,18 +2265,16 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B31:D31" displayName="Table_33" name="Table_33" id="33">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="D32" displayName="Table_33" name="Table_33" id="33">
+  <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="Semana 2-style 17" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E31" displayName="Table_34" name="Table_34" id="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E32" displayName="Table_34" name="Table_34" id="34">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2269,7 +2283,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F31:I31" displayName="Table_35" name="Table_35" id="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F32:I32" displayName="Table_35" name="Table_35" id="35">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2281,7 +2295,7 @@
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B36:D36" displayName="Table_36" name="Table_36" id="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B33:D33" displayName="Table_36" name="Table_36" id="36">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2292,7 +2306,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E36" displayName="Table_37" name="Table_37" id="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E33" displayName="Table_37" name="Table_37" id="37">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2301,7 +2315,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F36:I36" displayName="Table_38" name="Table_38" id="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F33:I33" displayName="Table_38" name="Table_38" id="38">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2313,7 +2327,7 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B41:D41" displayName="Table_39" name="Table_39" id="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B37:D37" displayName="Table_39" name="Table_39" id="39">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2336,7 +2350,7 @@
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E41" displayName="Table_40" name="Table_40" id="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E37" displayName="Table_40" name="Table_40" id="40">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2345,7 +2359,7 @@
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F41:I41" displayName="Table_41" name="Table_41" id="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F37:I37" displayName="Table_41" name="Table_41" id="41">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2357,7 +2371,7 @@
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B46:D49" displayName="Table_42" name="Table_42" id="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B42:D45" displayName="Table_42" name="Table_42" id="42">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2368,7 +2382,7 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E46" displayName="Table_43" name="Table_43" id="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E42" displayName="Table_43" name="Table_43" id="43">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2377,7 +2391,7 @@
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F46:I46" displayName="Table_44" name="Table_44" id="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F42:I42" displayName="Table_44" name="Table_44" id="44">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2389,7 +2403,7 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B53:D58" displayName="Table_45" name="Table_45" id="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B49:D54" displayName="Table_45" name="Table_45" id="45">
   <tableColumns count="3">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2400,7 +2414,7 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E53" displayName="Table_46" name="Table_46" id="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="E49" displayName="Table_46" name="Table_46" id="46">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -2409,7 +2423,7 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F53:I58" displayName="Table_47" name="Table_47" id="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="F49:I54" displayName="Table_47" name="Table_47" id="47">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -37213,7 +37227,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
-    <col customWidth="1" min="2" max="2" width="42.38"/>
+    <col customWidth="1" min="2" max="2" width="66.5"/>
     <col customWidth="1" min="3" max="3" width="65.88"/>
     <col customWidth="1" min="4" max="4" width="23.38"/>
     <col customWidth="1" min="5" max="5" width="16.38"/>
@@ -37263,12 +37277,12 @@
         <v>72</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>"Tiempo Estimado: " &amp; SUM(D9,D20,D30,D35,D40,D45,D52)</f>
-        <v>Tiempo Estimado: 0</v>
+        <f>"Tiempo Estimado: " &amp; SUM(D10,D21,#REF!,D31,D36,D41,D48)</f>
+        <v>#REF!</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f>"Tiempo Tardado Actualmente: " &amp; SUM(I9,I20,I30,I40)</f>
-        <v>Tiempo Tardado Actualmente: 0</v>
+        <f>"Tiempo Tardado Actualmente: " &amp; SUM(I10,I21,#REF!,I36)</f>
+        <v>#REF!</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -37414,289 +37428,282 @@
       <c r="AF5" s="18"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
     </row>
     <row r="7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-    </row>
-    <row r="8" ht="53.25" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+    </row>
+    <row r="9" ht="53.25" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="161" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="B9" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="22">
         <v>13.0</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G9" s="27">
         <v>45936.0</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="25">
-        <f>SUM(I10,I11:I16)</f>
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
+      <c r="I9" s="25">
+        <f>SUM(I11,I12:I17)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
     </row>
     <row r="10">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I11" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
     </row>
     <row r="12">
       <c r="A12" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="164" t="s">
-        <v>78</v>
+        <v>1.0</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="37">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="38">
+        <v>45930.0</v>
+      </c>
       <c r="E12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>28</v>
@@ -37704,7 +37711,9 @@
       <c r="H12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="37">
+        <v>0.75</v>
+      </c>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
@@ -37730,28 +37739,32 @@
     </row>
     <row r="13">
       <c r="A13" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="B13" s="165" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B13" s="164" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="37">
         <v>2.0</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="38">
+        <v>45930.0</v>
+      </c>
       <c r="E13" s="37" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="I13" s="37">
+        <v>1.5</v>
+      </c>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
       <c r="M13" s="41"/>
@@ -37777,17 +37790,19 @@
     </row>
     <row r="14">
       <c r="A14" s="32">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B14" s="165" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="38"/>
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="38">
+        <v>45933.0</v>
+      </c>
       <c r="E14" s="37" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>27</v>
@@ -37796,9 +37811,11 @@
         <v>28</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="I14" s="37">
+        <v>2.75</v>
+      </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
       <c r="M14" s="41"/>
@@ -37824,28 +37841,32 @@
     </row>
     <row r="15">
       <c r="A15" s="32">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B15" s="165" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="D15" s="38"/>
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="38">
+        <v>45933.0</v>
+      </c>
       <c r="E15" s="37" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K15" s="41"/>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -37871,55 +37892,83 @@
     </row>
     <row r="16">
       <c r="A16" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="B16" s="164" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B16" s="165" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="38"/>
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="38">
+        <v>45933.0</v>
+      </c>
       <c r="E16" s="37" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I16" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
     </row>
     <row r="17">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="32">
+        <v>6.0</v>
+      </c>
+      <c r="B17" s="164" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="38">
+        <v>45934.0</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0.5</v>
+      </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
@@ -37943,216 +37992,194 @@
       <c r="AF17" s="31"/>
     </row>
     <row r="18">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="38"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G19" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-    </row>
-    <row r="19" ht="53.25" customHeight="1">
-      <c r="A19" s="52" t="s">
+      <c r="J19" s="49"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+    </row>
+    <row r="20" ht="53.25" customHeight="1">
+      <c r="A20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="166" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="167" t="s">
+      <c r="B20" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="55">
+      <c r="C20" s="167" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="55">
         <v>13.0</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E20" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F20" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G20" s="57">
         <v>45936.0</v>
       </c>
-      <c r="H19" s="56" t="s">
+      <c r="H20" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60" t="s">
+      <c r="I20" s="58">
+        <f>SUM(I22:I27)</f>
+        <v>6.75</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C21" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D21" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E21" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G21" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="I21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="168" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="66">
-        <v>45930.0</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
     </row>
     <row r="22">
       <c r="A22" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="B22" s="169" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="B22" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="170">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="171">
+      <c r="C22" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="66">
         <v>45930.0</v>
       </c>
       <c r="E22" s="65" t="s">
@@ -38168,7 +38195,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="65">
-        <v>0.25</v>
+        <v>2.0</v>
       </c>
       <c r="J22" s="68"/>
       <c r="K22" s="68"/>
@@ -38196,22 +38223,22 @@
     </row>
     <row r="23">
       <c r="A23" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="B23" s="172" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="173">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="174">
+      <c r="C23" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="171">
         <v>45930.0</v>
       </c>
       <c r="E23" s="65" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G23" s="67" t="s">
         <v>36</v>
@@ -38220,7 +38247,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="65">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
@@ -38247,122 +38274,124 @@
       <c r="AF23" s="68"/>
     </row>
     <row r="24">
-      <c r="A24" s="175">
+      <c r="A24" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="B24" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="174">
+        <v>45930.0</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="175">
         <v>4.0</v>
       </c>
-      <c r="B24" s="169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B25" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="170">
         <v>3.0</v>
       </c>
-      <c r="D24" s="171">
+      <c r="D25" s="171">
         <v>45930.0</v>
       </c>
-      <c r="E24" s="173" t="s">
+      <c r="E25" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="173" t="s">
+      <c r="F25" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="176" t="s">
+      <c r="G25" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="177" t="s">
+      <c r="H25" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="173">
+      <c r="I25" s="173">
         <v>1.0</v>
       </c>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="178"/>
-      <c r="X24" s="178"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="178"/>
-      <c r="AB24" s="178"/>
-      <c r="AC24" s="178"/>
-      <c r="AD24" s="178"/>
-      <c r="AE24" s="178"/>
-      <c r="AF24" s="178"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="B25" s="172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="173">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="174">
-        <v>45930.0</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="178"/>
+      <c r="AF25" s="178"/>
     </row>
     <row r="26">
       <c r="A26" s="60">
-        <v>6.0</v>
-      </c>
-      <c r="B26" s="169" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B26" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="170">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="171"/>
+      <c r="C26" s="173">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="174">
+        <v>45930.0</v>
+      </c>
       <c r="E26" s="65" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="F26" s="65" t="s">
         <v>16</v>
@@ -38371,9 +38400,11 @@
         <v>36</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="65"/>
+        <v>17</v>
+      </c>
+      <c r="I26" s="65">
+        <v>2.0</v>
+      </c>
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
       <c r="L26" s="68"/>
@@ -38399,1168 +38430,1228 @@
       <c r="AF26" s="68"/>
     </row>
     <row r="27">
-      <c r="A27" s="29"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
+      <c r="A27" s="60">
+        <v>6.0</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="170">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="171"/>
+      <c r="E27" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="68"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="68"/>
+      <c r="AB27" s="68"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="68"/>
+      <c r="AE27" s="68"/>
+      <c r="AF27" s="68"/>
     </row>
     <row r="28">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="72" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D29" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F29" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G29" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="73" t="s">
+      <c r="H29" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="72" t="s">
+      <c r="I29" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="72"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-    </row>
-    <row r="29" ht="53.25" customHeight="1">
-      <c r="A29" s="74" t="s">
+      <c r="J29" s="72"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+    </row>
+    <row r="30" ht="53.25" customHeight="1">
+      <c r="A30" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="180" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="76" t="s">
+      <c r="B30" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="77">
+        <v>8.0</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="79">
+        <v>45936.0</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="78"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="81"/>
+      <c r="B31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="77">
+      <c r="C32" s="182">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="86">
+        <v>45931.0</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="183">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="77">
+        <v>2.0</v>
+      </c>
+      <c r="D33" s="86">
+        <v>45935.0</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="89"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="72"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+    </row>
+    <row r="35" ht="53.25" customHeight="1">
+      <c r="A35" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="97">
+        <v>8.0</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="99">
+        <v>45936.0</v>
+      </c>
+      <c r="H35" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="98"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="101"/>
+      <c r="B36" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="84"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="84"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="101">
+        <v>1.0</v>
+      </c>
+      <c r="B37" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="106"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="106"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="88"/>
+      <c r="AA37" s="88"/>
+      <c r="AB37" s="88"/>
+      <c r="AC37" s="88"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="88"/>
+      <c r="AF37" s="88"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="29"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="187"/>
+      <c r="S38" s="187"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="187"/>
+      <c r="V38" s="187"/>
+      <c r="W38" s="187"/>
+      <c r="X38" s="187"/>
+      <c r="Y38" s="187"/>
+      <c r="Z38" s="187"/>
+      <c r="AA38" s="187"/>
+      <c r="AB38" s="187"/>
+      <c r="AC38" s="187"/>
+      <c r="AD38" s="187"/>
+      <c r="AE38" s="187"/>
+      <c r="AF38" s="187"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="110"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="91"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+    </row>
+    <row r="40" ht="53.25" customHeight="1">
+      <c r="A40" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="118">
+        <v>8.0</v>
+      </c>
+      <c r="E40" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="120">
+        <v>45936.0</v>
+      </c>
+      <c r="H40" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="119"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="100"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="122"/>
+      <c r="B41" s="122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="104"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="122">
+        <v>1.0</v>
+      </c>
+      <c r="B42" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="127">
+        <v>3.0</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="127"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="108"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="108"/>
+      <c r="AE42" s="108"/>
+      <c r="AF42" s="108"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="122">
+        <v>2.0</v>
+      </c>
+      <c r="B43" s="189" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="132">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="190">
+        <v>45934.0</v>
+      </c>
+      <c r="E43" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="191">
+        <v>2.0</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="122">
+        <v>3.0</v>
+      </c>
+      <c r="B44" s="189" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="132">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="190">
+        <v>45934.0</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="192">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="112"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="111"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="111"/>
+      <c r="X44" s="111"/>
+      <c r="Y44" s="111"/>
+      <c r="Z44" s="111"/>
+      <c r="AA44" s="111"/>
+      <c r="AB44" s="111"/>
+      <c r="AC44" s="111"/>
+      <c r="AD44" s="111"/>
+      <c r="AE44" s="111"/>
+      <c r="AF44" s="111"/>
+    </row>
+    <row r="45" ht="53.25" customHeight="1">
+      <c r="A45" s="122">
+        <v>4.0</v>
+      </c>
+      <c r="B45" s="189" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="132">
+        <v>1.0</v>
+      </c>
+      <c r="D45" s="193"/>
+      <c r="E45" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
+      <c r="V45" s="121"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="Z45" s="121"/>
+      <c r="AA45" s="121"/>
+      <c r="AB45" s="121"/>
+      <c r="AC45" s="121"/>
+      <c r="AD45" s="121"/>
+      <c r="AE45" s="121"/>
+      <c r="AF45" s="121"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="139"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="141" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="125"/>
+      <c r="AB46" s="125"/>
+      <c r="AC46" s="125"/>
+      <c r="AD46" s="125"/>
+      <c r="AE46" s="125"/>
+      <c r="AF46" s="125"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="146">
         <v>13.0</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E47" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F47" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="79">
+      <c r="G47" s="148">
         <v>45936.0</v>
       </c>
-      <c r="H29" s="78" t="s">
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="130"/>
+      <c r="P47" s="130"/>
+      <c r="Q47" s="130"/>
+      <c r="R47" s="130"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="130"/>
+      <c r="U47" s="130"/>
+      <c r="V47" s="130"/>
+      <c r="W47" s="130"/>
+      <c r="X47" s="130"/>
+      <c r="Y47" s="130"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="130"/>
+      <c r="AB47" s="130"/>
+      <c r="AC47" s="130"/>
+      <c r="AD47" s="130"/>
+      <c r="AE47" s="130"/>
+      <c r="AF47" s="130"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="150"/>
+      <c r="B48" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="151" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="31"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="150">
+        <v>1.0</v>
+      </c>
+      <c r="B49" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="155">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="156"/>
+      <c r="E49" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="78"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="B31" s="181" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="77">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="87" t="s">
+      <c r="I49" s="155"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="195"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="150">
+        <v>2.0</v>
+      </c>
+      <c r="B50" s="196" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="159">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="160"/>
+      <c r="E50" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="78" t="s">
+      <c r="G50" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="29"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="70"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="72"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-    </row>
-    <row r="34" ht="53.25" customHeight="1">
-      <c r="A34" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="182" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="77">
-        <v>8.0</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="78" t="s">
+      <c r="I50" s="160"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
+      <c r="O50" s="157"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="157"/>
+      <c r="R50" s="157"/>
+      <c r="S50" s="157"/>
+      <c r="T50" s="157"/>
+      <c r="U50" s="157"/>
+      <c r="V50" s="157"/>
+      <c r="W50" s="157"/>
+      <c r="X50" s="157"/>
+      <c r="Y50" s="157"/>
+      <c r="Z50" s="157"/>
+      <c r="AA50" s="157"/>
+      <c r="AB50" s="157"/>
+      <c r="AC50" s="157"/>
+      <c r="AD50" s="157"/>
+      <c r="AE50" s="157"/>
+      <c r="AF50" s="157"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="150">
+        <v>3.0</v>
+      </c>
+      <c r="B51" s="196" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="159">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="160"/>
+      <c r="E51" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="79">
-        <v>45936.0</v>
-      </c>
-      <c r="H34" s="78" t="s">
+      <c r="G51" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="84"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="84"/>
-      <c r="V35" s="84"/>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="81">
-        <v>1.0</v>
-      </c>
-      <c r="B36" s="181" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="77">
+      <c r="I51" s="160"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="197"/>
+      <c r="L51" s="197"/>
+      <c r="M51" s="197"/>
+      <c r="N51" s="197"/>
+      <c r="O51" s="197"/>
+      <c r="P51" s="197"/>
+      <c r="Q51" s="197"/>
+      <c r="R51" s="197"/>
+      <c r="S51" s="197"/>
+      <c r="T51" s="197"/>
+      <c r="U51" s="197"/>
+      <c r="V51" s="197"/>
+      <c r="W51" s="197"/>
+      <c r="X51" s="197"/>
+      <c r="Y51" s="197"/>
+      <c r="Z51" s="197"/>
+      <c r="AA51" s="197"/>
+      <c r="AB51" s="197"/>
+      <c r="AC51" s="197"/>
+      <c r="AD51" s="197"/>
+      <c r="AE51" s="197"/>
+      <c r="AF51" s="197"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="150">
+        <v>4.0</v>
+      </c>
+      <c r="B52" s="196" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="159">
         <v>2.0</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="78" t="s">
+      <c r="D52" s="160"/>
+      <c r="E52" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="87"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="88"/>
-      <c r="Z36" s="88"/>
-      <c r="AA36" s="88"/>
-      <c r="AB36" s="88"/>
-      <c r="AC36" s="88"/>
-      <c r="AD36" s="88"/>
-      <c r="AE36" s="88"/>
-      <c r="AF36" s="88"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="183"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
-      <c r="S37" s="184"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="184"/>
-      <c r="V37" s="184"/>
-      <c r="W37" s="184"/>
-      <c r="X37" s="184"/>
-      <c r="Y37" s="184"/>
-      <c r="Z37" s="184"/>
-      <c r="AA37" s="184"/>
-      <c r="AB37" s="184"/>
-      <c r="AC37" s="184"/>
-      <c r="AD37" s="184"/>
-      <c r="AE37" s="184"/>
-      <c r="AF37" s="184"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="89"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-    </row>
-    <row r="39" ht="53.25" customHeight="1">
-      <c r="A39" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="97">
-        <v>8.0</v>
-      </c>
-      <c r="E39" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="99">
-        <v>45936.0</v>
-      </c>
-      <c r="H39" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="98"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="100"/>
-      <c r="V39" s="100"/>
-      <c r="W39" s="100"/>
-      <c r="X39" s="100"/>
-      <c r="Y39" s="100"/>
-      <c r="Z39" s="100"/>
-      <c r="AA39" s="100"/>
-      <c r="AB39" s="100"/>
-      <c r="AC39" s="100"/>
-      <c r="AD39" s="100"/>
-      <c r="AE39" s="100"/>
-      <c r="AF39" s="100"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="104"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="104"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="101">
-        <v>1.0</v>
-      </c>
-      <c r="B41" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="106" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="108"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="108"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="108"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="108"/>
-      <c r="AF41" s="108"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="29"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="110"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="112"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="111"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="111"/>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="111"/>
-      <c r="AE43" s="111"/>
-      <c r="AF43" s="111"/>
-    </row>
-    <row r="44" ht="53.25" customHeight="1">
-      <c r="A44" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="188" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="118">
-        <v>8.0</v>
-      </c>
-      <c r="E44" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="120">
-        <v>45936.0</v>
-      </c>
-      <c r="H44" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" s="119"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="121"/>
-      <c r="W44" s="121"/>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="121"/>
-      <c r="AB44" s="121"/>
-      <c r="AC44" s="121"/>
-      <c r="AD44" s="121"/>
-      <c r="AE44" s="121"/>
-      <c r="AF44" s="121"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="122"/>
-      <c r="B45" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="123" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="125"/>
-      <c r="S45" s="125"/>
-      <c r="T45" s="125"/>
-      <c r="U45" s="125"/>
-      <c r="V45" s="125"/>
-      <c r="W45" s="125"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="125"/>
-      <c r="AB45" s="125"/>
-      <c r="AC45" s="125"/>
-      <c r="AD45" s="125"/>
-      <c r="AE45" s="125"/>
-      <c r="AF45" s="125"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="122">
-        <v>1.0</v>
-      </c>
-      <c r="B46" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="127">
-        <v>3.0</v>
-      </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="127"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="130"/>
-      <c r="Q46" s="130"/>
-      <c r="R46" s="130"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="130"/>
-      <c r="U46" s="130"/>
-      <c r="V46" s="130"/>
-      <c r="W46" s="130"/>
-      <c r="X46" s="130"/>
-      <c r="Y46" s="130"/>
-      <c r="Z46" s="130"/>
-      <c r="AA46" s="130"/>
-      <c r="AB46" s="130"/>
-      <c r="AC46" s="130"/>
-      <c r="AD46" s="130"/>
-      <c r="AE46" s="130"/>
-      <c r="AF46" s="130"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="122">
-        <v>2.0</v>
-      </c>
-      <c r="B47" s="189" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="132">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="190"/>
-      <c r="E47" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="122">
-        <v>3.0</v>
-      </c>
-      <c r="B48" s="189" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="132">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="190"/>
-      <c r="E48" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="129" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="152"/>
-      <c r="K48" s="191"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="189"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="157"/>
-      <c r="P49" s="157"/>
-      <c r="Q49" s="157"/>
-      <c r="R49" s="157"/>
-      <c r="S49" s="157"/>
-      <c r="T49" s="157"/>
-      <c r="U49" s="157"/>
-      <c r="V49" s="157"/>
-      <c r="W49" s="157"/>
-      <c r="X49" s="157"/>
-      <c r="Y49" s="157"/>
-      <c r="Z49" s="157"/>
-      <c r="AA49" s="157"/>
-      <c r="AB49" s="157"/>
-      <c r="AC49" s="157"/>
-      <c r="AD49" s="157"/>
-      <c r="AE49" s="157"/>
-      <c r="AF49" s="157"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="139"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="141" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="141" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="141" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="141" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="192"/>
-      <c r="K50" s="192"/>
-      <c r="L50" s="192"/>
-      <c r="M50" s="192"/>
-      <c r="N50" s="192"/>
-      <c r="O50" s="192"/>
-      <c r="P50" s="192"/>
-      <c r="Q50" s="192"/>
-      <c r="R50" s="192"/>
-      <c r="S50" s="192"/>
-      <c r="T50" s="192"/>
-      <c r="U50" s="192"/>
-      <c r="V50" s="192"/>
-      <c r="W50" s="192"/>
-      <c r="X50" s="192"/>
-      <c r="Y50" s="192"/>
-      <c r="Z50" s="192"/>
-      <c r="AA50" s="192"/>
-      <c r="AB50" s="192"/>
-      <c r="AC50" s="192"/>
-      <c r="AD50" s="192"/>
-      <c r="AE50" s="192"/>
-      <c r="AF50" s="192"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="144" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="146">
-        <v>13.0</v>
-      </c>
-      <c r="E51" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="148">
-        <v>45936.0</v>
-      </c>
-      <c r="H51" s="147"/>
-      <c r="I51" s="147"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="150"/>
-      <c r="B52" s="150" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="151" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="151" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="152" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="151" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="152" t="s">
-        <v>24</v>
-      </c>
+      <c r="I52" s="160"/>
       <c r="J52" s="31"/>
       <c r="K52" s="31"/>
       <c r="L52" s="31"/>
@@ -39587,15 +39678,15 @@
     </row>
     <row r="53">
       <c r="A53" s="150">
-        <v>1.0</v>
-      </c>
-      <c r="B53" s="193" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="155">
+        <v>5.0</v>
+      </c>
+      <c r="B53" s="196" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="159">
         <v>2.0</v>
       </c>
-      <c r="D53" s="156"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="155" t="s">
         <v>69</v>
       </c>
@@ -39608,7 +39699,7 @@
       <c r="H53" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="155"/>
+      <c r="I53" s="160"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
       <c r="L53" s="31"/>
@@ -39635,13 +39726,13 @@
     </row>
     <row r="54">
       <c r="A54" s="150">
-        <v>2.0</v>
-      </c>
-      <c r="B54" s="194" t="s">
-        <v>105</v>
+        <v>6.0</v>
+      </c>
+      <c r="B54" s="196" t="s">
+        <v>112</v>
       </c>
       <c r="C54" s="159">
-        <v>1.5</v>
+        <v>1.0</v>
       </c>
       <c r="D54" s="160"/>
       <c r="E54" s="155" t="s">
@@ -39682,29 +39773,6 @@
       <c r="AF54" s="31"/>
     </row>
     <row r="55">
-      <c r="A55" s="150">
-        <v>3.0</v>
-      </c>
-      <c r="B55" s="194" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="159">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="160"/>
-      <c r="E55" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" s="160"/>
       <c r="J55" s="31"/>
       <c r="K55" s="31"/>
       <c r="L55" s="31"/>
@@ -39730,29 +39798,6 @@
       <c r="AF55" s="31"/>
     </row>
     <row r="56">
-      <c r="A56" s="150">
-        <v>4.0</v>
-      </c>
-      <c r="B56" s="194" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="159">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="160"/>
-      <c r="E56" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" s="160"/>
       <c r="J56" s="31"/>
       <c r="K56" s="31"/>
       <c r="L56" s="31"/>
@@ -39778,29 +39823,6 @@
       <c r="AF56" s="31"/>
     </row>
     <row r="57">
-      <c r="A57" s="150">
-        <v>5.0</v>
-      </c>
-      <c r="B57" s="194" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="159">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="160"/>
-      <c r="E57" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" s="160"/>
       <c r="J57" s="31"/>
       <c r="K57" s="31"/>
       <c r="L57" s="31"/>
@@ -39826,29 +39848,6 @@
       <c r="AF57" s="31"/>
     </row>
     <row r="58">
-      <c r="A58" s="150">
-        <v>6.0</v>
-      </c>
-      <c r="B58" s="194" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="159">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="160"/>
-      <c r="E58" s="155" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" s="147" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" s="160"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
       <c r="L58" s="31"/>
@@ -39874,15 +39873,6 @@
       <c r="AF58" s="31"/>
     </row>
     <row r="59">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
       <c r="J59" s="31"/>
       <c r="K59" s="31"/>
       <c r="L59" s="31"/>
@@ -71493,37 +71483,71 @@
       <c r="AE988" s="31"/>
       <c r="AF988" s="31"/>
     </row>
+    <row r="989">
+      <c r="A989" s="29"/>
+      <c r="B989" s="31"/>
+      <c r="C989" s="31"/>
+      <c r="D989" s="31"/>
+      <c r="E989" s="31"/>
+      <c r="F989" s="31"/>
+      <c r="G989" s="31"/>
+      <c r="H989" s="31"/>
+      <c r="I989" s="31"/>
+      <c r="J989" s="31"/>
+      <c r="K989" s="31"/>
+      <c r="L989" s="31"/>
+      <c r="M989" s="31"/>
+      <c r="N989" s="31"/>
+      <c r="O989" s="31"/>
+      <c r="P989" s="31"/>
+      <c r="Q989" s="31"/>
+      <c r="R989" s="31"/>
+      <c r="S989" s="31"/>
+      <c r="T989" s="31"/>
+      <c r="U989" s="31"/>
+      <c r="V989" s="31"/>
+      <c r="W989" s="31"/>
+      <c r="X989" s="31"/>
+      <c r="Y989" s="31"/>
+      <c r="Z989" s="31"/>
+      <c r="AA989" s="31"/>
+      <c r="AB989" s="31"/>
+      <c r="AC989" s="31"/>
+      <c r="AD989" s="31"/>
+      <c r="AE989" s="31"/>
+      <c r="AF989" s="31"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F19 F29 F34 F39 F44 F51">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F20 F30 F35 F40 F47">
       <formula1>"Bajo,Medio,Alto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8 E19 E29 E34 E39 E44 E51">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9 E20 E30 E35 E40 E47">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F8 F11:F16 F21:F26 F31 F36 F41 F46:F48 F53:F58">
+    <dataValidation type="list" allowBlank="1" sqref="F9 F12:F17 F22:F27 F32:F33 F37 F42:F45 F49:F54">
       <formula1>"Bajo,Medio,Alto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8 H11:H16 H19 H21:H26 H29 H31 H34 H36 H39 H41 H44 H46:H48 H51 H53:H58">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9 H12:H17 H20 H22:H27 H30 H32:H33 H35 H37 H40 H42:H45 H47 H49:H54">
       <formula1>"✅,❌"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E11:E16 E21:E26 E31 E36 E41 E46:E48 E53:E58">
+    <dataValidation type="list" allowBlank="1" sqref="E12:E17 E22:E27 E32:E33 E37 E42:E45 E49:E54">
       <formula1>"Not started,In progress,Blocked,Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G11"/>
-    <hyperlink r:id="rId2" ref="G12"/>
-    <hyperlink r:id="rId3" ref="G13"/>
-    <hyperlink r:id="rId4" ref="G14"/>
-    <hyperlink r:id="rId5" ref="G15"/>
-    <hyperlink r:id="rId6" ref="G16"/>
-    <hyperlink r:id="rId7" ref="G21"/>
-    <hyperlink r:id="rId8" ref="G22"/>
-    <hyperlink r:id="rId9" ref="G23"/>
-    <hyperlink r:id="rId10" ref="G24"/>
-    <hyperlink r:id="rId11" ref="G25"/>
-    <hyperlink r:id="rId12" ref="G26"/>
+    <hyperlink r:id="rId1" ref="G12"/>
+    <hyperlink r:id="rId2" ref="G13"/>
+    <hyperlink r:id="rId3" ref="G14"/>
+    <hyperlink r:id="rId4" ref="G15"/>
+    <hyperlink r:id="rId5" ref="G16"/>
+    <hyperlink r:id="rId6" ref="G17"/>
+    <hyperlink r:id="rId7" ref="G22"/>
+    <hyperlink r:id="rId8" ref="G23"/>
+    <hyperlink r:id="rId9" ref="G24"/>
+    <hyperlink r:id="rId10" ref="G25"/>
+    <hyperlink r:id="rId11" ref="G26"/>
+    <hyperlink r:id="rId12" ref="G27"/>
   </hyperlinks>
   <drawing r:id="rId13"/>
   <tableParts count="31">
@@ -71586,2955 +71610,2955 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
     </row>
     <row r="2">
-      <c r="A2" s="198"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
     </row>
     <row r="3">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="201" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="201" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="201" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="201" t="s">
+      <c r="B3" s="204" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="201" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="201" t="s">
+      <c r="F3" s="204" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="202" t="s">
+      <c r="I3" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
     </row>
     <row r="4">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206" t="s">
+      <c r="C4" s="208"/>
+      <c r="D4" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="208" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="207" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="205"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="210"/>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
+      <c r="F4" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="210" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="208"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="213"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="213"/>
+      <c r="T4" s="213"/>
+      <c r="U4" s="213"/>
+      <c r="V4" s="213"/>
+      <c r="W4" s="213"/>
+      <c r="X4" s="213"/>
+      <c r="Y4" s="213"/>
     </row>
     <row r="5">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="214" t="s">
+      <c r="C5" s="216"/>
+      <c r="D5" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="215" t="s">
+      <c r="E5" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="216" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="215" t="s">
+      <c r="F5" s="219" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="213"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="218"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="218"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="218"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="221"/>
+      <c r="R5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="221"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
     </row>
     <row r="6">
-      <c r="A6" s="203" t="s">
+      <c r="A6" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206" t="s">
+      <c r="C6" s="208"/>
+      <c r="D6" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="208" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="207" t="s">
+      <c r="F6" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="205"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="210"/>
-      <c r="R6" s="210"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="210"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="210"/>
-      <c r="W6" s="210"/>
-      <c r="X6" s="210"/>
-      <c r="Y6" s="210"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="213"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="213"/>
+      <c r="N6" s="213"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="213"/>
+      <c r="Q6" s="213"/>
+      <c r="R6" s="213"/>
+      <c r="S6" s="213"/>
+      <c r="T6" s="213"/>
+      <c r="U6" s="213"/>
+      <c r="V6" s="213"/>
+      <c r="W6" s="213"/>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="213"/>
     </row>
     <row r="7">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="215" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="216"/>
+      <c r="D7" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="215" t="s">
+      <c r="E7" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="216" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="215" t="s">
+      <c r="F7" s="219" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="219" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="210"/>
-      <c r="R7" s="210"/>
-      <c r="S7" s="210"/>
-      <c r="T7" s="210"/>
-      <c r="U7" s="210"/>
-      <c r="V7" s="210"/>
-      <c r="W7" s="210"/>
-      <c r="X7" s="210"/>
-      <c r="Y7" s="210"/>
+      <c r="H7" s="216"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="222" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="213"/>
+      <c r="U7" s="213"/>
+      <c r="V7" s="213"/>
+      <c r="W7" s="213"/>
+      <c r="X7" s="213"/>
+      <c r="Y7" s="213"/>
     </row>
     <row r="8">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="224" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="206" t="s">
+      <c r="D8" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="207" t="s">
+      <c r="E8" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="208" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="207" t="s">
+      <c r="F8" s="211" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="222" t="s">
-        <v>117</v>
+      <c r="I8" s="225" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="223" t="s">
+      <c r="A9" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="224" t="s">
+      <c r="B9" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="214" t="s">
+      <c r="D9" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="215" t="s">
+      <c r="E9" s="218" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="216" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="215" t="s">
+      <c r="F9" s="219" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="215" t="s">
+      <c r="H9" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="225" t="s">
+      <c r="I9" s="228" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="207" t="s">
+      <c r="C10" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="206" t="s">
+      <c r="D10" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="207" t="s">
+      <c r="E10" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="208" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="207" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="205"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="210"/>
-      <c r="Y10" s="210"/>
+      <c r="F10" s="211" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="210" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="208"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="213"/>
+      <c r="S10" s="213"/>
+      <c r="T10" s="213"/>
+      <c r="U10" s="213"/>
+      <c r="V10" s="213"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="213"/>
+      <c r="Y10" s="213"/>
     </row>
     <row r="11">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="227" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="228" t="s">
+      <c r="B11" s="230" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="229" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="228" t="s">
+      <c r="D11" s="232" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="230" t="s">
+      <c r="F11" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="228" t="s">
+      <c r="G11" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="231" t="s">
+      <c r="H11" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="232" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="210"/>
-      <c r="S11" s="210"/>
-      <c r="T11" s="210"/>
-      <c r="U11" s="210"/>
-      <c r="V11" s="210"/>
-      <c r="W11" s="210"/>
-      <c r="X11" s="210"/>
-      <c r="Y11" s="210"/>
+      <c r="I11" s="235" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="213"/>
+      <c r="T11" s="213"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="213"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="213"/>
+      <c r="Y11" s="213"/>
     </row>
     <row r="12">
-      <c r="A12" s="233" t="s">
+      <c r="A12" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="207" t="s">
+      <c r="C12" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="235" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="207" t="s">
+      <c r="D12" s="238" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="236" t="s">
+      <c r="F12" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="207" t="s">
+      <c r="G12" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="207" t="s">
+      <c r="H12" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="237" t="s">
+      <c r="I12" s="240" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
+      <c r="V12" s="213"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="213"/>
+      <c r="Y12" s="213"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="230" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="232" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="218" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="233" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="218" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="235" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="237" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="210"/>
-      <c r="S12" s="210"/>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="210"/>
-      <c r="Y12" s="210"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="226" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="227" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="215" t="s">
+      <c r="E14" s="210" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="210" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="210" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="240" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="213"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="213"/>
+      <c r="M14" s="213"/>
+      <c r="N14" s="213"/>
+      <c r="O14" s="213"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="213"/>
+      <c r="S14" s="213"/>
+      <c r="T14" s="213"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="213"/>
+      <c r="W14" s="213"/>
+      <c r="X14" s="213"/>
+      <c r="Y14" s="213"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="229" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="215" t="s">
+      <c r="D15" s="217" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="230" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="215" t="s">
+      <c r="F15" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="215" t="s">
+      <c r="H15" s="216"/>
+      <c r="I15" s="220"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="243" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="244" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="209" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="210" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="209" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="210" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="208"/>
+      <c r="I16" s="212"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="218" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="217" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="218" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="218" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="216"/>
+      <c r="I17" s="220"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="245" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="246" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="248" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="249" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="247" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="232" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="234" t="s">
+      <c r="I18" s="250" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="251" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="254" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="255" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="253" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="256" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="245" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="248" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="249" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="247" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="247" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="250" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="251" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="252" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="254" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="253" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="255" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="253" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="256" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="245" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="246" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="248" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="249" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="247" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="247" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="250" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="251" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="207" t="s">
+      <c r="C23" s="253" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="235" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="207" t="s">
+      <c r="D23" s="254" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="236" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="207" t="s">
+      <c r="F23" s="255" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="253" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="207" t="s">
+      <c r="H23" s="253" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="256" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="245" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="246" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="248" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="249" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="247" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="237" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="210"/>
-      <c r="K14" s="210"/>
-      <c r="L14" s="210"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="210"/>
-      <c r="O14" s="210"/>
-      <c r="P14" s="210"/>
-      <c r="Q14" s="210"/>
-      <c r="R14" s="210"/>
-      <c r="S14" s="210"/>
-      <c r="T14" s="210"/>
-      <c r="U14" s="210"/>
-      <c r="V14" s="210"/>
-      <c r="W14" s="210"/>
-      <c r="X14" s="210"/>
-      <c r="Y14" s="210"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="238" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="239" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="215" t="s">
+      <c r="I24" s="250"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="257" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="258" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="214" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="215" t="s">
+      <c r="D25" s="217" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="214" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="215" t="s">
+      <c r="F25" s="219" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="213"/>
-      <c r="I15" s="217"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="240" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="241" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="207" t="s">
+      <c r="H25" s="216"/>
+      <c r="I25" s="228" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="259" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="260" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="206" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="207" t="s">
+      <c r="D26" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="206" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="207" t="s">
+      <c r="F26" s="211" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="205"/>
-      <c r="I16" s="209"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="238" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="239" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="214" t="s">
+      <c r="H26" s="208"/>
+      <c r="I26" s="225" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="215" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="214" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="215" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="213"/>
-      <c r="I17" s="217"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="242" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="243" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="245" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="244" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="244" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="244" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="247" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="248" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="249" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="250" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="251" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="250" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="253" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="242" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="243" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="245" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="244" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="244" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="244" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="247" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="248" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="249" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="250" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="251" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="250" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="250" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="253" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="242" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="243" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="245" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="244" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="244" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="244" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="247" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="248" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="249" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="250" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="251" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="250" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="250" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="250" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="253" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="242" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="243" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="244" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="245" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="244" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="244" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="244" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="247"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="254" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="255" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="215" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="214" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="215" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="216" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="215" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="213"/>
-      <c r="I25" s="225" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="256" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="257" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="207" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="206" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="207" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="208" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="207" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="205"/>
-      <c r="I26" s="222" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="258"/>
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="259"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="260"/>
+      <c r="A27" s="261"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
     </row>
     <row r="28">
-      <c r="A28" s="261"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="263"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="209"/>
+      <c r="A28" s="264"/>
+      <c r="B28" s="265"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="212"/>
     </row>
     <row r="29">
-      <c r="A29" s="264"/>
-      <c r="B29" s="265"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="265"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="217"/>
+      <c r="A29" s="267"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="268"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="220"/>
     </row>
     <row r="30">
-      <c r="A30" s="261"/>
-      <c r="B30" s="262"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="263"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="209"/>
+      <c r="A30" s="264"/>
+      <c r="B30" s="265"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31">
-      <c r="A31" s="264"/>
-      <c r="B31" s="265"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="265"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="217"/>
+      <c r="A31" s="267"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="268"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="220"/>
     </row>
     <row r="32">
-      <c r="A32" s="261"/>
-      <c r="B32" s="262"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="263"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="209"/>
+      <c r="A32" s="264"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="266"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="212"/>
     </row>
     <row r="33">
-      <c r="A33" s="264"/>
-      <c r="B33" s="265"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="266"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="265"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="217"/>
+      <c r="A33" s="267"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="268"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="220"/>
     </row>
     <row r="34">
-      <c r="A34" s="261"/>
-      <c r="B34" s="262"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="209"/>
+      <c r="A34" s="264"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="212"/>
     </row>
     <row r="35">
-      <c r="A35" s="264"/>
-      <c r="B35" s="265"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="265"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="217"/>
+      <c r="A35" s="267"/>
+      <c r="B35" s="268"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="220"/>
     </row>
     <row r="36">
-      <c r="A36" s="261"/>
-      <c r="B36" s="262"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="263"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="262"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="209"/>
+      <c r="A36" s="264"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37">
-      <c r="A37" s="264"/>
-      <c r="B37" s="265"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="265"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="217"/>
+      <c r="A37" s="267"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="268"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="220"/>
     </row>
     <row r="38">
-      <c r="A38" s="261"/>
-      <c r="B38" s="262"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="263"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="262"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="209"/>
+      <c r="A38" s="264"/>
+      <c r="B38" s="265"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="212"/>
     </row>
     <row r="39">
-      <c r="A39" s="264"/>
-      <c r="B39" s="265"/>
-      <c r="C39" s="213"/>
-      <c r="D39" s="266"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="217"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="268"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="268"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="220"/>
     </row>
     <row r="40">
-      <c r="A40" s="261"/>
-      <c r="B40" s="262"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="263"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="262"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="209"/>
+      <c r="A40" s="264"/>
+      <c r="B40" s="265"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="266"/>
+      <c r="E40" s="208"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="208"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41">
-      <c r="A41" s="264"/>
-      <c r="B41" s="265"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="265"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="217"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="268"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="220"/>
     </row>
     <row r="42">
-      <c r="A42" s="261"/>
-      <c r="B42" s="262"/>
-      <c r="C42" s="205"/>
-      <c r="D42" s="263"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="262"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="209"/>
+      <c r="A42" s="264"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="266"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="265"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="212"/>
     </row>
     <row r="43">
-      <c r="A43" s="264"/>
-      <c r="B43" s="265"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="265"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="217"/>
+      <c r="A43" s="267"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="269"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="268"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="220"/>
     </row>
     <row r="44">
-      <c r="A44" s="261"/>
-      <c r="B44" s="262"/>
-      <c r="C44" s="205"/>
-      <c r="D44" s="263"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="262"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="209"/>
+      <c r="A44" s="264"/>
+      <c r="B44" s="265"/>
+      <c r="C44" s="208"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="208"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="212"/>
     </row>
     <row r="45">
-      <c r="A45" s="264"/>
-      <c r="B45" s="265"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="266"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="217"/>
+      <c r="A45" s="267"/>
+      <c r="B45" s="268"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="269"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="268"/>
+      <c r="G45" s="216"/>
+      <c r="H45" s="216"/>
+      <c r="I45" s="220"/>
     </row>
     <row r="46">
-      <c r="A46" s="261"/>
-      <c r="B46" s="262"/>
-      <c r="C46" s="205"/>
-      <c r="D46" s="263"/>
-      <c r="E46" s="205"/>
-      <c r="F46" s="262"/>
-      <c r="G46" s="205"/>
-      <c r="H46" s="205"/>
-      <c r="I46" s="209"/>
+      <c r="A46" s="264"/>
+      <c r="B46" s="265"/>
+      <c r="C46" s="208"/>
+      <c r="D46" s="266"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="208"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="212"/>
     </row>
     <row r="47">
-      <c r="A47" s="264"/>
-      <c r="B47" s="265"/>
-      <c r="C47" s="213"/>
-      <c r="D47" s="266"/>
-      <c r="E47" s="213"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="213"/>
-      <c r="H47" s="213"/>
-      <c r="I47" s="217"/>
+      <c r="A47" s="267"/>
+      <c r="B47" s="268"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="268"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="220"/>
     </row>
     <row r="48">
-      <c r="A48" s="261"/>
-      <c r="B48" s="262"/>
-      <c r="C48" s="205"/>
-      <c r="D48" s="263"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="262"/>
-      <c r="G48" s="205"/>
-      <c r="H48" s="205"/>
-      <c r="I48" s="209"/>
+      <c r="A48" s="264"/>
+      <c r="B48" s="265"/>
+      <c r="C48" s="208"/>
+      <c r="D48" s="266"/>
+      <c r="E48" s="208"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="208"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="212"/>
     </row>
     <row r="49">
-      <c r="A49" s="264"/>
-      <c r="B49" s="265"/>
-      <c r="C49" s="213"/>
-      <c r="D49" s="266"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="265"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="217"/>
+      <c r="A49" s="267"/>
+      <c r="B49" s="268"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="269"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="268"/>
+      <c r="G49" s="216"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="220"/>
     </row>
     <row r="50">
-      <c r="A50" s="261"/>
-      <c r="B50" s="262"/>
-      <c r="C50" s="205"/>
-      <c r="D50" s="263"/>
-      <c r="E50" s="205"/>
-      <c r="F50" s="262"/>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
-      <c r="I50" s="209"/>
+      <c r="A50" s="264"/>
+      <c r="B50" s="265"/>
+      <c r="C50" s="208"/>
+      <c r="D50" s="266"/>
+      <c r="E50" s="208"/>
+      <c r="F50" s="265"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="212"/>
     </row>
     <row r="51">
-      <c r="A51" s="264"/>
-      <c r="B51" s="265"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="266"/>
-      <c r="E51" s="213"/>
-      <c r="F51" s="265"/>
-      <c r="G51" s="213"/>
-      <c r="H51" s="213"/>
-      <c r="I51" s="217"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="268"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="269"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="268"/>
+      <c r="G51" s="216"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="220"/>
     </row>
     <row r="52">
-      <c r="A52" s="261"/>
-      <c r="B52" s="262"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="263"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="262"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
-      <c r="I52" s="209"/>
+      <c r="A52" s="264"/>
+      <c r="B52" s="265"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="266"/>
+      <c r="E52" s="208"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="208"/>
+      <c r="I52" s="212"/>
     </row>
     <row r="53">
-      <c r="A53" s="264"/>
-      <c r="B53" s="265"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="266"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="265"/>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="217"/>
+      <c r="A53" s="267"/>
+      <c r="B53" s="268"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="269"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="268"/>
+      <c r="G53" s="216"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="220"/>
     </row>
     <row r="54">
-      <c r="A54" s="261"/>
-      <c r="B54" s="262"/>
-      <c r="C54" s="205"/>
-      <c r="D54" s="263"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="262"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="205"/>
-      <c r="I54" s="209"/>
+      <c r="A54" s="264"/>
+      <c r="B54" s="265"/>
+      <c r="C54" s="208"/>
+      <c r="D54" s="266"/>
+      <c r="E54" s="208"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="208"/>
+      <c r="H54" s="208"/>
+      <c r="I54" s="212"/>
     </row>
     <row r="55">
-      <c r="A55" s="264"/>
-      <c r="B55" s="265"/>
-      <c r="C55" s="213"/>
-      <c r="D55" s="266"/>
-      <c r="E55" s="213"/>
-      <c r="F55" s="265"/>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="217"/>
+      <c r="A55" s="267"/>
+      <c r="B55" s="268"/>
+      <c r="C55" s="216"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="268"/>
+      <c r="G55" s="216"/>
+      <c r="H55" s="216"/>
+      <c r="I55" s="220"/>
     </row>
     <row r="56">
-      <c r="A56" s="261"/>
-      <c r="B56" s="262"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="263"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="262"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="209"/>
+      <c r="A56" s="264"/>
+      <c r="B56" s="265"/>
+      <c r="C56" s="208"/>
+      <c r="D56" s="266"/>
+      <c r="E56" s="208"/>
+      <c r="F56" s="265"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="208"/>
+      <c r="I56" s="212"/>
     </row>
     <row r="57">
-      <c r="A57" s="264"/>
-      <c r="B57" s="265"/>
-      <c r="C57" s="213"/>
-      <c r="D57" s="266"/>
-      <c r="E57" s="213"/>
-      <c r="F57" s="265"/>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="217"/>
+      <c r="A57" s="267"/>
+      <c r="B57" s="268"/>
+      <c r="C57" s="216"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="268"/>
+      <c r="G57" s="216"/>
+      <c r="H57" s="216"/>
+      <c r="I57" s="220"/>
     </row>
     <row r="58">
-      <c r="A58" s="261"/>
-      <c r="B58" s="262"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="263"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="262"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="209"/>
+      <c r="A58" s="264"/>
+      <c r="B58" s="265"/>
+      <c r="C58" s="208"/>
+      <c r="D58" s="266"/>
+      <c r="E58" s="208"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="208"/>
+      <c r="I58" s="212"/>
     </row>
     <row r="59">
-      <c r="A59" s="264"/>
-      <c r="B59" s="265"/>
-      <c r="C59" s="213"/>
-      <c r="D59" s="266"/>
-      <c r="E59" s="213"/>
-      <c r="F59" s="265"/>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
-      <c r="I59" s="217"/>
+      <c r="A59" s="267"/>
+      <c r="B59" s="268"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="269"/>
+      <c r="E59" s="216"/>
+      <c r="F59" s="268"/>
+      <c r="G59" s="216"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="220"/>
     </row>
     <row r="60">
-      <c r="A60" s="261"/>
-      <c r="B60" s="262"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="263"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="262"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="209"/>
+      <c r="A60" s="264"/>
+      <c r="B60" s="265"/>
+      <c r="C60" s="208"/>
+      <c r="D60" s="266"/>
+      <c r="E60" s="208"/>
+      <c r="F60" s="265"/>
+      <c r="G60" s="208"/>
+      <c r="H60" s="208"/>
+      <c r="I60" s="212"/>
     </row>
     <row r="61">
-      <c r="A61" s="264"/>
-      <c r="B61" s="265"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="266"/>
-      <c r="E61" s="213"/>
-      <c r="F61" s="265"/>
-      <c r="G61" s="213"/>
-      <c r="H61" s="213"/>
-      <c r="I61" s="217"/>
+      <c r="A61" s="267"/>
+      <c r="B61" s="268"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="269"/>
+      <c r="E61" s="216"/>
+      <c r="F61" s="268"/>
+      <c r="G61" s="216"/>
+      <c r="H61" s="216"/>
+      <c r="I61" s="220"/>
     </row>
     <row r="62">
-      <c r="A62" s="261"/>
-      <c r="B62" s="262"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="263"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="262"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="209"/>
+      <c r="A62" s="264"/>
+      <c r="B62" s="265"/>
+      <c r="C62" s="208"/>
+      <c r="D62" s="266"/>
+      <c r="E62" s="208"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="208"/>
+      <c r="H62" s="208"/>
+      <c r="I62" s="212"/>
     </row>
     <row r="63">
-      <c r="A63" s="264"/>
-      <c r="B63" s="265"/>
-      <c r="C63" s="213"/>
-      <c r="D63" s="266"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="265"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="217"/>
+      <c r="A63" s="267"/>
+      <c r="B63" s="268"/>
+      <c r="C63" s="216"/>
+      <c r="D63" s="269"/>
+      <c r="E63" s="216"/>
+      <c r="F63" s="268"/>
+      <c r="G63" s="216"/>
+      <c r="H63" s="216"/>
+      <c r="I63" s="220"/>
     </row>
     <row r="64">
-      <c r="A64" s="261"/>
-      <c r="B64" s="262"/>
-      <c r="C64" s="205"/>
-      <c r="D64" s="263"/>
-      <c r="E64" s="205"/>
-      <c r="F64" s="262"/>
-      <c r="G64" s="205"/>
-      <c r="H64" s="205"/>
-      <c r="I64" s="209"/>
+      <c r="A64" s="264"/>
+      <c r="B64" s="265"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="266"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="208"/>
+      <c r="H64" s="208"/>
+      <c r="I64" s="212"/>
     </row>
     <row r="65">
-      <c r="A65" s="264"/>
-      <c r="B65" s="265"/>
-      <c r="C65" s="213"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="213"/>
-      <c r="F65" s="265"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213"/>
-      <c r="I65" s="217"/>
+      <c r="A65" s="267"/>
+      <c r="B65" s="268"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="269"/>
+      <c r="E65" s="216"/>
+      <c r="F65" s="268"/>
+      <c r="G65" s="216"/>
+      <c r="H65" s="216"/>
+      <c r="I65" s="220"/>
     </row>
     <row r="66">
-      <c r="A66" s="261"/>
-      <c r="B66" s="262"/>
-      <c r="C66" s="205"/>
-      <c r="D66" s="263"/>
-      <c r="E66" s="205"/>
-      <c r="F66" s="262"/>
-      <c r="G66" s="205"/>
-      <c r="H66" s="205"/>
-      <c r="I66" s="209"/>
+      <c r="A66" s="264"/>
+      <c r="B66" s="265"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="266"/>
+      <c r="E66" s="208"/>
+      <c r="F66" s="265"/>
+      <c r="G66" s="208"/>
+      <c r="H66" s="208"/>
+      <c r="I66" s="212"/>
     </row>
     <row r="67">
-      <c r="A67" s="264"/>
-      <c r="B67" s="265"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="266"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="265"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="217"/>
+      <c r="A67" s="267"/>
+      <c r="B67" s="268"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="269"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="268"/>
+      <c r="G67" s="216"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="220"/>
     </row>
     <row r="68">
-      <c r="A68" s="261"/>
-      <c r="B68" s="262"/>
-      <c r="C68" s="205"/>
-      <c r="D68" s="263"/>
-      <c r="E68" s="205"/>
-      <c r="F68" s="262"/>
-      <c r="G68" s="205"/>
-      <c r="H68" s="205"/>
-      <c r="I68" s="209"/>
+      <c r="A68" s="264"/>
+      <c r="B68" s="265"/>
+      <c r="C68" s="208"/>
+      <c r="D68" s="266"/>
+      <c r="E68" s="208"/>
+      <c r="F68" s="265"/>
+      <c r="G68" s="208"/>
+      <c r="H68" s="208"/>
+      <c r="I68" s="212"/>
     </row>
     <row r="69">
-      <c r="A69" s="264"/>
-      <c r="B69" s="265"/>
-      <c r="C69" s="213"/>
-      <c r="D69" s="266"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="265"/>
-      <c r="G69" s="213"/>
-      <c r="H69" s="213"/>
-      <c r="I69" s="217"/>
+      <c r="A69" s="267"/>
+      <c r="B69" s="268"/>
+      <c r="C69" s="216"/>
+      <c r="D69" s="269"/>
+      <c r="E69" s="216"/>
+      <c r="F69" s="268"/>
+      <c r="G69" s="216"/>
+      <c r="H69" s="216"/>
+      <c r="I69" s="220"/>
     </row>
     <row r="70">
-      <c r="A70" s="261"/>
-      <c r="B70" s="262"/>
-      <c r="C70" s="205"/>
-      <c r="D70" s="263"/>
-      <c r="E70" s="205"/>
-      <c r="F70" s="262"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="205"/>
-      <c r="I70" s="209"/>
+      <c r="A70" s="264"/>
+      <c r="B70" s="265"/>
+      <c r="C70" s="208"/>
+      <c r="D70" s="266"/>
+      <c r="E70" s="208"/>
+      <c r="F70" s="265"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="208"/>
+      <c r="I70" s="212"/>
     </row>
     <row r="71">
-      <c r="A71" s="264"/>
-      <c r="B71" s="265"/>
-      <c r="C71" s="213"/>
-      <c r="D71" s="266"/>
-      <c r="E71" s="213"/>
-      <c r="F71" s="265"/>
-      <c r="G71" s="213"/>
-      <c r="H71" s="213"/>
-      <c r="I71" s="217"/>
+      <c r="A71" s="267"/>
+      <c r="B71" s="268"/>
+      <c r="C71" s="216"/>
+      <c r="D71" s="269"/>
+      <c r="E71" s="216"/>
+      <c r="F71" s="268"/>
+      <c r="G71" s="216"/>
+      <c r="H71" s="216"/>
+      <c r="I71" s="220"/>
     </row>
     <row r="72">
-      <c r="A72" s="261"/>
-      <c r="B72" s="262"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="263"/>
-      <c r="E72" s="205"/>
-      <c r="F72" s="262"/>
-      <c r="G72" s="205"/>
-      <c r="H72" s="205"/>
-      <c r="I72" s="209"/>
+      <c r="A72" s="264"/>
+      <c r="B72" s="265"/>
+      <c r="C72" s="208"/>
+      <c r="D72" s="266"/>
+      <c r="E72" s="208"/>
+      <c r="F72" s="265"/>
+      <c r="G72" s="208"/>
+      <c r="H72" s="208"/>
+      <c r="I72" s="212"/>
     </row>
     <row r="73">
-      <c r="A73" s="264"/>
-      <c r="B73" s="265"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="266"/>
-      <c r="E73" s="213"/>
-      <c r="F73" s="265"/>
-      <c r="G73" s="213"/>
-      <c r="H73" s="213"/>
-      <c r="I73" s="217"/>
+      <c r="A73" s="267"/>
+      <c r="B73" s="268"/>
+      <c r="C73" s="216"/>
+      <c r="D73" s="269"/>
+      <c r="E73" s="216"/>
+      <c r="F73" s="268"/>
+      <c r="G73" s="216"/>
+      <c r="H73" s="216"/>
+      <c r="I73" s="220"/>
     </row>
     <row r="74">
-      <c r="A74" s="261"/>
-      <c r="B74" s="262"/>
-      <c r="C74" s="205"/>
-      <c r="D74" s="263"/>
-      <c r="E74" s="205"/>
-      <c r="F74" s="262"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="209"/>
+      <c r="A74" s="264"/>
+      <c r="B74" s="265"/>
+      <c r="C74" s="208"/>
+      <c r="D74" s="266"/>
+      <c r="E74" s="208"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="208"/>
+      <c r="H74" s="208"/>
+      <c r="I74" s="212"/>
     </row>
     <row r="75">
-      <c r="A75" s="264"/>
-      <c r="B75" s="265"/>
-      <c r="C75" s="213"/>
-      <c r="D75" s="266"/>
-      <c r="E75" s="213"/>
-      <c r="F75" s="265"/>
-      <c r="G75" s="213"/>
-      <c r="H75" s="213"/>
-      <c r="I75" s="217"/>
+      <c r="A75" s="267"/>
+      <c r="B75" s="268"/>
+      <c r="C75" s="216"/>
+      <c r="D75" s="269"/>
+      <c r="E75" s="216"/>
+      <c r="F75" s="268"/>
+      <c r="G75" s="216"/>
+      <c r="H75" s="216"/>
+      <c r="I75" s="220"/>
     </row>
     <row r="76">
-      <c r="A76" s="261"/>
-      <c r="B76" s="262"/>
-      <c r="C76" s="205"/>
-      <c r="D76" s="263"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="262"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="205"/>
-      <c r="I76" s="209"/>
+      <c r="A76" s="264"/>
+      <c r="B76" s="265"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="266"/>
+      <c r="E76" s="208"/>
+      <c r="F76" s="265"/>
+      <c r="G76" s="208"/>
+      <c r="H76" s="208"/>
+      <c r="I76" s="212"/>
     </row>
     <row r="77">
-      <c r="A77" s="264"/>
-      <c r="B77" s="265"/>
-      <c r="C77" s="213"/>
-      <c r="D77" s="266"/>
-      <c r="E77" s="213"/>
-      <c r="F77" s="265"/>
-      <c r="G77" s="213"/>
-      <c r="H77" s="213"/>
-      <c r="I77" s="217"/>
+      <c r="A77" s="267"/>
+      <c r="B77" s="268"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="269"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="268"/>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="220"/>
     </row>
     <row r="78">
-      <c r="A78" s="261"/>
-      <c r="B78" s="262"/>
-      <c r="C78" s="205"/>
-      <c r="D78" s="263"/>
-      <c r="E78" s="205"/>
-      <c r="F78" s="262"/>
-      <c r="G78" s="205"/>
-      <c r="H78" s="205"/>
-      <c r="I78" s="209"/>
+      <c r="A78" s="264"/>
+      <c r="B78" s="265"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="265"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="212"/>
     </row>
     <row r="79">
-      <c r="A79" s="264"/>
-      <c r="B79" s="265"/>
-      <c r="C79" s="213"/>
-      <c r="D79" s="266"/>
-      <c r="E79" s="213"/>
-      <c r="F79" s="265"/>
-      <c r="G79" s="213"/>
-      <c r="H79" s="213"/>
-      <c r="I79" s="217"/>
+      <c r="A79" s="267"/>
+      <c r="B79" s="268"/>
+      <c r="C79" s="216"/>
+      <c r="D79" s="269"/>
+      <c r="E79" s="216"/>
+      <c r="F79" s="268"/>
+      <c r="G79" s="216"/>
+      <c r="H79" s="216"/>
+      <c r="I79" s="220"/>
     </row>
     <row r="80">
-      <c r="A80" s="261"/>
-      <c r="B80" s="262"/>
-      <c r="C80" s="205"/>
-      <c r="D80" s="263"/>
-      <c r="E80" s="205"/>
-      <c r="F80" s="262"/>
-      <c r="G80" s="205"/>
-      <c r="H80" s="205"/>
-      <c r="I80" s="209"/>
+      <c r="A80" s="264"/>
+      <c r="B80" s="265"/>
+      <c r="C80" s="208"/>
+      <c r="D80" s="266"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="265"/>
+      <c r="G80" s="208"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="212"/>
     </row>
     <row r="81">
-      <c r="A81" s="264"/>
-      <c r="B81" s="265"/>
-      <c r="C81" s="213"/>
-      <c r="D81" s="266"/>
-      <c r="E81" s="213"/>
-      <c r="F81" s="265"/>
-      <c r="G81" s="213"/>
-      <c r="H81" s="213"/>
-      <c r="I81" s="217"/>
+      <c r="A81" s="267"/>
+      <c r="B81" s="268"/>
+      <c r="C81" s="216"/>
+      <c r="D81" s="269"/>
+      <c r="E81" s="216"/>
+      <c r="F81" s="268"/>
+      <c r="G81" s="216"/>
+      <c r="H81" s="216"/>
+      <c r="I81" s="220"/>
     </row>
     <row r="82">
-      <c r="A82" s="261"/>
-      <c r="B82" s="262"/>
-      <c r="C82" s="205"/>
-      <c r="D82" s="263"/>
-      <c r="E82" s="205"/>
-      <c r="F82" s="262"/>
-      <c r="G82" s="205"/>
-      <c r="H82" s="205"/>
-      <c r="I82" s="209"/>
+      <c r="A82" s="264"/>
+      <c r="B82" s="265"/>
+      <c r="C82" s="208"/>
+      <c r="D82" s="266"/>
+      <c r="E82" s="208"/>
+      <c r="F82" s="265"/>
+      <c r="G82" s="208"/>
+      <c r="H82" s="208"/>
+      <c r="I82" s="212"/>
     </row>
     <row r="83">
-      <c r="A83" s="264"/>
-      <c r="B83" s="265"/>
-      <c r="C83" s="213"/>
-      <c r="D83" s="266"/>
-      <c r="E83" s="213"/>
-      <c r="F83" s="265"/>
-      <c r="G83" s="213"/>
-      <c r="H83" s="213"/>
-      <c r="I83" s="217"/>
+      <c r="A83" s="267"/>
+      <c r="B83" s="268"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="269"/>
+      <c r="E83" s="216"/>
+      <c r="F83" s="268"/>
+      <c r="G83" s="216"/>
+      <c r="H83" s="216"/>
+      <c r="I83" s="220"/>
     </row>
     <row r="84">
-      <c r="A84" s="261"/>
-      <c r="B84" s="262"/>
-      <c r="C84" s="205"/>
-      <c r="D84" s="263"/>
-      <c r="E84" s="205"/>
-      <c r="F84" s="262"/>
-      <c r="G84" s="205"/>
-      <c r="H84" s="205"/>
-      <c r="I84" s="209"/>
+      <c r="A84" s="264"/>
+      <c r="B84" s="265"/>
+      <c r="C84" s="208"/>
+      <c r="D84" s="266"/>
+      <c r="E84" s="208"/>
+      <c r="F84" s="265"/>
+      <c r="G84" s="208"/>
+      <c r="H84" s="208"/>
+      <c r="I84" s="212"/>
     </row>
     <row r="85">
-      <c r="A85" s="264"/>
-      <c r="B85" s="265"/>
-      <c r="C85" s="213"/>
-      <c r="D85" s="266"/>
-      <c r="E85" s="213"/>
-      <c r="F85" s="265"/>
-      <c r="G85" s="213"/>
-      <c r="H85" s="213"/>
-      <c r="I85" s="217"/>
+      <c r="A85" s="267"/>
+      <c r="B85" s="268"/>
+      <c r="C85" s="216"/>
+      <c r="D85" s="269"/>
+      <c r="E85" s="216"/>
+      <c r="F85" s="268"/>
+      <c r="G85" s="216"/>
+      <c r="H85" s="216"/>
+      <c r="I85" s="220"/>
     </row>
     <row r="86">
-      <c r="A86" s="261"/>
-      <c r="B86" s="262"/>
-      <c r="C86" s="205"/>
-      <c r="D86" s="263"/>
-      <c r="E86" s="205"/>
-      <c r="F86" s="262"/>
-      <c r="G86" s="205"/>
-      <c r="H86" s="205"/>
-      <c r="I86" s="209"/>
+      <c r="A86" s="264"/>
+      <c r="B86" s="265"/>
+      <c r="C86" s="208"/>
+      <c r="D86" s="266"/>
+      <c r="E86" s="208"/>
+      <c r="F86" s="265"/>
+      <c r="G86" s="208"/>
+      <c r="H86" s="208"/>
+      <c r="I86" s="212"/>
     </row>
     <row r="87">
-      <c r="A87" s="264"/>
-      <c r="B87" s="265"/>
-      <c r="C87" s="213"/>
-      <c r="D87" s="266"/>
-      <c r="E87" s="213"/>
-      <c r="F87" s="265"/>
-      <c r="G87" s="213"/>
-      <c r="H87" s="213"/>
-      <c r="I87" s="217"/>
+      <c r="A87" s="267"/>
+      <c r="B87" s="268"/>
+      <c r="C87" s="216"/>
+      <c r="D87" s="269"/>
+      <c r="E87" s="216"/>
+      <c r="F87" s="268"/>
+      <c r="G87" s="216"/>
+      <c r="H87" s="216"/>
+      <c r="I87" s="220"/>
     </row>
     <row r="88">
-      <c r="A88" s="261"/>
-      <c r="B88" s="262"/>
-      <c r="C88" s="205"/>
-      <c r="D88" s="263"/>
-      <c r="E88" s="205"/>
-      <c r="F88" s="262"/>
-      <c r="G88" s="205"/>
-      <c r="H88" s="205"/>
-      <c r="I88" s="209"/>
+      <c r="A88" s="264"/>
+      <c r="B88" s="265"/>
+      <c r="C88" s="208"/>
+      <c r="D88" s="266"/>
+      <c r="E88" s="208"/>
+      <c r="F88" s="265"/>
+      <c r="G88" s="208"/>
+      <c r="H88" s="208"/>
+      <c r="I88" s="212"/>
     </row>
     <row r="89">
-      <c r="A89" s="264"/>
-      <c r="B89" s="265"/>
-      <c r="C89" s="213"/>
-      <c r="D89" s="266"/>
-      <c r="E89" s="213"/>
-      <c r="F89" s="265"/>
-      <c r="G89" s="213"/>
-      <c r="H89" s="213"/>
-      <c r="I89" s="217"/>
+      <c r="A89" s="267"/>
+      <c r="B89" s="268"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="269"/>
+      <c r="E89" s="216"/>
+      <c r="F89" s="268"/>
+      <c r="G89" s="216"/>
+      <c r="H89" s="216"/>
+      <c r="I89" s="220"/>
     </row>
     <row r="90">
-      <c r="A90" s="261"/>
-      <c r="B90" s="262"/>
-      <c r="C90" s="205"/>
-      <c r="D90" s="263"/>
-      <c r="E90" s="205"/>
-      <c r="F90" s="262"/>
-      <c r="G90" s="205"/>
-      <c r="H90" s="205"/>
-      <c r="I90" s="209"/>
+      <c r="A90" s="264"/>
+      <c r="B90" s="265"/>
+      <c r="C90" s="208"/>
+      <c r="D90" s="266"/>
+      <c r="E90" s="208"/>
+      <c r="F90" s="265"/>
+      <c r="G90" s="208"/>
+      <c r="H90" s="208"/>
+      <c r="I90" s="212"/>
     </row>
     <row r="91">
-      <c r="A91" s="264"/>
-      <c r="B91" s="265"/>
-      <c r="C91" s="213"/>
-      <c r="D91" s="266"/>
-      <c r="E91" s="213"/>
-      <c r="F91" s="265"/>
-      <c r="G91" s="213"/>
-      <c r="H91" s="213"/>
-      <c r="I91" s="217"/>
+      <c r="A91" s="267"/>
+      <c r="B91" s="268"/>
+      <c r="C91" s="216"/>
+      <c r="D91" s="269"/>
+      <c r="E91" s="216"/>
+      <c r="F91" s="268"/>
+      <c r="G91" s="216"/>
+      <c r="H91" s="216"/>
+      <c r="I91" s="220"/>
     </row>
     <row r="92">
-      <c r="A92" s="261"/>
-      <c r="B92" s="262"/>
-      <c r="C92" s="205"/>
-      <c r="D92" s="263"/>
-      <c r="E92" s="205"/>
-      <c r="F92" s="262"/>
-      <c r="G92" s="205"/>
-      <c r="H92" s="205"/>
-      <c r="I92" s="209"/>
+      <c r="A92" s="264"/>
+      <c r="B92" s="265"/>
+      <c r="C92" s="208"/>
+      <c r="D92" s="266"/>
+      <c r="E92" s="208"/>
+      <c r="F92" s="265"/>
+      <c r="G92" s="208"/>
+      <c r="H92" s="208"/>
+      <c r="I92" s="212"/>
     </row>
     <row r="93">
-      <c r="A93" s="264"/>
-      <c r="B93" s="265"/>
-      <c r="C93" s="213"/>
-      <c r="D93" s="266"/>
-      <c r="E93" s="213"/>
-      <c r="F93" s="265"/>
-      <c r="G93" s="213"/>
-      <c r="H93" s="213"/>
-      <c r="I93" s="217"/>
+      <c r="A93" s="267"/>
+      <c r="B93" s="268"/>
+      <c r="C93" s="216"/>
+      <c r="D93" s="269"/>
+      <c r="E93" s="216"/>
+      <c r="F93" s="268"/>
+      <c r="G93" s="216"/>
+      <c r="H93" s="216"/>
+      <c r="I93" s="220"/>
     </row>
     <row r="94">
-      <c r="A94" s="261"/>
-      <c r="B94" s="262"/>
-      <c r="C94" s="205"/>
-      <c r="D94" s="263"/>
-      <c r="E94" s="205"/>
-      <c r="F94" s="262"/>
-      <c r="G94" s="205"/>
-      <c r="H94" s="205"/>
-      <c r="I94" s="209"/>
+      <c r="A94" s="264"/>
+      <c r="B94" s="265"/>
+      <c r="C94" s="208"/>
+      <c r="D94" s="266"/>
+      <c r="E94" s="208"/>
+      <c r="F94" s="265"/>
+      <c r="G94" s="208"/>
+      <c r="H94" s="208"/>
+      <c r="I94" s="212"/>
     </row>
     <row r="95">
-      <c r="A95" s="264"/>
-      <c r="B95" s="265"/>
-      <c r="C95" s="213"/>
-      <c r="D95" s="266"/>
-      <c r="E95" s="213"/>
-      <c r="F95" s="265"/>
-      <c r="G95" s="213"/>
-      <c r="H95" s="213"/>
-      <c r="I95" s="217"/>
+      <c r="A95" s="267"/>
+      <c r="B95" s="268"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="269"/>
+      <c r="E95" s="216"/>
+      <c r="F95" s="268"/>
+      <c r="G95" s="216"/>
+      <c r="H95" s="216"/>
+      <c r="I95" s="220"/>
     </row>
     <row r="96">
-      <c r="A96" s="261"/>
-      <c r="B96" s="262"/>
-      <c r="C96" s="205"/>
-      <c r="D96" s="263"/>
-      <c r="E96" s="205"/>
-      <c r="F96" s="262"/>
-      <c r="G96" s="205"/>
-      <c r="H96" s="205"/>
-      <c r="I96" s="209"/>
+      <c r="A96" s="264"/>
+      <c r="B96" s="265"/>
+      <c r="C96" s="208"/>
+      <c r="D96" s="266"/>
+      <c r="E96" s="208"/>
+      <c r="F96" s="265"/>
+      <c r="G96" s="208"/>
+      <c r="H96" s="208"/>
+      <c r="I96" s="212"/>
     </row>
     <row r="97">
-      <c r="A97" s="264"/>
-      <c r="B97" s="265"/>
-      <c r="C97" s="213"/>
-      <c r="D97" s="266"/>
-      <c r="E97" s="213"/>
-      <c r="F97" s="265"/>
-      <c r="G97" s="213"/>
-      <c r="H97" s="213"/>
-      <c r="I97" s="217"/>
+      <c r="A97" s="267"/>
+      <c r="B97" s="268"/>
+      <c r="C97" s="216"/>
+      <c r="D97" s="269"/>
+      <c r="E97" s="216"/>
+      <c r="F97" s="268"/>
+      <c r="G97" s="216"/>
+      <c r="H97" s="216"/>
+      <c r="I97" s="220"/>
     </row>
     <row r="98">
-      <c r="A98" s="261"/>
-      <c r="B98" s="262"/>
-      <c r="C98" s="205"/>
-      <c r="D98" s="263"/>
-      <c r="E98" s="205"/>
-      <c r="F98" s="262"/>
-      <c r="G98" s="205"/>
-      <c r="H98" s="205"/>
-      <c r="I98" s="209"/>
+      <c r="A98" s="264"/>
+      <c r="B98" s="265"/>
+      <c r="C98" s="208"/>
+      <c r="D98" s="266"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="265"/>
+      <c r="G98" s="208"/>
+      <c r="H98" s="208"/>
+      <c r="I98" s="212"/>
     </row>
     <row r="99">
-      <c r="A99" s="264"/>
-      <c r="B99" s="265"/>
-      <c r="C99" s="213"/>
-      <c r="D99" s="266"/>
-      <c r="E99" s="213"/>
-      <c r="F99" s="265"/>
-      <c r="G99" s="213"/>
-      <c r="H99" s="213"/>
-      <c r="I99" s="217"/>
+      <c r="A99" s="267"/>
+      <c r="B99" s="268"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="269"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="268"/>
+      <c r="G99" s="216"/>
+      <c r="H99" s="216"/>
+      <c r="I99" s="220"/>
     </row>
     <row r="100">
-      <c r="A100" s="261"/>
-      <c r="B100" s="262"/>
-      <c r="C100" s="205"/>
-      <c r="D100" s="263"/>
-      <c r="E100" s="205"/>
-      <c r="F100" s="262"/>
-      <c r="G100" s="205"/>
-      <c r="H100" s="205"/>
-      <c r="I100" s="209"/>
+      <c r="A100" s="264"/>
+      <c r="B100" s="265"/>
+      <c r="C100" s="208"/>
+      <c r="D100" s="266"/>
+      <c r="E100" s="208"/>
+      <c r="F100" s="265"/>
+      <c r="G100" s="208"/>
+      <c r="H100" s="208"/>
+      <c r="I100" s="212"/>
     </row>
     <row r="101">
-      <c r="A101" s="264"/>
-      <c r="B101" s="265"/>
-      <c r="C101" s="213"/>
-      <c r="D101" s="266"/>
-      <c r="E101" s="213"/>
-      <c r="F101" s="265"/>
-      <c r="G101" s="213"/>
-      <c r="H101" s="213"/>
-      <c r="I101" s="217"/>
+      <c r="A101" s="267"/>
+      <c r="B101" s="268"/>
+      <c r="C101" s="216"/>
+      <c r="D101" s="269"/>
+      <c r="E101" s="216"/>
+      <c r="F101" s="268"/>
+      <c r="G101" s="216"/>
+      <c r="H101" s="216"/>
+      <c r="I101" s="220"/>
     </row>
     <row r="102">
-      <c r="A102" s="261"/>
-      <c r="B102" s="262"/>
-      <c r="C102" s="205"/>
-      <c r="D102" s="263"/>
-      <c r="E102" s="205"/>
-      <c r="F102" s="262"/>
-      <c r="G102" s="205"/>
-      <c r="H102" s="205"/>
-      <c r="I102" s="209"/>
+      <c r="A102" s="264"/>
+      <c r="B102" s="265"/>
+      <c r="C102" s="208"/>
+      <c r="D102" s="266"/>
+      <c r="E102" s="208"/>
+      <c r="F102" s="265"/>
+      <c r="G102" s="208"/>
+      <c r="H102" s="208"/>
+      <c r="I102" s="212"/>
     </row>
     <row r="103">
-      <c r="A103" s="264"/>
-      <c r="B103" s="265"/>
-      <c r="C103" s="213"/>
-      <c r="D103" s="266"/>
-      <c r="E103" s="213"/>
-      <c r="F103" s="265"/>
-      <c r="G103" s="213"/>
-      <c r="H103" s="213"/>
-      <c r="I103" s="217"/>
+      <c r="A103" s="267"/>
+      <c r="B103" s="268"/>
+      <c r="C103" s="216"/>
+      <c r="D103" s="269"/>
+      <c r="E103" s="216"/>
+      <c r="F103" s="268"/>
+      <c r="G103" s="216"/>
+      <c r="H103" s="216"/>
+      <c r="I103" s="220"/>
     </row>
     <row r="104">
-      <c r="A104" s="261"/>
-      <c r="B104" s="262"/>
-      <c r="C104" s="205"/>
-      <c r="D104" s="263"/>
-      <c r="E104" s="205"/>
-      <c r="F104" s="262"/>
-      <c r="G104" s="205"/>
-      <c r="H104" s="205"/>
-      <c r="I104" s="209"/>
+      <c r="A104" s="264"/>
+      <c r="B104" s="265"/>
+      <c r="C104" s="208"/>
+      <c r="D104" s="266"/>
+      <c r="E104" s="208"/>
+      <c r="F104" s="265"/>
+      <c r="G104" s="208"/>
+      <c r="H104" s="208"/>
+      <c r="I104" s="212"/>
     </row>
     <row r="105">
-      <c r="A105" s="264"/>
-      <c r="B105" s="265"/>
-      <c r="C105" s="213"/>
-      <c r="D105" s="266"/>
-      <c r="E105" s="213"/>
-      <c r="F105" s="265"/>
-      <c r="G105" s="213"/>
-      <c r="H105" s="213"/>
-      <c r="I105" s="217"/>
+      <c r="A105" s="267"/>
+      <c r="B105" s="268"/>
+      <c r="C105" s="216"/>
+      <c r="D105" s="269"/>
+      <c r="E105" s="216"/>
+      <c r="F105" s="268"/>
+      <c r="G105" s="216"/>
+      <c r="H105" s="216"/>
+      <c r="I105" s="220"/>
     </row>
     <row r="106">
-      <c r="A106" s="261"/>
-      <c r="B106" s="262"/>
-      <c r="C106" s="205"/>
-      <c r="D106" s="263"/>
-      <c r="E106" s="205"/>
-      <c r="F106" s="262"/>
-      <c r="G106" s="205"/>
-      <c r="H106" s="205"/>
-      <c r="I106" s="209"/>
+      <c r="A106" s="264"/>
+      <c r="B106" s="265"/>
+      <c r="C106" s="208"/>
+      <c r="D106" s="266"/>
+      <c r="E106" s="208"/>
+      <c r="F106" s="265"/>
+      <c r="G106" s="208"/>
+      <c r="H106" s="208"/>
+      <c r="I106" s="212"/>
     </row>
     <row r="107">
-      <c r="A107" s="264"/>
-      <c r="B107" s="265"/>
-      <c r="C107" s="213"/>
-      <c r="D107" s="266"/>
-      <c r="E107" s="213"/>
-      <c r="F107" s="265"/>
-      <c r="G107" s="213"/>
-      <c r="H107" s="213"/>
-      <c r="I107" s="217"/>
+      <c r="A107" s="267"/>
+      <c r="B107" s="268"/>
+      <c r="C107" s="216"/>
+      <c r="D107" s="269"/>
+      <c r="E107" s="216"/>
+      <c r="F107" s="268"/>
+      <c r="G107" s="216"/>
+      <c r="H107" s="216"/>
+      <c r="I107" s="220"/>
     </row>
     <row r="108">
-      <c r="A108" s="261"/>
-      <c r="B108" s="262"/>
-      <c r="C108" s="205"/>
-      <c r="D108" s="263"/>
-      <c r="E108" s="205"/>
-      <c r="F108" s="262"/>
-      <c r="G108" s="205"/>
-      <c r="H108" s="205"/>
-      <c r="I108" s="209"/>
+      <c r="A108" s="264"/>
+      <c r="B108" s="265"/>
+      <c r="C108" s="208"/>
+      <c r="D108" s="266"/>
+      <c r="E108" s="208"/>
+      <c r="F108" s="265"/>
+      <c r="G108" s="208"/>
+      <c r="H108" s="208"/>
+      <c r="I108" s="212"/>
     </row>
     <row r="109">
-      <c r="A109" s="264"/>
-      <c r="B109" s="265"/>
-      <c r="C109" s="213"/>
-      <c r="D109" s="266"/>
-      <c r="E109" s="213"/>
-      <c r="F109" s="265"/>
-      <c r="G109" s="213"/>
-      <c r="H109" s="213"/>
-      <c r="I109" s="217"/>
+      <c r="A109" s="267"/>
+      <c r="B109" s="268"/>
+      <c r="C109" s="216"/>
+      <c r="D109" s="269"/>
+      <c r="E109" s="216"/>
+      <c r="F109" s="268"/>
+      <c r="G109" s="216"/>
+      <c r="H109" s="216"/>
+      <c r="I109" s="220"/>
     </row>
     <row r="110">
-      <c r="A110" s="261"/>
-      <c r="B110" s="262"/>
-      <c r="C110" s="205"/>
-      <c r="D110" s="263"/>
-      <c r="E110" s="205"/>
-      <c r="F110" s="262"/>
-      <c r="G110" s="205"/>
-      <c r="H110" s="205"/>
-      <c r="I110" s="209"/>
+      <c r="A110" s="264"/>
+      <c r="B110" s="265"/>
+      <c r="C110" s="208"/>
+      <c r="D110" s="266"/>
+      <c r="E110" s="208"/>
+      <c r="F110" s="265"/>
+      <c r="G110" s="208"/>
+      <c r="H110" s="208"/>
+      <c r="I110" s="212"/>
     </row>
     <row r="111">
-      <c r="A111" s="264"/>
-      <c r="B111" s="265"/>
-      <c r="C111" s="213"/>
-      <c r="D111" s="266"/>
-      <c r="E111" s="213"/>
-      <c r="F111" s="265"/>
-      <c r="G111" s="213"/>
-      <c r="H111" s="213"/>
-      <c r="I111" s="217"/>
+      <c r="A111" s="267"/>
+      <c r="B111" s="268"/>
+      <c r="C111" s="216"/>
+      <c r="D111" s="269"/>
+      <c r="E111" s="216"/>
+      <c r="F111" s="268"/>
+      <c r="G111" s="216"/>
+      <c r="H111" s="216"/>
+      <c r="I111" s="220"/>
     </row>
     <row r="112">
-      <c r="A112" s="261"/>
-      <c r="B112" s="262"/>
-      <c r="C112" s="205"/>
-      <c r="D112" s="263"/>
-      <c r="E112" s="205"/>
-      <c r="F112" s="262"/>
-      <c r="G112" s="205"/>
-      <c r="H112" s="205"/>
-      <c r="I112" s="209"/>
+      <c r="A112" s="264"/>
+      <c r="B112" s="265"/>
+      <c r="C112" s="208"/>
+      <c r="D112" s="266"/>
+      <c r="E112" s="208"/>
+      <c r="F112" s="265"/>
+      <c r="G112" s="208"/>
+      <c r="H112" s="208"/>
+      <c r="I112" s="212"/>
     </row>
     <row r="113">
-      <c r="A113" s="264"/>
-      <c r="B113" s="265"/>
-      <c r="C113" s="213"/>
-      <c r="D113" s="266"/>
-      <c r="E113" s="213"/>
-      <c r="F113" s="265"/>
-      <c r="G113" s="213"/>
-      <c r="H113" s="213"/>
-      <c r="I113" s="217"/>
+      <c r="A113" s="267"/>
+      <c r="B113" s="268"/>
+      <c r="C113" s="216"/>
+      <c r="D113" s="269"/>
+      <c r="E113" s="216"/>
+      <c r="F113" s="268"/>
+      <c r="G113" s="216"/>
+      <c r="H113" s="216"/>
+      <c r="I113" s="220"/>
     </row>
     <row r="114">
-      <c r="A114" s="261"/>
-      <c r="B114" s="262"/>
-      <c r="C114" s="205"/>
-      <c r="D114" s="263"/>
-      <c r="E114" s="205"/>
-      <c r="F114" s="262"/>
-      <c r="G114" s="205"/>
-      <c r="H114" s="205"/>
-      <c r="I114" s="209"/>
+      <c r="A114" s="264"/>
+      <c r="B114" s="265"/>
+      <c r="C114" s="208"/>
+      <c r="D114" s="266"/>
+      <c r="E114" s="208"/>
+      <c r="F114" s="265"/>
+      <c r="G114" s="208"/>
+      <c r="H114" s="208"/>
+      <c r="I114" s="212"/>
     </row>
     <row r="115">
-      <c r="A115" s="264"/>
-      <c r="B115" s="265"/>
-      <c r="C115" s="213"/>
-      <c r="D115" s="266"/>
-      <c r="E115" s="213"/>
-      <c r="F115" s="265"/>
-      <c r="G115" s="213"/>
-      <c r="H115" s="213"/>
-      <c r="I115" s="217"/>
+      <c r="A115" s="267"/>
+      <c r="B115" s="268"/>
+      <c r="C115" s="216"/>
+      <c r="D115" s="269"/>
+      <c r="E115" s="216"/>
+      <c r="F115" s="268"/>
+      <c r="G115" s="216"/>
+      <c r="H115" s="216"/>
+      <c r="I115" s="220"/>
     </row>
     <row r="116">
-      <c r="A116" s="261"/>
-      <c r="B116" s="262"/>
-      <c r="C116" s="205"/>
-      <c r="D116" s="263"/>
-      <c r="E116" s="205"/>
-      <c r="F116" s="262"/>
-      <c r="G116" s="205"/>
-      <c r="H116" s="205"/>
-      <c r="I116" s="209"/>
+      <c r="A116" s="264"/>
+      <c r="B116" s="265"/>
+      <c r="C116" s="208"/>
+      <c r="D116" s="266"/>
+      <c r="E116" s="208"/>
+      <c r="F116" s="265"/>
+      <c r="G116" s="208"/>
+      <c r="H116" s="208"/>
+      <c r="I116" s="212"/>
     </row>
     <row r="117">
-      <c r="A117" s="264"/>
-      <c r="B117" s="265"/>
-      <c r="C117" s="213"/>
-      <c r="D117" s="266"/>
-      <c r="E117" s="213"/>
-      <c r="F117" s="265"/>
-      <c r="G117" s="213"/>
-      <c r="H117" s="213"/>
-      <c r="I117" s="217"/>
+      <c r="A117" s="267"/>
+      <c r="B117" s="268"/>
+      <c r="C117" s="216"/>
+      <c r="D117" s="269"/>
+      <c r="E117" s="216"/>
+      <c r="F117" s="268"/>
+      <c r="G117" s="216"/>
+      <c r="H117" s="216"/>
+      <c r="I117" s="220"/>
     </row>
     <row r="118">
-      <c r="A118" s="261"/>
-      <c r="B118" s="262"/>
-      <c r="C118" s="205"/>
-      <c r="D118" s="263"/>
-      <c r="E118" s="205"/>
-      <c r="F118" s="262"/>
-      <c r="G118" s="205"/>
-      <c r="H118" s="205"/>
-      <c r="I118" s="209"/>
+      <c r="A118" s="264"/>
+      <c r="B118" s="265"/>
+      <c r="C118" s="208"/>
+      <c r="D118" s="266"/>
+      <c r="E118" s="208"/>
+      <c r="F118" s="265"/>
+      <c r="G118" s="208"/>
+      <c r="H118" s="208"/>
+      <c r="I118" s="212"/>
     </row>
     <row r="119">
-      <c r="A119" s="264"/>
-      <c r="B119" s="265"/>
-      <c r="C119" s="213"/>
-      <c r="D119" s="266"/>
-      <c r="E119" s="213"/>
-      <c r="F119" s="265"/>
-      <c r="G119" s="213"/>
-      <c r="H119" s="213"/>
-      <c r="I119" s="217"/>
+      <c r="A119" s="267"/>
+      <c r="B119" s="268"/>
+      <c r="C119" s="216"/>
+      <c r="D119" s="269"/>
+      <c r="E119" s="216"/>
+      <c r="F119" s="268"/>
+      <c r="G119" s="216"/>
+      <c r="H119" s="216"/>
+      <c r="I119" s="220"/>
     </row>
     <row r="120">
-      <c r="A120" s="261"/>
-      <c r="B120" s="262"/>
-      <c r="C120" s="205"/>
-      <c r="D120" s="263"/>
-      <c r="E120" s="205"/>
-      <c r="F120" s="262"/>
-      <c r="G120" s="205"/>
-      <c r="H120" s="205"/>
-      <c r="I120" s="209"/>
+      <c r="A120" s="264"/>
+      <c r="B120" s="265"/>
+      <c r="C120" s="208"/>
+      <c r="D120" s="266"/>
+      <c r="E120" s="208"/>
+      <c r="F120" s="265"/>
+      <c r="G120" s="208"/>
+      <c r="H120" s="208"/>
+      <c r="I120" s="212"/>
     </row>
     <row r="121">
-      <c r="A121" s="264"/>
-      <c r="B121" s="265"/>
-      <c r="C121" s="213"/>
-      <c r="D121" s="266"/>
-      <c r="E121" s="213"/>
-      <c r="F121" s="265"/>
-      <c r="G121" s="213"/>
-      <c r="H121" s="213"/>
-      <c r="I121" s="217"/>
+      <c r="A121" s="267"/>
+      <c r="B121" s="268"/>
+      <c r="C121" s="216"/>
+      <c r="D121" s="269"/>
+      <c r="E121" s="216"/>
+      <c r="F121" s="268"/>
+      <c r="G121" s="216"/>
+      <c r="H121" s="216"/>
+      <c r="I121" s="220"/>
     </row>
     <row r="122">
-      <c r="A122" s="261"/>
-      <c r="B122" s="262"/>
-      <c r="C122" s="205"/>
-      <c r="D122" s="263"/>
-      <c r="E122" s="205"/>
-      <c r="F122" s="262"/>
-      <c r="G122" s="205"/>
-      <c r="H122" s="205"/>
-      <c r="I122" s="209"/>
+      <c r="A122" s="264"/>
+      <c r="B122" s="265"/>
+      <c r="C122" s="208"/>
+      <c r="D122" s="266"/>
+      <c r="E122" s="208"/>
+      <c r="F122" s="265"/>
+      <c r="G122" s="208"/>
+      <c r="H122" s="208"/>
+      <c r="I122" s="212"/>
     </row>
     <row r="123">
-      <c r="A123" s="264"/>
-      <c r="B123" s="265"/>
-      <c r="C123" s="213"/>
-      <c r="D123" s="266"/>
-      <c r="E123" s="213"/>
-      <c r="F123" s="265"/>
-      <c r="G123" s="213"/>
-      <c r="H123" s="213"/>
-      <c r="I123" s="217"/>
+      <c r="A123" s="267"/>
+      <c r="B123" s="268"/>
+      <c r="C123" s="216"/>
+      <c r="D123" s="269"/>
+      <c r="E123" s="216"/>
+      <c r="F123" s="268"/>
+      <c r="G123" s="216"/>
+      <c r="H123" s="216"/>
+      <c r="I123" s="220"/>
     </row>
     <row r="124">
-      <c r="A124" s="261"/>
-      <c r="B124" s="262"/>
-      <c r="C124" s="205"/>
-      <c r="D124" s="263"/>
-      <c r="E124" s="205"/>
-      <c r="F124" s="262"/>
-      <c r="G124" s="205"/>
-      <c r="H124" s="205"/>
-      <c r="I124" s="209"/>
+      <c r="A124" s="264"/>
+      <c r="B124" s="265"/>
+      <c r="C124" s="208"/>
+      <c r="D124" s="266"/>
+      <c r="E124" s="208"/>
+      <c r="F124" s="265"/>
+      <c r="G124" s="208"/>
+      <c r="H124" s="208"/>
+      <c r="I124" s="212"/>
     </row>
     <row r="125">
-      <c r="A125" s="264"/>
-      <c r="B125" s="265"/>
-      <c r="C125" s="213"/>
-      <c r="D125" s="266"/>
-      <c r="E125" s="213"/>
-      <c r="F125" s="265"/>
-      <c r="G125" s="213"/>
-      <c r="H125" s="213"/>
-      <c r="I125" s="217"/>
+      <c r="A125" s="267"/>
+      <c r="B125" s="268"/>
+      <c r="C125" s="216"/>
+      <c r="D125" s="269"/>
+      <c r="E125" s="216"/>
+      <c r="F125" s="268"/>
+      <c r="G125" s="216"/>
+      <c r="H125" s="216"/>
+      <c r="I125" s="220"/>
     </row>
     <row r="126">
-      <c r="A126" s="261"/>
-      <c r="B126" s="262"/>
-      <c r="C126" s="205"/>
-      <c r="D126" s="263"/>
-      <c r="E126" s="205"/>
-      <c r="F126" s="262"/>
-      <c r="G126" s="205"/>
-      <c r="H126" s="205"/>
-      <c r="I126" s="209"/>
+      <c r="A126" s="264"/>
+      <c r="B126" s="265"/>
+      <c r="C126" s="208"/>
+      <c r="D126" s="266"/>
+      <c r="E126" s="208"/>
+      <c r="F126" s="265"/>
+      <c r="G126" s="208"/>
+      <c r="H126" s="208"/>
+      <c r="I126" s="212"/>
     </row>
     <row r="127">
-      <c r="A127" s="264"/>
-      <c r="B127" s="265"/>
-      <c r="C127" s="213"/>
-      <c r="D127" s="266"/>
-      <c r="E127" s="213"/>
-      <c r="F127" s="265"/>
-      <c r="G127" s="213"/>
-      <c r="H127" s="213"/>
-      <c r="I127" s="217"/>
+      <c r="A127" s="267"/>
+      <c r="B127" s="268"/>
+      <c r="C127" s="216"/>
+      <c r="D127" s="269"/>
+      <c r="E127" s="216"/>
+      <c r="F127" s="268"/>
+      <c r="G127" s="216"/>
+      <c r="H127" s="216"/>
+      <c r="I127" s="220"/>
     </row>
     <row r="128">
-      <c r="A128" s="261"/>
-      <c r="B128" s="262"/>
-      <c r="C128" s="205"/>
-      <c r="D128" s="263"/>
-      <c r="E128" s="205"/>
-      <c r="F128" s="262"/>
-      <c r="G128" s="205"/>
-      <c r="H128" s="205"/>
-      <c r="I128" s="209"/>
+      <c r="A128" s="264"/>
+      <c r="B128" s="265"/>
+      <c r="C128" s="208"/>
+      <c r="D128" s="266"/>
+      <c r="E128" s="208"/>
+      <c r="F128" s="265"/>
+      <c r="G128" s="208"/>
+      <c r="H128" s="208"/>
+      <c r="I128" s="212"/>
     </row>
     <row r="129">
-      <c r="A129" s="264"/>
-      <c r="B129" s="265"/>
-      <c r="C129" s="213"/>
-      <c r="D129" s="266"/>
-      <c r="E129" s="213"/>
-      <c r="F129" s="265"/>
-      <c r="G129" s="213"/>
-      <c r="H129" s="213"/>
-      <c r="I129" s="217"/>
+      <c r="A129" s="267"/>
+      <c r="B129" s="268"/>
+      <c r="C129" s="216"/>
+      <c r="D129" s="269"/>
+      <c r="E129" s="216"/>
+      <c r="F129" s="268"/>
+      <c r="G129" s="216"/>
+      <c r="H129" s="216"/>
+      <c r="I129" s="220"/>
     </row>
     <row r="130">
-      <c r="A130" s="261"/>
-      <c r="B130" s="262"/>
-      <c r="C130" s="205"/>
-      <c r="D130" s="263"/>
-      <c r="E130" s="205"/>
-      <c r="F130" s="262"/>
-      <c r="G130" s="205"/>
-      <c r="H130" s="205"/>
-      <c r="I130" s="209"/>
+      <c r="A130" s="264"/>
+      <c r="B130" s="265"/>
+      <c r="C130" s="208"/>
+      <c r="D130" s="266"/>
+      <c r="E130" s="208"/>
+      <c r="F130" s="265"/>
+      <c r="G130" s="208"/>
+      <c r="H130" s="208"/>
+      <c r="I130" s="212"/>
     </row>
     <row r="131">
-      <c r="A131" s="264"/>
-      <c r="B131" s="265"/>
-      <c r="C131" s="213"/>
-      <c r="D131" s="266"/>
-      <c r="E131" s="213"/>
-      <c r="F131" s="265"/>
-      <c r="G131" s="213"/>
-      <c r="H131" s="213"/>
-      <c r="I131" s="217"/>
+      <c r="A131" s="267"/>
+      <c r="B131" s="268"/>
+      <c r="C131" s="216"/>
+      <c r="D131" s="269"/>
+      <c r="E131" s="216"/>
+      <c r="F131" s="268"/>
+      <c r="G131" s="216"/>
+      <c r="H131" s="216"/>
+      <c r="I131" s="220"/>
     </row>
     <row r="132">
-      <c r="A132" s="261"/>
-      <c r="B132" s="262"/>
-      <c r="C132" s="205"/>
-      <c r="D132" s="263"/>
-      <c r="E132" s="205"/>
-      <c r="F132" s="262"/>
-      <c r="G132" s="205"/>
-      <c r="H132" s="205"/>
-      <c r="I132" s="209"/>
+      <c r="A132" s="264"/>
+      <c r="B132" s="265"/>
+      <c r="C132" s="208"/>
+      <c r="D132" s="266"/>
+      <c r="E132" s="208"/>
+      <c r="F132" s="265"/>
+      <c r="G132" s="208"/>
+      <c r="H132" s="208"/>
+      <c r="I132" s="212"/>
     </row>
     <row r="133">
-      <c r="A133" s="264"/>
-      <c r="B133" s="265"/>
-      <c r="C133" s="213"/>
-      <c r="D133" s="266"/>
-      <c r="E133" s="213"/>
-      <c r="F133" s="265"/>
-      <c r="G133" s="213"/>
-      <c r="H133" s="213"/>
-      <c r="I133" s="217"/>
+      <c r="A133" s="267"/>
+      <c r="B133" s="268"/>
+      <c r="C133" s="216"/>
+      <c r="D133" s="269"/>
+      <c r="E133" s="216"/>
+      <c r="F133" s="268"/>
+      <c r="G133" s="216"/>
+      <c r="H133" s="216"/>
+      <c r="I133" s="220"/>
     </row>
     <row r="134">
-      <c r="A134" s="261"/>
-      <c r="B134" s="262"/>
-      <c r="C134" s="205"/>
-      <c r="D134" s="263"/>
-      <c r="E134" s="205"/>
-      <c r="F134" s="262"/>
-      <c r="G134" s="205"/>
-      <c r="H134" s="205"/>
-      <c r="I134" s="209"/>
+      <c r="A134" s="264"/>
+      <c r="B134" s="265"/>
+      <c r="C134" s="208"/>
+      <c r="D134" s="266"/>
+      <c r="E134" s="208"/>
+      <c r="F134" s="265"/>
+      <c r="G134" s="208"/>
+      <c r="H134" s="208"/>
+      <c r="I134" s="212"/>
     </row>
     <row r="135">
-      <c r="A135" s="264"/>
-      <c r="B135" s="265"/>
-      <c r="C135" s="213"/>
-      <c r="D135" s="266"/>
-      <c r="E135" s="213"/>
-      <c r="F135" s="265"/>
-      <c r="G135" s="213"/>
-      <c r="H135" s="213"/>
-      <c r="I135" s="217"/>
+      <c r="A135" s="267"/>
+      <c r="B135" s="268"/>
+      <c r="C135" s="216"/>
+      <c r="D135" s="269"/>
+      <c r="E135" s="216"/>
+      <c r="F135" s="268"/>
+      <c r="G135" s="216"/>
+      <c r="H135" s="216"/>
+      <c r="I135" s="220"/>
     </row>
     <row r="136">
-      <c r="A136" s="261"/>
-      <c r="B136" s="262"/>
-      <c r="C136" s="205"/>
-      <c r="D136" s="263"/>
-      <c r="E136" s="205"/>
-      <c r="F136" s="262"/>
-      <c r="G136" s="205"/>
-      <c r="H136" s="205"/>
-      <c r="I136" s="209"/>
+      <c r="A136" s="264"/>
+      <c r="B136" s="265"/>
+      <c r="C136" s="208"/>
+      <c r="D136" s="266"/>
+      <c r="E136" s="208"/>
+      <c r="F136" s="265"/>
+      <c r="G136" s="208"/>
+      <c r="H136" s="208"/>
+      <c r="I136" s="212"/>
     </row>
     <row r="137">
-      <c r="A137" s="264"/>
-      <c r="B137" s="265"/>
-      <c r="C137" s="213"/>
-      <c r="D137" s="266"/>
-      <c r="E137" s="213"/>
-      <c r="F137" s="265"/>
-      <c r="G137" s="213"/>
-      <c r="H137" s="213"/>
-      <c r="I137" s="217"/>
+      <c r="A137" s="267"/>
+      <c r="B137" s="268"/>
+      <c r="C137" s="216"/>
+      <c r="D137" s="269"/>
+      <c r="E137" s="216"/>
+      <c r="F137" s="268"/>
+      <c r="G137" s="216"/>
+      <c r="H137" s="216"/>
+      <c r="I137" s="220"/>
     </row>
     <row r="138">
-      <c r="A138" s="261"/>
-      <c r="B138" s="262"/>
-      <c r="C138" s="205"/>
-      <c r="D138" s="263"/>
-      <c r="E138" s="205"/>
-      <c r="F138" s="262"/>
-      <c r="G138" s="205"/>
-      <c r="H138" s="205"/>
-      <c r="I138" s="209"/>
+      <c r="A138" s="264"/>
+      <c r="B138" s="265"/>
+      <c r="C138" s="208"/>
+      <c r="D138" s="266"/>
+      <c r="E138" s="208"/>
+      <c r="F138" s="265"/>
+      <c r="G138" s="208"/>
+      <c r="H138" s="208"/>
+      <c r="I138" s="212"/>
     </row>
     <row r="139">
-      <c r="A139" s="264"/>
-      <c r="B139" s="265"/>
-      <c r="C139" s="213"/>
-      <c r="D139" s="266"/>
-      <c r="E139" s="213"/>
-      <c r="F139" s="265"/>
-      <c r="G139" s="213"/>
-      <c r="H139" s="213"/>
-      <c r="I139" s="217"/>
+      <c r="A139" s="267"/>
+      <c r="B139" s="268"/>
+      <c r="C139" s="216"/>
+      <c r="D139" s="269"/>
+      <c r="E139" s="216"/>
+      <c r="F139" s="268"/>
+      <c r="G139" s="216"/>
+      <c r="H139" s="216"/>
+      <c r="I139" s="220"/>
     </row>
     <row r="140">
-      <c r="A140" s="261"/>
-      <c r="B140" s="262"/>
-      <c r="C140" s="205"/>
-      <c r="D140" s="263"/>
-      <c r="E140" s="205"/>
-      <c r="F140" s="262"/>
-      <c r="G140" s="205"/>
-      <c r="H140" s="205"/>
-      <c r="I140" s="209"/>
+      <c r="A140" s="264"/>
+      <c r="B140" s="265"/>
+      <c r="C140" s="208"/>
+      <c r="D140" s="266"/>
+      <c r="E140" s="208"/>
+      <c r="F140" s="265"/>
+      <c r="G140" s="208"/>
+      <c r="H140" s="208"/>
+      <c r="I140" s="212"/>
     </row>
     <row r="141">
-      <c r="A141" s="264"/>
-      <c r="B141" s="265"/>
-      <c r="C141" s="213"/>
-      <c r="D141" s="266"/>
-      <c r="E141" s="213"/>
-      <c r="F141" s="265"/>
-      <c r="G141" s="213"/>
-      <c r="H141" s="213"/>
-      <c r="I141" s="217"/>
+      <c r="A141" s="267"/>
+      <c r="B141" s="268"/>
+      <c r="C141" s="216"/>
+      <c r="D141" s="269"/>
+      <c r="E141" s="216"/>
+      <c r="F141" s="268"/>
+      <c r="G141" s="216"/>
+      <c r="H141" s="216"/>
+      <c r="I141" s="220"/>
     </row>
     <row r="142">
-      <c r="A142" s="261"/>
-      <c r="B142" s="262"/>
-      <c r="C142" s="205"/>
-      <c r="D142" s="263"/>
-      <c r="E142" s="205"/>
-      <c r="F142" s="262"/>
-      <c r="G142" s="205"/>
-      <c r="H142" s="205"/>
-      <c r="I142" s="209"/>
+      <c r="A142" s="264"/>
+      <c r="B142" s="265"/>
+      <c r="C142" s="208"/>
+      <c r="D142" s="266"/>
+      <c r="E142" s="208"/>
+      <c r="F142" s="265"/>
+      <c r="G142" s="208"/>
+      <c r="H142" s="208"/>
+      <c r="I142" s="212"/>
     </row>
     <row r="143">
-      <c r="A143" s="264"/>
-      <c r="B143" s="265"/>
-      <c r="C143" s="213"/>
-      <c r="D143" s="266"/>
-      <c r="E143" s="213"/>
-      <c r="F143" s="265"/>
-      <c r="G143" s="213"/>
-      <c r="H143" s="213"/>
-      <c r="I143" s="217"/>
+      <c r="A143" s="267"/>
+      <c r="B143" s="268"/>
+      <c r="C143" s="216"/>
+      <c r="D143" s="269"/>
+      <c r="E143" s="216"/>
+      <c r="F143" s="268"/>
+      <c r="G143" s="216"/>
+      <c r="H143" s="216"/>
+      <c r="I143" s="220"/>
     </row>
     <row r="144">
-      <c r="A144" s="261"/>
-      <c r="B144" s="262"/>
-      <c r="C144" s="205"/>
-      <c r="D144" s="263"/>
-      <c r="E144" s="205"/>
-      <c r="F144" s="262"/>
-      <c r="G144" s="205"/>
-      <c r="H144" s="205"/>
-      <c r="I144" s="209"/>
+      <c r="A144" s="264"/>
+      <c r="B144" s="265"/>
+      <c r="C144" s="208"/>
+      <c r="D144" s="266"/>
+      <c r="E144" s="208"/>
+      <c r="F144" s="265"/>
+      <c r="G144" s="208"/>
+      <c r="H144" s="208"/>
+      <c r="I144" s="212"/>
     </row>
     <row r="145">
-      <c r="A145" s="264"/>
-      <c r="B145" s="265"/>
-      <c r="C145" s="213"/>
-      <c r="D145" s="266"/>
-      <c r="E145" s="213"/>
-      <c r="F145" s="265"/>
-      <c r="G145" s="213"/>
-      <c r="H145" s="213"/>
-      <c r="I145" s="217"/>
+      <c r="A145" s="267"/>
+      <c r="B145" s="268"/>
+      <c r="C145" s="216"/>
+      <c r="D145" s="269"/>
+      <c r="E145" s="216"/>
+      <c r="F145" s="268"/>
+      <c r="G145" s="216"/>
+      <c r="H145" s="216"/>
+      <c r="I145" s="220"/>
     </row>
     <row r="146">
-      <c r="A146" s="261"/>
-      <c r="B146" s="262"/>
-      <c r="C146" s="205"/>
-      <c r="D146" s="263"/>
-      <c r="E146" s="205"/>
-      <c r="F146" s="262"/>
-      <c r="G146" s="205"/>
-      <c r="H146" s="205"/>
-      <c r="I146" s="209"/>
+      <c r="A146" s="264"/>
+      <c r="B146" s="265"/>
+      <c r="C146" s="208"/>
+      <c r="D146" s="266"/>
+      <c r="E146" s="208"/>
+      <c r="F146" s="265"/>
+      <c r="G146" s="208"/>
+      <c r="H146" s="208"/>
+      <c r="I146" s="212"/>
     </row>
     <row r="147">
-      <c r="A147" s="264"/>
-      <c r="B147" s="265"/>
-      <c r="C147" s="213"/>
-      <c r="D147" s="266"/>
-      <c r="E147" s="213"/>
-      <c r="F147" s="265"/>
-      <c r="G147" s="213"/>
-      <c r="H147" s="213"/>
-      <c r="I147" s="217"/>
+      <c r="A147" s="267"/>
+      <c r="B147" s="268"/>
+      <c r="C147" s="216"/>
+      <c r="D147" s="269"/>
+      <c r="E147" s="216"/>
+      <c r="F147" s="268"/>
+      <c r="G147" s="216"/>
+      <c r="H147" s="216"/>
+      <c r="I147" s="220"/>
     </row>
     <row r="148">
-      <c r="A148" s="261"/>
-      <c r="B148" s="262"/>
-      <c r="C148" s="205"/>
-      <c r="D148" s="263"/>
-      <c r="E148" s="205"/>
-      <c r="F148" s="262"/>
-      <c r="G148" s="205"/>
-      <c r="H148" s="205"/>
-      <c r="I148" s="209"/>
+      <c r="A148" s="264"/>
+      <c r="B148" s="265"/>
+      <c r="C148" s="208"/>
+      <c r="D148" s="266"/>
+      <c r="E148" s="208"/>
+      <c r="F148" s="265"/>
+      <c r="G148" s="208"/>
+      <c r="H148" s="208"/>
+      <c r="I148" s="212"/>
     </row>
     <row r="149">
-      <c r="A149" s="264"/>
-      <c r="B149" s="265"/>
-      <c r="C149" s="213"/>
-      <c r="D149" s="266"/>
-      <c r="E149" s="213"/>
-      <c r="F149" s="265"/>
-      <c r="G149" s="213"/>
-      <c r="H149" s="213"/>
-      <c r="I149" s="217"/>
+      <c r="A149" s="267"/>
+      <c r="B149" s="268"/>
+      <c r="C149" s="216"/>
+      <c r="D149" s="269"/>
+      <c r="E149" s="216"/>
+      <c r="F149" s="268"/>
+      <c r="G149" s="216"/>
+      <c r="H149" s="216"/>
+      <c r="I149" s="220"/>
     </row>
     <row r="150">
-      <c r="A150" s="261"/>
-      <c r="B150" s="262"/>
-      <c r="C150" s="205"/>
-      <c r="D150" s="263"/>
-      <c r="E150" s="205"/>
-      <c r="F150" s="262"/>
-      <c r="G150" s="205"/>
-      <c r="H150" s="205"/>
-      <c r="I150" s="209"/>
+      <c r="A150" s="264"/>
+      <c r="B150" s="265"/>
+      <c r="C150" s="208"/>
+      <c r="D150" s="266"/>
+      <c r="E150" s="208"/>
+      <c r="F150" s="265"/>
+      <c r="G150" s="208"/>
+      <c r="H150" s="208"/>
+      <c r="I150" s="212"/>
     </row>
     <row r="151">
-      <c r="A151" s="264"/>
-      <c r="B151" s="265"/>
-      <c r="C151" s="213"/>
-      <c r="D151" s="266"/>
-      <c r="E151" s="213"/>
-      <c r="F151" s="265"/>
-      <c r="G151" s="213"/>
-      <c r="H151" s="213"/>
-      <c r="I151" s="217"/>
+      <c r="A151" s="267"/>
+      <c r="B151" s="268"/>
+      <c r="C151" s="216"/>
+      <c r="D151" s="269"/>
+      <c r="E151" s="216"/>
+      <c r="F151" s="268"/>
+      <c r="G151" s="216"/>
+      <c r="H151" s="216"/>
+      <c r="I151" s="220"/>
     </row>
     <row r="152">
-      <c r="A152" s="261"/>
-      <c r="B152" s="262"/>
-      <c r="C152" s="205"/>
-      <c r="D152" s="263"/>
-      <c r="E152" s="205"/>
-      <c r="F152" s="262"/>
-      <c r="G152" s="205"/>
-      <c r="H152" s="205"/>
-      <c r="I152" s="209"/>
+      <c r="A152" s="264"/>
+      <c r="B152" s="265"/>
+      <c r="C152" s="208"/>
+      <c r="D152" s="266"/>
+      <c r="E152" s="208"/>
+      <c r="F152" s="265"/>
+      <c r="G152" s="208"/>
+      <c r="H152" s="208"/>
+      <c r="I152" s="212"/>
     </row>
     <row r="153">
-      <c r="A153" s="264"/>
-      <c r="B153" s="265"/>
-      <c r="C153" s="213"/>
-      <c r="D153" s="266"/>
-      <c r="E153" s="213"/>
-      <c r="F153" s="265"/>
-      <c r="G153" s="213"/>
-      <c r="H153" s="213"/>
-      <c r="I153" s="217"/>
+      <c r="A153" s="267"/>
+      <c r="B153" s="268"/>
+      <c r="C153" s="216"/>
+      <c r="D153" s="269"/>
+      <c r="E153" s="216"/>
+      <c r="F153" s="268"/>
+      <c r="G153" s="216"/>
+      <c r="H153" s="216"/>
+      <c r="I153" s="220"/>
     </row>
     <row r="154">
-      <c r="A154" s="261"/>
-      <c r="B154" s="262"/>
-      <c r="C154" s="205"/>
-      <c r="D154" s="263"/>
-      <c r="E154" s="205"/>
-      <c r="F154" s="262"/>
-      <c r="G154" s="205"/>
-      <c r="H154" s="205"/>
-      <c r="I154" s="209"/>
+      <c r="A154" s="264"/>
+      <c r="B154" s="265"/>
+      <c r="C154" s="208"/>
+      <c r="D154" s="266"/>
+      <c r="E154" s="208"/>
+      <c r="F154" s="265"/>
+      <c r="G154" s="208"/>
+      <c r="H154" s="208"/>
+      <c r="I154" s="212"/>
     </row>
     <row r="155">
-      <c r="A155" s="264"/>
-      <c r="B155" s="265"/>
-      <c r="C155" s="213"/>
-      <c r="D155" s="266"/>
-      <c r="E155" s="213"/>
-      <c r="F155" s="265"/>
-      <c r="G155" s="213"/>
-      <c r="H155" s="213"/>
-      <c r="I155" s="217"/>
+      <c r="A155" s="267"/>
+      <c r="B155" s="268"/>
+      <c r="C155" s="216"/>
+      <c r="D155" s="269"/>
+      <c r="E155" s="216"/>
+      <c r="F155" s="268"/>
+      <c r="G155" s="216"/>
+      <c r="H155" s="216"/>
+      <c r="I155" s="220"/>
     </row>
     <row r="156">
-      <c r="A156" s="261"/>
-      <c r="B156" s="262"/>
-      <c r="C156" s="205"/>
-      <c r="D156" s="263"/>
-      <c r="E156" s="205"/>
-      <c r="F156" s="262"/>
-      <c r="G156" s="205"/>
-      <c r="H156" s="205"/>
-      <c r="I156" s="209"/>
+      <c r="A156" s="264"/>
+      <c r="B156" s="265"/>
+      <c r="C156" s="208"/>
+      <c r="D156" s="266"/>
+      <c r="E156" s="208"/>
+      <c r="F156" s="265"/>
+      <c r="G156" s="208"/>
+      <c r="H156" s="208"/>
+      <c r="I156" s="212"/>
     </row>
     <row r="157">
-      <c r="A157" s="264"/>
-      <c r="B157" s="265"/>
-      <c r="C157" s="213"/>
-      <c r="D157" s="266"/>
-      <c r="E157" s="213"/>
-      <c r="F157" s="265"/>
-      <c r="G157" s="213"/>
-      <c r="H157" s="213"/>
-      <c r="I157" s="217"/>
+      <c r="A157" s="267"/>
+      <c r="B157" s="268"/>
+      <c r="C157" s="216"/>
+      <c r="D157" s="269"/>
+      <c r="E157" s="216"/>
+      <c r="F157" s="268"/>
+      <c r="G157" s="216"/>
+      <c r="H157" s="216"/>
+      <c r="I157" s="220"/>
     </row>
     <row r="158">
-      <c r="A158" s="261"/>
-      <c r="B158" s="262"/>
-      <c r="C158" s="205"/>
-      <c r="D158" s="263"/>
-      <c r="E158" s="205"/>
-      <c r="F158" s="262"/>
-      <c r="G158" s="205"/>
-      <c r="H158" s="205"/>
-      <c r="I158" s="209"/>
+      <c r="A158" s="264"/>
+      <c r="B158" s="265"/>
+      <c r="C158" s="208"/>
+      <c r="D158" s="266"/>
+      <c r="E158" s="208"/>
+      <c r="F158" s="265"/>
+      <c r="G158" s="208"/>
+      <c r="H158" s="208"/>
+      <c r="I158" s="212"/>
     </row>
     <row r="159">
-      <c r="A159" s="264"/>
-      <c r="B159" s="265"/>
-      <c r="C159" s="213"/>
-      <c r="D159" s="266"/>
-      <c r="E159" s="213"/>
-      <c r="F159" s="265"/>
-      <c r="G159" s="213"/>
-      <c r="H159" s="213"/>
-      <c r="I159" s="217"/>
+      <c r="A159" s="267"/>
+      <c r="B159" s="268"/>
+      <c r="C159" s="216"/>
+      <c r="D159" s="269"/>
+      <c r="E159" s="216"/>
+      <c r="F159" s="268"/>
+      <c r="G159" s="216"/>
+      <c r="H159" s="216"/>
+      <c r="I159" s="220"/>
     </row>
     <row r="160">
-      <c r="A160" s="261"/>
-      <c r="B160" s="262"/>
-      <c r="C160" s="205"/>
-      <c r="D160" s="263"/>
-      <c r="E160" s="205"/>
-      <c r="F160" s="262"/>
-      <c r="G160" s="205"/>
-      <c r="H160" s="205"/>
-      <c r="I160" s="209"/>
+      <c r="A160" s="264"/>
+      <c r="B160" s="265"/>
+      <c r="C160" s="208"/>
+      <c r="D160" s="266"/>
+      <c r="E160" s="208"/>
+      <c r="F160" s="265"/>
+      <c r="G160" s="208"/>
+      <c r="H160" s="208"/>
+      <c r="I160" s="212"/>
     </row>
     <row r="161">
-      <c r="A161" s="264"/>
-      <c r="B161" s="265"/>
-      <c r="C161" s="213"/>
-      <c r="D161" s="266"/>
-      <c r="E161" s="213"/>
-      <c r="F161" s="265"/>
-      <c r="G161" s="213"/>
-      <c r="H161" s="213"/>
-      <c r="I161" s="217"/>
+      <c r="A161" s="267"/>
+      <c r="B161" s="268"/>
+      <c r="C161" s="216"/>
+      <c r="D161" s="269"/>
+      <c r="E161" s="216"/>
+      <c r="F161" s="268"/>
+      <c r="G161" s="216"/>
+      <c r="H161" s="216"/>
+      <c r="I161" s="220"/>
     </row>
     <row r="162">
-      <c r="A162" s="261"/>
-      <c r="B162" s="262"/>
-      <c r="C162" s="205"/>
-      <c r="D162" s="263"/>
-      <c r="E162" s="205"/>
-      <c r="F162" s="262"/>
-      <c r="G162" s="205"/>
-      <c r="H162" s="205"/>
-      <c r="I162" s="209"/>
+      <c r="A162" s="264"/>
+      <c r="B162" s="265"/>
+      <c r="C162" s="208"/>
+      <c r="D162" s="266"/>
+      <c r="E162" s="208"/>
+      <c r="F162" s="265"/>
+      <c r="G162" s="208"/>
+      <c r="H162" s="208"/>
+      <c r="I162" s="212"/>
     </row>
     <row r="163">
-      <c r="A163" s="264"/>
-      <c r="B163" s="265"/>
-      <c r="C163" s="213"/>
-      <c r="D163" s="266"/>
-      <c r="E163" s="213"/>
-      <c r="F163" s="265"/>
-      <c r="G163" s="213"/>
-      <c r="H163" s="213"/>
-      <c r="I163" s="217"/>
+      <c r="A163" s="267"/>
+      <c r="B163" s="268"/>
+      <c r="C163" s="216"/>
+      <c r="D163" s="269"/>
+      <c r="E163" s="216"/>
+      <c r="F163" s="268"/>
+      <c r="G163" s="216"/>
+      <c r="H163" s="216"/>
+      <c r="I163" s="220"/>
     </row>
     <row r="164">
-      <c r="A164" s="261"/>
-      <c r="B164" s="262"/>
-      <c r="C164" s="205"/>
-      <c r="D164" s="263"/>
-      <c r="E164" s="205"/>
-      <c r="F164" s="262"/>
-      <c r="G164" s="205"/>
-      <c r="H164" s="205"/>
-      <c r="I164" s="209"/>
+      <c r="A164" s="264"/>
+      <c r="B164" s="265"/>
+      <c r="C164" s="208"/>
+      <c r="D164" s="266"/>
+      <c r="E164" s="208"/>
+      <c r="F164" s="265"/>
+      <c r="G164" s="208"/>
+      <c r="H164" s="208"/>
+      <c r="I164" s="212"/>
     </row>
     <row r="165">
-      <c r="A165" s="264"/>
-      <c r="B165" s="265"/>
-      <c r="C165" s="213"/>
-      <c r="D165" s="266"/>
-      <c r="E165" s="213"/>
-      <c r="F165" s="265"/>
-      <c r="G165" s="213"/>
-      <c r="H165" s="213"/>
-      <c r="I165" s="217"/>
+      <c r="A165" s="267"/>
+      <c r="B165" s="268"/>
+      <c r="C165" s="216"/>
+      <c r="D165" s="269"/>
+      <c r="E165" s="216"/>
+      <c r="F165" s="268"/>
+      <c r="G165" s="216"/>
+      <c r="H165" s="216"/>
+      <c r="I165" s="220"/>
     </row>
     <row r="166">
-      <c r="A166" s="261"/>
-      <c r="B166" s="262"/>
-      <c r="C166" s="205"/>
-      <c r="D166" s="263"/>
-      <c r="E166" s="205"/>
-      <c r="F166" s="262"/>
-      <c r="G166" s="205"/>
-      <c r="H166" s="205"/>
-      <c r="I166" s="209"/>
+      <c r="A166" s="264"/>
+      <c r="B166" s="265"/>
+      <c r="C166" s="208"/>
+      <c r="D166" s="266"/>
+      <c r="E166" s="208"/>
+      <c r="F166" s="265"/>
+      <c r="G166" s="208"/>
+      <c r="H166" s="208"/>
+      <c r="I166" s="212"/>
     </row>
     <row r="167">
-      <c r="A167" s="264"/>
-      <c r="B167" s="265"/>
-      <c r="C167" s="213"/>
-      <c r="D167" s="266"/>
-      <c r="E167" s="213"/>
-      <c r="F167" s="265"/>
-      <c r="G167" s="213"/>
-      <c r="H167" s="213"/>
-      <c r="I167" s="217"/>
+      <c r="A167" s="267"/>
+      <c r="B167" s="268"/>
+      <c r="C167" s="216"/>
+      <c r="D167" s="269"/>
+      <c r="E167" s="216"/>
+      <c r="F167" s="268"/>
+      <c r="G167" s="216"/>
+      <c r="H167" s="216"/>
+      <c r="I167" s="220"/>
     </row>
     <row r="168">
-      <c r="A168" s="261"/>
-      <c r="B168" s="262"/>
-      <c r="C168" s="205"/>
-      <c r="D168" s="263"/>
-      <c r="E168" s="205"/>
-      <c r="F168" s="262"/>
-      <c r="G168" s="205"/>
-      <c r="H168" s="205"/>
-      <c r="I168" s="209"/>
+      <c r="A168" s="264"/>
+      <c r="B168" s="265"/>
+      <c r="C168" s="208"/>
+      <c r="D168" s="266"/>
+      <c r="E168" s="208"/>
+      <c r="F168" s="265"/>
+      <c r="G168" s="208"/>
+      <c r="H168" s="208"/>
+      <c r="I168" s="212"/>
     </row>
     <row r="169">
-      <c r="A169" s="264"/>
-      <c r="B169" s="265"/>
-      <c r="C169" s="213"/>
-      <c r="D169" s="266"/>
-      <c r="E169" s="213"/>
-      <c r="F169" s="265"/>
-      <c r="G169" s="213"/>
-      <c r="H169" s="213"/>
-      <c r="I169" s="217"/>
+      <c r="A169" s="267"/>
+      <c r="B169" s="268"/>
+      <c r="C169" s="216"/>
+      <c r="D169" s="269"/>
+      <c r="E169" s="216"/>
+      <c r="F169" s="268"/>
+      <c r="G169" s="216"/>
+      <c r="H169" s="216"/>
+      <c r="I169" s="220"/>
     </row>
     <row r="170">
-      <c r="A170" s="261"/>
-      <c r="B170" s="262"/>
-      <c r="C170" s="205"/>
-      <c r="D170" s="263"/>
-      <c r="E170" s="205"/>
-      <c r="F170" s="262"/>
-      <c r="G170" s="205"/>
-      <c r="H170" s="205"/>
-      <c r="I170" s="209"/>
+      <c r="A170" s="264"/>
+      <c r="B170" s="265"/>
+      <c r="C170" s="208"/>
+      <c r="D170" s="266"/>
+      <c r="E170" s="208"/>
+      <c r="F170" s="265"/>
+      <c r="G170" s="208"/>
+      <c r="H170" s="208"/>
+      <c r="I170" s="212"/>
     </row>
     <row r="171">
-      <c r="A171" s="264"/>
-      <c r="B171" s="265"/>
-      <c r="C171" s="213"/>
-      <c r="D171" s="266"/>
-      <c r="E171" s="213"/>
-      <c r="F171" s="265"/>
-      <c r="G171" s="213"/>
-      <c r="H171" s="213"/>
-      <c r="I171" s="217"/>
+      <c r="A171" s="267"/>
+      <c r="B171" s="268"/>
+      <c r="C171" s="216"/>
+      <c r="D171" s="269"/>
+      <c r="E171" s="216"/>
+      <c r="F171" s="268"/>
+      <c r="G171" s="216"/>
+      <c r="H171" s="216"/>
+      <c r="I171" s="220"/>
     </row>
     <row r="172">
-      <c r="A172" s="261"/>
-      <c r="B172" s="262"/>
-      <c r="C172" s="205"/>
-      <c r="D172" s="263"/>
-      <c r="E172" s="205"/>
-      <c r="F172" s="262"/>
-      <c r="G172" s="205"/>
-      <c r="H172" s="205"/>
-      <c r="I172" s="209"/>
+      <c r="A172" s="264"/>
+      <c r="B172" s="265"/>
+      <c r="C172" s="208"/>
+      <c r="D172" s="266"/>
+      <c r="E172" s="208"/>
+      <c r="F172" s="265"/>
+      <c r="G172" s="208"/>
+      <c r="H172" s="208"/>
+      <c r="I172" s="212"/>
     </row>
     <row r="173">
-      <c r="A173" s="264"/>
-      <c r="B173" s="265"/>
-      <c r="C173" s="213"/>
-      <c r="D173" s="266"/>
-      <c r="E173" s="213"/>
-      <c r="F173" s="265"/>
-      <c r="G173" s="213"/>
-      <c r="H173" s="213"/>
-      <c r="I173" s="217"/>
+      <c r="A173" s="267"/>
+      <c r="B173" s="268"/>
+      <c r="C173" s="216"/>
+      <c r="D173" s="269"/>
+      <c r="E173" s="216"/>
+      <c r="F173" s="268"/>
+      <c r="G173" s="216"/>
+      <c r="H173" s="216"/>
+      <c r="I173" s="220"/>
     </row>
     <row r="174">
-      <c r="A174" s="261"/>
-      <c r="B174" s="262"/>
-      <c r="C174" s="205"/>
-      <c r="D174" s="263"/>
-      <c r="E174" s="205"/>
-      <c r="F174" s="262"/>
-      <c r="G174" s="205"/>
-      <c r="H174" s="205"/>
-      <c r="I174" s="209"/>
+      <c r="A174" s="264"/>
+      <c r="B174" s="265"/>
+      <c r="C174" s="208"/>
+      <c r="D174" s="266"/>
+      <c r="E174" s="208"/>
+      <c r="F174" s="265"/>
+      <c r="G174" s="208"/>
+      <c r="H174" s="208"/>
+      <c r="I174" s="212"/>
     </row>
     <row r="175">
-      <c r="A175" s="264"/>
-      <c r="B175" s="265"/>
-      <c r="C175" s="213"/>
-      <c r="D175" s="266"/>
-      <c r="E175" s="213"/>
-      <c r="F175" s="265"/>
-      <c r="G175" s="213"/>
-      <c r="H175" s="213"/>
-      <c r="I175" s="217"/>
+      <c r="A175" s="267"/>
+      <c r="B175" s="268"/>
+      <c r="C175" s="216"/>
+      <c r="D175" s="269"/>
+      <c r="E175" s="216"/>
+      <c r="F175" s="268"/>
+      <c r="G175" s="216"/>
+      <c r="H175" s="216"/>
+      <c r="I175" s="220"/>
     </row>
     <row r="176">
-      <c r="A176" s="261"/>
-      <c r="B176" s="262"/>
-      <c r="C176" s="205"/>
-      <c r="D176" s="263"/>
-      <c r="E176" s="205"/>
-      <c r="F176" s="262"/>
-      <c r="G176" s="205"/>
-      <c r="H176" s="205"/>
-      <c r="I176" s="209"/>
+      <c r="A176" s="264"/>
+      <c r="B176" s="265"/>
+      <c r="C176" s="208"/>
+      <c r="D176" s="266"/>
+      <c r="E176" s="208"/>
+      <c r="F176" s="265"/>
+      <c r="G176" s="208"/>
+      <c r="H176" s="208"/>
+      <c r="I176" s="212"/>
     </row>
     <row r="177">
-      <c r="A177" s="264"/>
-      <c r="B177" s="265"/>
-      <c r="C177" s="213"/>
-      <c r="D177" s="266"/>
-      <c r="E177" s="213"/>
-      <c r="F177" s="265"/>
-      <c r="G177" s="213"/>
-      <c r="H177" s="213"/>
-      <c r="I177" s="217"/>
+      <c r="A177" s="267"/>
+      <c r="B177" s="268"/>
+      <c r="C177" s="216"/>
+      <c r="D177" s="269"/>
+      <c r="E177" s="216"/>
+      <c r="F177" s="268"/>
+      <c r="G177" s="216"/>
+      <c r="H177" s="216"/>
+      <c r="I177" s="220"/>
     </row>
     <row r="178">
-      <c r="A178" s="261"/>
-      <c r="B178" s="262"/>
-      <c r="C178" s="205"/>
-      <c r="D178" s="263"/>
-      <c r="E178" s="205"/>
-      <c r="F178" s="262"/>
-      <c r="G178" s="205"/>
-      <c r="H178" s="205"/>
-      <c r="I178" s="209"/>
+      <c r="A178" s="264"/>
+      <c r="B178" s="265"/>
+      <c r="C178" s="208"/>
+      <c r="D178" s="266"/>
+      <c r="E178" s="208"/>
+      <c r="F178" s="265"/>
+      <c r="G178" s="208"/>
+      <c r="H178" s="208"/>
+      <c r="I178" s="212"/>
     </row>
     <row r="179">
-      <c r="A179" s="264"/>
-      <c r="B179" s="265"/>
-      <c r="C179" s="213"/>
-      <c r="D179" s="266"/>
-      <c r="E179" s="213"/>
-      <c r="F179" s="265"/>
-      <c r="G179" s="213"/>
-      <c r="H179" s="213"/>
-      <c r="I179" s="217"/>
+      <c r="A179" s="267"/>
+      <c r="B179" s="268"/>
+      <c r="C179" s="216"/>
+      <c r="D179" s="269"/>
+      <c r="E179" s="216"/>
+      <c r="F179" s="268"/>
+      <c r="G179" s="216"/>
+      <c r="H179" s="216"/>
+      <c r="I179" s="220"/>
     </row>
     <row r="180">
-      <c r="A180" s="261"/>
-      <c r="B180" s="262"/>
-      <c r="C180" s="205"/>
-      <c r="D180" s="263"/>
-      <c r="E180" s="205"/>
-      <c r="F180" s="262"/>
-      <c r="G180" s="205"/>
-      <c r="H180" s="205"/>
-      <c r="I180" s="209"/>
+      <c r="A180" s="264"/>
+      <c r="B180" s="265"/>
+      <c r="C180" s="208"/>
+      <c r="D180" s="266"/>
+      <c r="E180" s="208"/>
+      <c r="F180" s="265"/>
+      <c r="G180" s="208"/>
+      <c r="H180" s="208"/>
+      <c r="I180" s="212"/>
     </row>
     <row r="181">
-      <c r="A181" s="264"/>
-      <c r="B181" s="265"/>
-      <c r="C181" s="213"/>
-      <c r="D181" s="266"/>
-      <c r="E181" s="213"/>
-      <c r="F181" s="265"/>
-      <c r="G181" s="213"/>
-      <c r="H181" s="213"/>
-      <c r="I181" s="217"/>
+      <c r="A181" s="267"/>
+      <c r="B181" s="268"/>
+      <c r="C181" s="216"/>
+      <c r="D181" s="269"/>
+      <c r="E181" s="216"/>
+      <c r="F181" s="268"/>
+      <c r="G181" s="216"/>
+      <c r="H181" s="216"/>
+      <c r="I181" s="220"/>
     </row>
     <row r="182">
-      <c r="A182" s="261"/>
-      <c r="B182" s="262"/>
-      <c r="C182" s="205"/>
-      <c r="D182" s="263"/>
-      <c r="E182" s="205"/>
-      <c r="F182" s="262"/>
-      <c r="G182" s="205"/>
-      <c r="H182" s="205"/>
-      <c r="I182" s="209"/>
+      <c r="A182" s="264"/>
+      <c r="B182" s="265"/>
+      <c r="C182" s="208"/>
+      <c r="D182" s="266"/>
+      <c r="E182" s="208"/>
+      <c r="F182" s="265"/>
+      <c r="G182" s="208"/>
+      <c r="H182" s="208"/>
+      <c r="I182" s="212"/>
     </row>
     <row r="183">
-      <c r="A183" s="264"/>
-      <c r="B183" s="265"/>
-      <c r="C183" s="213"/>
-      <c r="D183" s="266"/>
-      <c r="E183" s="213"/>
-      <c r="F183" s="265"/>
-      <c r="G183" s="213"/>
-      <c r="H183" s="213"/>
-      <c r="I183" s="217"/>
+      <c r="A183" s="267"/>
+      <c r="B183" s="268"/>
+      <c r="C183" s="216"/>
+      <c r="D183" s="269"/>
+      <c r="E183" s="216"/>
+      <c r="F183" s="268"/>
+      <c r="G183" s="216"/>
+      <c r="H183" s="216"/>
+      <c r="I183" s="220"/>
     </row>
     <row r="184">
-      <c r="A184" s="261"/>
-      <c r="B184" s="262"/>
-      <c r="C184" s="205"/>
-      <c r="D184" s="263"/>
-      <c r="E184" s="205"/>
-      <c r="F184" s="262"/>
-      <c r="G184" s="205"/>
-      <c r="H184" s="205"/>
-      <c r="I184" s="209"/>
+      <c r="A184" s="264"/>
+      <c r="B184" s="265"/>
+      <c r="C184" s="208"/>
+      <c r="D184" s="266"/>
+      <c r="E184" s="208"/>
+      <c r="F184" s="265"/>
+      <c r="G184" s="208"/>
+      <c r="H184" s="208"/>
+      <c r="I184" s="212"/>
     </row>
     <row r="185">
-      <c r="A185" s="264"/>
-      <c r="B185" s="265"/>
-      <c r="C185" s="213"/>
-      <c r="D185" s="266"/>
-      <c r="E185" s="213"/>
-      <c r="F185" s="265"/>
-      <c r="G185" s="213"/>
-      <c r="H185" s="213"/>
-      <c r="I185" s="217"/>
+      <c r="A185" s="267"/>
+      <c r="B185" s="268"/>
+      <c r="C185" s="216"/>
+      <c r="D185" s="269"/>
+      <c r="E185" s="216"/>
+      <c r="F185" s="268"/>
+      <c r="G185" s="216"/>
+      <c r="H185" s="216"/>
+      <c r="I185" s="220"/>
     </row>
     <row r="186">
-      <c r="A186" s="261"/>
-      <c r="B186" s="262"/>
-      <c r="C186" s="205"/>
-      <c r="D186" s="263"/>
-      <c r="E186" s="205"/>
-      <c r="F186" s="262"/>
-      <c r="G186" s="205"/>
-      <c r="H186" s="205"/>
-      <c r="I186" s="209"/>
+      <c r="A186" s="264"/>
+      <c r="B186" s="265"/>
+      <c r="C186" s="208"/>
+      <c r="D186" s="266"/>
+      <c r="E186" s="208"/>
+      <c r="F186" s="265"/>
+      <c r="G186" s="208"/>
+      <c r="H186" s="208"/>
+      <c r="I186" s="212"/>
     </row>
     <row r="187">
-      <c r="A187" s="264"/>
-      <c r="B187" s="265"/>
-      <c r="C187" s="213"/>
-      <c r="D187" s="266"/>
-      <c r="E187" s="213"/>
-      <c r="F187" s="265"/>
-      <c r="G187" s="213"/>
-      <c r="H187" s="213"/>
-      <c r="I187" s="217"/>
+      <c r="A187" s="267"/>
+      <c r="B187" s="268"/>
+      <c r="C187" s="216"/>
+      <c r="D187" s="269"/>
+      <c r="E187" s="216"/>
+      <c r="F187" s="268"/>
+      <c r="G187" s="216"/>
+      <c r="H187" s="216"/>
+      <c r="I187" s="220"/>
     </row>
     <row r="188">
-      <c r="A188" s="261"/>
-      <c r="B188" s="262"/>
-      <c r="C188" s="205"/>
-      <c r="D188" s="263"/>
-      <c r="E188" s="205"/>
-      <c r="F188" s="262"/>
-      <c r="G188" s="205"/>
-      <c r="H188" s="205"/>
-      <c r="I188" s="209"/>
+      <c r="A188" s="264"/>
+      <c r="B188" s="265"/>
+      <c r="C188" s="208"/>
+      <c r="D188" s="266"/>
+      <c r="E188" s="208"/>
+      <c r="F188" s="265"/>
+      <c r="G188" s="208"/>
+      <c r="H188" s="208"/>
+      <c r="I188" s="212"/>
     </row>
     <row r="189">
-      <c r="A189" s="264"/>
-      <c r="B189" s="265"/>
-      <c r="C189" s="213"/>
-      <c r="D189" s="266"/>
-      <c r="E189" s="213"/>
-      <c r="F189" s="265"/>
-      <c r="G189" s="213"/>
-      <c r="H189" s="213"/>
-      <c r="I189" s="217"/>
+      <c r="A189" s="267"/>
+      <c r="B189" s="268"/>
+      <c r="C189" s="216"/>
+      <c r="D189" s="269"/>
+      <c r="E189" s="216"/>
+      <c r="F189" s="268"/>
+      <c r="G189" s="216"/>
+      <c r="H189" s="216"/>
+      <c r="I189" s="220"/>
     </row>
     <row r="190">
-      <c r="A190" s="261"/>
-      <c r="B190" s="262"/>
-      <c r="C190" s="205"/>
-      <c r="D190" s="263"/>
-      <c r="E190" s="205"/>
-      <c r="F190" s="262"/>
-      <c r="G190" s="205"/>
-      <c r="H190" s="205"/>
-      <c r="I190" s="209"/>
+      <c r="A190" s="264"/>
+      <c r="B190" s="265"/>
+      <c r="C190" s="208"/>
+      <c r="D190" s="266"/>
+      <c r="E190" s="208"/>
+      <c r="F190" s="265"/>
+      <c r="G190" s="208"/>
+      <c r="H190" s="208"/>
+      <c r="I190" s="212"/>
     </row>
     <row r="191">
-      <c r="A191" s="264"/>
-      <c r="B191" s="265"/>
-      <c r="C191" s="213"/>
-      <c r="D191" s="266"/>
-      <c r="E191" s="213"/>
-      <c r="F191" s="265"/>
-      <c r="G191" s="213"/>
-      <c r="H191" s="213"/>
-      <c r="I191" s="217"/>
+      <c r="A191" s="267"/>
+      <c r="B191" s="268"/>
+      <c r="C191" s="216"/>
+      <c r="D191" s="269"/>
+      <c r="E191" s="216"/>
+      <c r="F191" s="268"/>
+      <c r="G191" s="216"/>
+      <c r="H191" s="216"/>
+      <c r="I191" s="220"/>
     </row>
     <row r="192">
-      <c r="A192" s="261"/>
-      <c r="B192" s="262"/>
-      <c r="C192" s="205"/>
-      <c r="D192" s="263"/>
-      <c r="E192" s="205"/>
-      <c r="F192" s="262"/>
-      <c r="G192" s="205"/>
-      <c r="H192" s="205"/>
-      <c r="I192" s="209"/>
+      <c r="A192" s="264"/>
+      <c r="B192" s="265"/>
+      <c r="C192" s="208"/>
+      <c r="D192" s="266"/>
+      <c r="E192" s="208"/>
+      <c r="F192" s="265"/>
+      <c r="G192" s="208"/>
+      <c r="H192" s="208"/>
+      <c r="I192" s="212"/>
     </row>
     <row r="193">
-      <c r="A193" s="264"/>
-      <c r="B193" s="265"/>
-      <c r="C193" s="213"/>
-      <c r="D193" s="266"/>
-      <c r="E193" s="213"/>
-      <c r="F193" s="265"/>
-      <c r="G193" s="213"/>
-      <c r="H193" s="213"/>
-      <c r="I193" s="217"/>
+      <c r="A193" s="267"/>
+      <c r="B193" s="268"/>
+      <c r="C193" s="216"/>
+      <c r="D193" s="269"/>
+      <c r="E193" s="216"/>
+      <c r="F193" s="268"/>
+      <c r="G193" s="216"/>
+      <c r="H193" s="216"/>
+      <c r="I193" s="220"/>
     </row>
     <row r="194">
-      <c r="A194" s="261"/>
-      <c r="B194" s="262"/>
-      <c r="C194" s="205"/>
-      <c r="D194" s="263"/>
-      <c r="E194" s="205"/>
-      <c r="F194" s="262"/>
-      <c r="G194" s="205"/>
-      <c r="H194" s="205"/>
-      <c r="I194" s="209"/>
+      <c r="A194" s="264"/>
+      <c r="B194" s="265"/>
+      <c r="C194" s="208"/>
+      <c r="D194" s="266"/>
+      <c r="E194" s="208"/>
+      <c r="F194" s="265"/>
+      <c r="G194" s="208"/>
+      <c r="H194" s="208"/>
+      <c r="I194" s="212"/>
     </row>
     <row r="195">
-      <c r="A195" s="264"/>
-      <c r="B195" s="265"/>
-      <c r="C195" s="213"/>
-      <c r="D195" s="266"/>
-      <c r="E195" s="213"/>
-      <c r="F195" s="265"/>
-      <c r="G195" s="213"/>
-      <c r="H195" s="213"/>
-      <c r="I195" s="217"/>
+      <c r="A195" s="267"/>
+      <c r="B195" s="268"/>
+      <c r="C195" s="216"/>
+      <c r="D195" s="269"/>
+      <c r="E195" s="216"/>
+      <c r="F195" s="268"/>
+      <c r="G195" s="216"/>
+      <c r="H195" s="216"/>
+      <c r="I195" s="220"/>
     </row>
     <row r="196">
-      <c r="A196" s="261"/>
-      <c r="B196" s="262"/>
-      <c r="C196" s="205"/>
-      <c r="D196" s="263"/>
-      <c r="E196" s="205"/>
-      <c r="F196" s="262"/>
-      <c r="G196" s="205"/>
-      <c r="H196" s="205"/>
-      <c r="I196" s="209"/>
+      <c r="A196" s="264"/>
+      <c r="B196" s="265"/>
+      <c r="C196" s="208"/>
+      <c r="D196" s="266"/>
+      <c r="E196" s="208"/>
+      <c r="F196" s="265"/>
+      <c r="G196" s="208"/>
+      <c r="H196" s="208"/>
+      <c r="I196" s="212"/>
     </row>
     <row r="197">
-      <c r="A197" s="264"/>
-      <c r="B197" s="265"/>
-      <c r="C197" s="213"/>
-      <c r="D197" s="266"/>
-      <c r="E197" s="213"/>
-      <c r="F197" s="265"/>
-      <c r="G197" s="213"/>
-      <c r="H197" s="213"/>
-      <c r="I197" s="217"/>
+      <c r="A197" s="267"/>
+      <c r="B197" s="268"/>
+      <c r="C197" s="216"/>
+      <c r="D197" s="269"/>
+      <c r="E197" s="216"/>
+      <c r="F197" s="268"/>
+      <c r="G197" s="216"/>
+      <c r="H197" s="216"/>
+      <c r="I197" s="220"/>
     </row>
     <row r="198">
-      <c r="A198" s="261"/>
-      <c r="B198" s="262"/>
-      <c r="C198" s="205"/>
-      <c r="D198" s="263"/>
-      <c r="E198" s="205"/>
-      <c r="F198" s="262"/>
-      <c r="G198" s="205"/>
-      <c r="H198" s="205"/>
-      <c r="I198" s="209"/>
+      <c r="A198" s="264"/>
+      <c r="B198" s="265"/>
+      <c r="C198" s="208"/>
+      <c r="D198" s="266"/>
+      <c r="E198" s="208"/>
+      <c r="F198" s="265"/>
+      <c r="G198" s="208"/>
+      <c r="H198" s="208"/>
+      <c r="I198" s="212"/>
     </row>
     <row r="199">
-      <c r="A199" s="264"/>
-      <c r="B199" s="265"/>
-      <c r="C199" s="213"/>
-      <c r="D199" s="266"/>
-      <c r="E199" s="213"/>
-      <c r="F199" s="265"/>
-      <c r="G199" s="213"/>
-      <c r="H199" s="213"/>
-      <c r="I199" s="217"/>
+      <c r="A199" s="267"/>
+      <c r="B199" s="268"/>
+      <c r="C199" s="216"/>
+      <c r="D199" s="269"/>
+      <c r="E199" s="216"/>
+      <c r="F199" s="268"/>
+      <c r="G199" s="216"/>
+      <c r="H199" s="216"/>
+      <c r="I199" s="220"/>
     </row>
     <row r="200">
-      <c r="A200" s="261"/>
-      <c r="B200" s="262"/>
-      <c r="C200" s="205"/>
-      <c r="D200" s="263"/>
-      <c r="E200" s="205"/>
-      <c r="F200" s="262"/>
-      <c r="G200" s="205"/>
-      <c r="H200" s="205"/>
-      <c r="I200" s="209"/>
+      <c r="A200" s="264"/>
+      <c r="B200" s="265"/>
+      <c r="C200" s="208"/>
+      <c r="D200" s="266"/>
+      <c r="E200" s="208"/>
+      <c r="F200" s="265"/>
+      <c r="G200" s="208"/>
+      <c r="H200" s="208"/>
+      <c r="I200" s="212"/>
     </row>
     <row r="201">
-      <c r="A201" s="264"/>
-      <c r="B201" s="265"/>
-      <c r="C201" s="213"/>
-      <c r="D201" s="266"/>
-      <c r="E201" s="213"/>
-      <c r="F201" s="265"/>
-      <c r="G201" s="213"/>
-      <c r="H201" s="213"/>
-      <c r="I201" s="217"/>
+      <c r="A201" s="267"/>
+      <c r="B201" s="268"/>
+      <c r="C201" s="216"/>
+      <c r="D201" s="269"/>
+      <c r="E201" s="216"/>
+      <c r="F201" s="268"/>
+      <c r="G201" s="216"/>
+      <c r="H201" s="216"/>
+      <c r="I201" s="220"/>
     </row>
     <row r="202">
-      <c r="A202" s="261"/>
-      <c r="B202" s="262"/>
-      <c r="C202" s="205"/>
-      <c r="D202" s="263"/>
-      <c r="E202" s="205"/>
-      <c r="F202" s="262"/>
-      <c r="G202" s="205"/>
-      <c r="H202" s="205"/>
-      <c r="I202" s="209"/>
+      <c r="A202" s="264"/>
+      <c r="B202" s="265"/>
+      <c r="C202" s="208"/>
+      <c r="D202" s="266"/>
+      <c r="E202" s="208"/>
+      <c r="F202" s="265"/>
+      <c r="G202" s="208"/>
+      <c r="H202" s="208"/>
+      <c r="I202" s="212"/>
     </row>
     <row r="203">
-      <c r="A203" s="264"/>
-      <c r="B203" s="265"/>
-      <c r="C203" s="213"/>
-      <c r="D203" s="266"/>
-      <c r="E203" s="213"/>
-      <c r="F203" s="265"/>
-      <c r="G203" s="213"/>
-      <c r="H203" s="213"/>
-      <c r="I203" s="217"/>
+      <c r="A203" s="267"/>
+      <c r="B203" s="268"/>
+      <c r="C203" s="216"/>
+      <c r="D203" s="269"/>
+      <c r="E203" s="216"/>
+      <c r="F203" s="268"/>
+      <c r="G203" s="216"/>
+      <c r="H203" s="216"/>
+      <c r="I203" s="220"/>
     </row>
     <row r="204">
-      <c r="A204" s="261"/>
-      <c r="B204" s="262"/>
-      <c r="C204" s="205"/>
-      <c r="D204" s="263"/>
-      <c r="E204" s="205"/>
-      <c r="F204" s="262"/>
-      <c r="G204" s="205"/>
-      <c r="H204" s="205"/>
-      <c r="I204" s="209"/>
+      <c r="A204" s="264"/>
+      <c r="B204" s="265"/>
+      <c r="C204" s="208"/>
+      <c r="D204" s="266"/>
+      <c r="E204" s="208"/>
+      <c r="F204" s="265"/>
+      <c r="G204" s="208"/>
+      <c r="H204" s="208"/>
+      <c r="I204" s="212"/>
     </row>
     <row r="205">
-      <c r="A205" s="264"/>
-      <c r="B205" s="265"/>
-      <c r="C205" s="213"/>
-      <c r="D205" s="266"/>
-      <c r="E205" s="213"/>
-      <c r="F205" s="265"/>
-      <c r="G205" s="213"/>
-      <c r="H205" s="213"/>
-      <c r="I205" s="217"/>
+      <c r="A205" s="267"/>
+      <c r="B205" s="268"/>
+      <c r="C205" s="216"/>
+      <c r="D205" s="269"/>
+      <c r="E205" s="216"/>
+      <c r="F205" s="268"/>
+      <c r="G205" s="216"/>
+      <c r="H205" s="216"/>
+      <c r="I205" s="220"/>
     </row>
     <row r="206">
-      <c r="A206" s="261"/>
-      <c r="B206" s="262"/>
-      <c r="C206" s="205"/>
-      <c r="D206" s="263"/>
-      <c r="E206" s="205"/>
-      <c r="F206" s="262"/>
-      <c r="G206" s="205"/>
-      <c r="H206" s="205"/>
-      <c r="I206" s="209"/>
+      <c r="A206" s="264"/>
+      <c r="B206" s="265"/>
+      <c r="C206" s="208"/>
+      <c r="D206" s="266"/>
+      <c r="E206" s="208"/>
+      <c r="F206" s="265"/>
+      <c r="G206" s="208"/>
+      <c r="H206" s="208"/>
+      <c r="I206" s="212"/>
     </row>
     <row r="207">
-      <c r="A207" s="264"/>
-      <c r="B207" s="265"/>
-      <c r="C207" s="213"/>
-      <c r="D207" s="266"/>
-      <c r="E207" s="213"/>
-      <c r="F207" s="265"/>
-      <c r="G207" s="213"/>
-      <c r="H207" s="213"/>
-      <c r="I207" s="217"/>
+      <c r="A207" s="267"/>
+      <c r="B207" s="268"/>
+      <c r="C207" s="216"/>
+      <c r="D207" s="269"/>
+      <c r="E207" s="216"/>
+      <c r="F207" s="268"/>
+      <c r="G207" s="216"/>
+      <c r="H207" s="216"/>
+      <c r="I207" s="220"/>
     </row>
     <row r="208">
-      <c r="A208" s="261"/>
-      <c r="B208" s="262"/>
-      <c r="C208" s="205"/>
-      <c r="D208" s="263"/>
-      <c r="E208" s="205"/>
-      <c r="F208" s="262"/>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
-      <c r="I208" s="209"/>
+      <c r="A208" s="264"/>
+      <c r="B208" s="265"/>
+      <c r="C208" s="208"/>
+      <c r="D208" s="266"/>
+      <c r="E208" s="208"/>
+      <c r="F208" s="265"/>
+      <c r="G208" s="208"/>
+      <c r="H208" s="208"/>
+      <c r="I208" s="212"/>
     </row>
     <row r="209">
-      <c r="A209" s="264"/>
-      <c r="B209" s="265"/>
-      <c r="C209" s="213"/>
-      <c r="D209" s="266"/>
-      <c r="E209" s="213"/>
-      <c r="F209" s="265"/>
-      <c r="G209" s="213"/>
-      <c r="H209" s="213"/>
-      <c r="I209" s="217"/>
+      <c r="A209" s="267"/>
+      <c r="B209" s="268"/>
+      <c r="C209" s="216"/>
+      <c r="D209" s="269"/>
+      <c r="E209" s="216"/>
+      <c r="F209" s="268"/>
+      <c r="G209" s="216"/>
+      <c r="H209" s="216"/>
+      <c r="I209" s="220"/>
     </row>
     <row r="210">
-      <c r="A210" s="261"/>
-      <c r="B210" s="262"/>
-      <c r="C210" s="205"/>
-      <c r="D210" s="263"/>
-      <c r="E210" s="205"/>
-      <c r="F210" s="262"/>
-      <c r="G210" s="205"/>
-      <c r="H210" s="205"/>
-      <c r="I210" s="209"/>
+      <c r="A210" s="264"/>
+      <c r="B210" s="265"/>
+      <c r="C210" s="208"/>
+      <c r="D210" s="266"/>
+      <c r="E210" s="208"/>
+      <c r="F210" s="265"/>
+      <c r="G210" s="208"/>
+      <c r="H210" s="208"/>
+      <c r="I210" s="212"/>
     </row>
     <row r="211">
-      <c r="A211" s="264"/>
-      <c r="B211" s="265"/>
-      <c r="C211" s="213"/>
-      <c r="D211" s="266"/>
-      <c r="E211" s="213"/>
-      <c r="F211" s="265"/>
-      <c r="G211" s="213"/>
-      <c r="H211" s="213"/>
-      <c r="I211" s="217"/>
+      <c r="A211" s="267"/>
+      <c r="B211" s="268"/>
+      <c r="C211" s="216"/>
+      <c r="D211" s="269"/>
+      <c r="E211" s="216"/>
+      <c r="F211" s="268"/>
+      <c r="G211" s="216"/>
+      <c r="H211" s="216"/>
+      <c r="I211" s="220"/>
     </row>
     <row r="212">
-      <c r="A212" s="261"/>
-      <c r="B212" s="262"/>
-      <c r="C212" s="205"/>
-      <c r="D212" s="263"/>
-      <c r="E212" s="205"/>
-      <c r="F212" s="262"/>
-      <c r="G212" s="205"/>
-      <c r="H212" s="205"/>
-      <c r="I212" s="209"/>
+      <c r="A212" s="264"/>
+      <c r="B212" s="265"/>
+      <c r="C212" s="208"/>
+      <c r="D212" s="266"/>
+      <c r="E212" s="208"/>
+      <c r="F212" s="265"/>
+      <c r="G212" s="208"/>
+      <c r="H212" s="208"/>
+      <c r="I212" s="212"/>
     </row>
     <row r="213">
-      <c r="A213" s="264"/>
-      <c r="B213" s="265"/>
-      <c r="C213" s="213"/>
-      <c r="D213" s="266"/>
-      <c r="E213" s="213"/>
-      <c r="F213" s="265"/>
-      <c r="G213" s="213"/>
-      <c r="H213" s="213"/>
-      <c r="I213" s="217"/>
+      <c r="A213" s="267"/>
+      <c r="B213" s="268"/>
+      <c r="C213" s="216"/>
+      <c r="D213" s="269"/>
+      <c r="E213" s="216"/>
+      <c r="F213" s="268"/>
+      <c r="G213" s="216"/>
+      <c r="H213" s="216"/>
+      <c r="I213" s="220"/>
     </row>
     <row r="214">
-      <c r="A214" s="261"/>
-      <c r="B214" s="262"/>
-      <c r="C214" s="205"/>
-      <c r="D214" s="263"/>
-      <c r="E214" s="205"/>
-      <c r="F214" s="262"/>
-      <c r="G214" s="205"/>
-      <c r="H214" s="205"/>
-      <c r="I214" s="209"/>
+      <c r="A214" s="264"/>
+      <c r="B214" s="265"/>
+      <c r="C214" s="208"/>
+      <c r="D214" s="266"/>
+      <c r="E214" s="208"/>
+      <c r="F214" s="265"/>
+      <c r="G214" s="208"/>
+      <c r="H214" s="208"/>
+      <c r="I214" s="212"/>
     </row>
     <row r="215">
-      <c r="A215" s="264"/>
-      <c r="B215" s="265"/>
-      <c r="C215" s="213"/>
-      <c r="D215" s="266"/>
-      <c r="E215" s="213"/>
-      <c r="F215" s="265"/>
-      <c r="G215" s="213"/>
-      <c r="H215" s="213"/>
-      <c r="I215" s="217"/>
+      <c r="A215" s="267"/>
+      <c r="B215" s="268"/>
+      <c r="C215" s="216"/>
+      <c r="D215" s="269"/>
+      <c r="E215" s="216"/>
+      <c r="F215" s="268"/>
+      <c r="G215" s="216"/>
+      <c r="H215" s="216"/>
+      <c r="I215" s="220"/>
     </row>
     <row r="216">
-      <c r="A216" s="261"/>
-      <c r="B216" s="262"/>
-      <c r="C216" s="205"/>
-      <c r="D216" s="263"/>
-      <c r="E216" s="205"/>
-      <c r="F216" s="262"/>
-      <c r="G216" s="205"/>
-      <c r="H216" s="205"/>
-      <c r="I216" s="209"/>
+      <c r="A216" s="264"/>
+      <c r="B216" s="265"/>
+      <c r="C216" s="208"/>
+      <c r="D216" s="266"/>
+      <c r="E216" s="208"/>
+      <c r="F216" s="265"/>
+      <c r="G216" s="208"/>
+      <c r="H216" s="208"/>
+      <c r="I216" s="212"/>
     </row>
     <row r="217">
-      <c r="A217" s="267"/>
-      <c r="B217" s="268"/>
-      <c r="C217" s="269"/>
-      <c r="D217" s="270"/>
-      <c r="E217" s="269"/>
-      <c r="F217" s="268"/>
-      <c r="G217" s="269"/>
-      <c r="H217" s="269"/>
-      <c r="I217" s="271"/>
+      <c r="A217" s="270"/>
+      <c r="B217" s="271"/>
+      <c r="C217" s="272"/>
+      <c r="D217" s="273"/>
+      <c r="E217" s="272"/>
+      <c r="F217" s="271"/>
+      <c r="G217" s="272"/>
+      <c r="H217" s="272"/>
+      <c r="I217" s="274"/>
     </row>
   </sheetData>
   <dataValidations>
